--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main Maps" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="84">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t xml:space="preserve">KZ_Valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnetic Skyscraper</t>
   </si>
 </sst>
 </file>
@@ -408,8 +411,8 @@
   </sheetPr>
   <dimension ref="A1:D367"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B71" activeCellId="0" sqref="B71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B72" activeCellId="0" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1404,9 +1407,15 @@
       <c r="A71" s="3" t="n">
         <v>45661</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
+      <c r="B71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="n">
@@ -3787,8 +3796,8 @@
   </sheetPr>
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4377,9 +4386,15 @@
       <c r="A42" s="3" t="n">
         <v>45661</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="85">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t xml:space="preserve">Magnetic Skyscraper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leaning Tower of Crystoasis</t>
   </si>
 </sst>
 </file>
@@ -411,8 +414,8 @@
   </sheetPr>
   <dimension ref="A1:D367"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B72" activeCellId="0" sqref="B72"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B73" activeCellId="0" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1421,9 +1424,15 @@
       <c r="A72" s="3" t="n">
         <v>45662</v>
       </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
+      <c r="B72" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="n">
@@ -3797,7 +3806,7 @@
   <dimension ref="A1:D366"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
+      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4400,9 +4409,15 @@
       <c r="A43" s="3" t="n">
         <v>45662</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Main Maps" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="85">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -414,8 +414,8 @@
   </sheetPr>
   <dimension ref="A1:D367"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B73" activeCellId="0" sqref="B73"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B74" activeCellId="0" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1438,9 +1438,15 @@
       <c r="A73" s="3" t="n">
         <v>45663</v>
       </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
+      <c r="B73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="n">
@@ -3805,7 +3811,7 @@
   </sheetPr>
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
     </sheetView>
   </sheetViews>

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main Maps" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="87">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -276,6 +276,12 @@
   </si>
   <si>
     <t xml:space="preserve">Leaning Tower of Crystoasis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descending Disruption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exterior: The Blizzard</t>
   </si>
 </sst>
 </file>
@@ -414,8 +420,8 @@
   </sheetPr>
   <dimension ref="A1:D367"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B74" activeCellId="0" sqref="B74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A60" activeCellId="0" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1452,9 +1458,15 @@
       <c r="A74" s="3" t="n">
         <v>45664</v>
       </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
+      <c r="B74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="n">
@@ -3811,8 +3823,8 @@
   </sheetPr>
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B46" activeCellId="0" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4429,17 +4441,29 @@
       <c r="A44" s="3" t="n">
         <v>45663</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="n">
         <v>45664</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="B45" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="88">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -282,6 +282,26 @@
   </si>
   <si>
     <t xml:space="preserve">Exterior: The Blizzard</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Keep of the Transcendents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -292,7 +312,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -329,6 +349,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -380,7 +406,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -398,6 +424,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -420,8 +450,8 @@
   </sheetPr>
   <dimension ref="A1:D367"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A60" activeCellId="0" sqref="A60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B76" activeCellId="0" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1472,9 +1502,15 @@
       <c r="A75" s="3" t="n">
         <v>45665</v>
       </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+      <c r="B75" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="n">
@@ -3824,7 +3860,7 @@
   <dimension ref="A1:D366"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B46" activeCellId="0" sqref="B46"/>
+      <selection pane="topLeft" activeCell="D47" activeCellId="0" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4469,9 +4505,15 @@
       <c r="A46" s="3" t="n">
         <v>45665</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="B46" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="89">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -302,6 +302,9 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Sodom</t>
   </si>
 </sst>
 </file>
@@ -450,8 +453,8 @@
   </sheetPr>
   <dimension ref="A1:D367"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B76" activeCellId="0" sqref="B76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B77" activeCellId="0" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1516,9 +1519,15 @@
       <c r="A76" s="3" t="n">
         <v>45666</v>
       </c>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
+      <c r="B76" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="n">
@@ -3860,7 +3869,7 @@
   <dimension ref="A1:D366"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D47" activeCellId="0" sqref="D47"/>
+      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4519,9 +4528,15 @@
       <c r="A47" s="3" t="n">
         <v>45666</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="90">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t xml:space="preserve">Sodom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hell Great Library</t>
   </si>
 </sst>
 </file>
@@ -453,8 +456,8 @@
   </sheetPr>
   <dimension ref="A1:D367"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B77" activeCellId="0" sqref="B77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B78" activeCellId="0" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1533,9 +1536,15 @@
       <c r="A77" s="3" t="n">
         <v>45667</v>
       </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
+      <c r="B77" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="n">
@@ -3869,7 +3878,7 @@
   <dimension ref="A1:D366"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
+      <selection pane="topLeft" activeCell="B49" activeCellId="0" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4542,9 +4551,15 @@
       <c r="A48" s="3" t="n">
         <v>45667</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
+      <c r="B48" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="91">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t xml:space="preserve">Hell Great Library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evergreen Heights</t>
   </si>
 </sst>
 </file>
@@ -456,8 +459,8 @@
   </sheetPr>
   <dimension ref="A1:D367"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B78" activeCellId="0" sqref="B78"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B79" activeCellId="0" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1550,9 +1553,15 @@
       <c r="A78" s="3" t="n">
         <v>45668</v>
       </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
+      <c r="B78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="n">
@@ -3878,7 +3887,7 @@
   <dimension ref="A1:D366"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B49" activeCellId="0" sqref="B49"/>
+      <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4565,9 +4574,15 @@
       <c r="A49" s="3" t="n">
         <v>45668</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t xml:space="preserve">Evergreen Heights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Styx</t>
   </si>
 </sst>
 </file>
@@ -459,8 +462,8 @@
   </sheetPr>
   <dimension ref="A1:D367"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B79" activeCellId="0" sqref="B79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B80" activeCellId="0" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1567,9 +1570,15 @@
       <c r="A79" s="3" t="n">
         <v>45669</v>
       </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
+      <c r="B79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="n">
@@ -3887,7 +3896,7 @@
   <dimension ref="A1:D366"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
+      <selection pane="topLeft" activeCell="B51" activeCellId="0" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4588,9 +4597,15 @@
       <c r="A50" s="3" t="n">
         <v>45669</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
+      <c r="B50" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -462,8 +462,8 @@
   </sheetPr>
   <dimension ref="A1:D367"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B80" activeCellId="0" sqref="B80"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B81" activeCellId="0" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1584,9 +1584,15 @@
       <c r="A80" s="3" t="n">
         <v>45670</v>
       </c>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
+      <c r="B80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="n">
@@ -3896,7 +3902,7 @@
   <dimension ref="A1:D366"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B51" activeCellId="0" sqref="B51"/>
+      <selection pane="topLeft" activeCell="B52" activeCellId="0" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4611,9 +4617,15 @@
       <c r="A51" s="3" t="n">
         <v>45670</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
+      <c r="B51" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="94">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -314,6 +314,12 @@
   </si>
   <si>
     <t xml:space="preserve">Styx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyrant Babe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Tower of Invisibility</t>
   </si>
 </sst>
 </file>
@@ -463,7 +469,7 @@
   <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B81" activeCellId="0" sqref="B81"/>
+      <selection pane="topLeft" activeCell="B82" activeCellId="0" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1598,9 +1604,15 @@
       <c r="A81" s="3" t="n">
         <v>45671</v>
       </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
+      <c r="B81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="n">
@@ -3901,8 +3913,8 @@
   </sheetPr>
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B52" activeCellId="0" sqref="B52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B53" activeCellId="0" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4631,9 +4643,15 @@
       <c r="A52" s="3" t="n">
         <v>45671</v>
       </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
+      <c r="B52" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="95">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t xml:space="preserve">The Tower of Invisibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larimar Mines</t>
   </si>
 </sst>
 </file>
@@ -469,7 +472,7 @@
   <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B82" activeCellId="0" sqref="B82"/>
+      <selection pane="topLeft" activeCell="B83" activeCellId="0" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1618,9 +1621,15 @@
       <c r="A82" s="3" t="n">
         <v>45672</v>
       </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
+      <c r="B82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="n">
@@ -3913,8 +3922,8 @@
   </sheetPr>
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B53" activeCellId="0" sqref="B53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B54" activeCellId="0" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4657,9 +4666,15 @@
       <c r="A53" s="3" t="n">
         <v>45672</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
+      <c r="B53" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="96">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t xml:space="preserve">Larimar Mines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yggdrasil</t>
   </si>
 </sst>
 </file>
@@ -472,7 +475,7 @@
   <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B83" activeCellId="0" sqref="B83"/>
+      <selection pane="topLeft" activeCell="B84" activeCellId="0" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1635,9 +1638,15 @@
       <c r="A83" s="3" t="n">
         <v>45673</v>
       </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
+      <c r="B83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D83" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="n">
@@ -3922,8 +3931,8 @@
   </sheetPr>
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B54" activeCellId="0" sqref="B54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4680,9 +4689,15 @@
       <c r="A54" s="3" t="n">
         <v>45673</v>
       </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
+      <c r="B54" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="97">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t xml:space="preserve">Yggdrasil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avernus</t>
   </si>
 </sst>
 </file>
@@ -475,7 +478,7 @@
   <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B84" activeCellId="0" sqref="B84"/>
+      <selection pane="topLeft" activeCell="B85" activeCellId="0" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1652,9 +1655,15 @@
       <c r="A84" s="3" t="n">
         <v>45674</v>
       </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
+      <c r="B84" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="n">
@@ -3931,8 +3940,8 @@
   </sheetPr>
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B56" activeCellId="0" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4703,9 +4712,15 @@
       <c r="A55" s="3" t="n">
         <v>45674</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="B55" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="98">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t xml:space="preserve">Avernus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cursed Citadel</t>
   </si>
 </sst>
 </file>
@@ -478,7 +481,7 @@
   <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B85" activeCellId="0" sqref="B85"/>
+      <selection pane="topLeft" activeCell="B86" activeCellId="0" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1669,9 +1672,15 @@
       <c r="A85" s="3" t="n">
         <v>45675</v>
       </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
+      <c r="B85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="n">
@@ -3940,8 +3949,8 @@
   </sheetPr>
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B56" activeCellId="0" sqref="B56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4726,9 +4735,15 @@
       <c r="A56" s="3" t="n">
         <v>45675</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
+      <c r="B56" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="99">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t xml:space="preserve">Cursed Citadel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skies of Helios</t>
   </si>
 </sst>
 </file>
@@ -481,7 +484,7 @@
   <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B86" activeCellId="0" sqref="B86"/>
+      <selection pane="topLeft" activeCell="B87" activeCellId="0" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1686,9 +1689,15 @@
       <c r="A86" s="3" t="n">
         <v>45676</v>
       </c>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
+      <c r="B86" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="n">
@@ -3949,8 +3958,8 @@
   </sheetPr>
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B58" activeCellId="0" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4749,9 +4758,15 @@
       <c r="A57" s="3" t="n">
         <v>45676</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+      <c r="B57" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="101">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t xml:space="preserve">Black Sanctum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redcrown Woods</t>
   </si>
   <si>
     <t xml:space="preserve">Babe of Redemption</t>
@@ -335,6 +338,9 @@
   </si>
   <si>
     <t xml:space="preserve">Skies of Helios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wind of El Dorado</t>
   </si>
 </sst>
 </file>
@@ -484,7 +490,7 @@
   <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B87" activeCellId="0" sqref="B87"/>
+      <selection pane="topLeft" activeCell="B88" activeCellId="0" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1703,9 +1709,15 @@
       <c r="A87" s="3" t="n">
         <v>45677</v>
       </c>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
+      <c r="B87" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="n">
@@ -3958,8 +3970,8 @@
   </sheetPr>
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B58" activeCellId="0" sqref="B58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3989,10 +4001,10 @@
         <v>45621</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>3</v>
@@ -4003,10 +4015,10 @@
         <v>45622</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>3</v>
@@ -4017,10 +4029,10 @@
         <v>45623</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>5</v>
@@ -4031,10 +4043,10 @@
         <v>45624</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>6</v>
@@ -4045,10 +4057,10 @@
         <v>45625</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>6</v>
@@ -4059,10 +4071,10 @@
         <v>45626</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>3</v>
@@ -4073,10 +4085,10 @@
         <v>45627</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>6</v>
@@ -4087,10 +4099,10 @@
         <v>45628</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>2</v>
@@ -4101,10 +4113,10 @@
         <v>45629</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>4</v>
@@ -4115,10 +4127,10 @@
         <v>45630</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>6</v>
@@ -4129,10 +4141,10 @@
         <v>45631</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>5</v>
@@ -4143,10 +4155,10 @@
         <v>45632</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>5</v>
@@ -4157,10 +4169,10 @@
         <v>45633</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>7</v>
@@ -4171,10 +4183,10 @@
         <v>45634</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>10</v>
@@ -4185,10 +4197,10 @@
         <v>45635</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>4</v>
@@ -4199,10 +4211,10 @@
         <v>45636</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>2</v>
@@ -4213,10 +4225,10 @@
         <v>45637</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>8</v>
@@ -4227,10 +4239,10 @@
         <v>45638</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>4</v>
@@ -4241,10 +4253,10 @@
         <v>45639</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>1</v>
@@ -4255,10 +4267,10 @@
         <v>45640</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>2</v>
@@ -4269,10 +4281,10 @@
         <v>45641</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>2</v>
@@ -4283,10 +4295,10 @@
         <v>45642</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23" s="4" t="n">
         <v>6</v>
@@ -4297,10 +4309,10 @@
         <v>45643</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D24" s="4" t="n">
         <v>5</v>
@@ -4311,10 +4323,10 @@
         <v>45644</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D25" s="4" t="n">
         <v>6</v>
@@ -4325,10 +4337,10 @@
         <v>45645</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>6</v>
@@ -4339,10 +4351,10 @@
         <v>45646</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D27" s="4" t="n">
         <v>3</v>
@@ -4353,10 +4365,10 @@
         <v>45647</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D28" s="4" t="n">
         <v>4</v>
@@ -4367,10 +4379,10 @@
         <v>45648</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>2</v>
@@ -4381,10 +4393,10 @@
         <v>45649</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D30" s="4" t="n">
         <v>4</v>
@@ -4395,10 +4407,10 @@
         <v>45650</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D31" s="4" t="n">
         <v>3</v>
@@ -4409,10 +4421,10 @@
         <v>45651</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D32" s="4" t="n">
         <v>2</v>
@@ -4423,10 +4435,10 @@
         <v>45652</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D33" s="4" t="n">
         <v>8</v>
@@ -4437,10 +4449,10 @@
         <v>45653</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D34" s="4" t="n">
         <v>4</v>
@@ -4451,10 +4463,10 @@
         <v>45654</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D35" s="4" t="n">
         <v>3</v>
@@ -4465,10 +4477,10 @@
         <v>45655</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D36" s="4" t="n">
         <v>2</v>
@@ -4479,10 +4491,10 @@
         <v>45656</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D37" s="4" t="n">
         <v>4</v>
@@ -4493,10 +4505,10 @@
         <v>45657</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D38" s="4" t="n">
         <v>4</v>
@@ -4507,10 +4519,10 @@
         <v>45658</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D39" s="4" t="n">
         <v>6</v>
@@ -4521,10 +4533,10 @@
         <v>45659</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D40" s="4" t="n">
         <v>5</v>
@@ -4535,10 +4547,10 @@
         <v>45660</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D41" s="4" t="n">
         <v>1</v>
@@ -4549,10 +4561,10 @@
         <v>45661</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D42" s="4" t="n">
         <v>5</v>
@@ -4563,10 +4575,10 @@
         <v>45662</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D43" s="4" t="n">
         <v>4</v>
@@ -4577,10 +4589,10 @@
         <v>45663</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D44" s="4" t="n">
         <v>3</v>
@@ -4591,10 +4603,10 @@
         <v>45664</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D45" s="4" t="n">
         <v>3</v>
@@ -4605,10 +4617,10 @@
         <v>45665</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D46" s="4" t="n">
         <v>2</v>
@@ -4619,10 +4631,10 @@
         <v>45666</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D47" s="4" t="n">
         <v>3</v>
@@ -4633,10 +4645,10 @@
         <v>45667</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D48" s="4" t="n">
         <v>2</v>
@@ -4647,10 +4659,10 @@
         <v>45668</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D49" s="4" t="n">
         <v>4</v>
@@ -4661,10 +4673,10 @@
         <v>45669</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D50" s="4" t="n">
         <v>1</v>
@@ -4675,10 +4687,10 @@
         <v>45670</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D51" s="4" t="n">
         <v>8</v>
@@ -4689,10 +4701,10 @@
         <v>45671</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D52" s="4" t="n">
         <v>4</v>
@@ -4703,10 +4715,10 @@
         <v>45672</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D53" s="4" t="n">
         <v>4</v>
@@ -4717,10 +4729,10 @@
         <v>45673</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D54" s="4" t="n">
         <v>5</v>
@@ -4731,10 +4743,10 @@
         <v>45674</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D55" s="4" t="n">
         <v>1</v>
@@ -4745,10 +4757,10 @@
         <v>45675</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D56" s="4" t="n">
         <v>3</v>
@@ -4759,10 +4771,10 @@
         <v>45676</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D57" s="4" t="n">
         <v>5</v>
@@ -4772,9 +4784,15 @@
       <c r="A58" s="3" t="n">
         <v>45677</v>
       </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
+      <c r="B58" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="103">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t xml:space="preserve">Redcrown Woods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lost Frontier</t>
   </si>
   <si>
     <t xml:space="preserve">Babe of Redemption</t>
@@ -341,6 +344,9 @@
   </si>
   <si>
     <t xml:space="preserve">Wind of El Dorado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Tower of Frozen Genesis</t>
   </si>
 </sst>
 </file>
@@ -490,7 +496,7 @@
   <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B88" activeCellId="0" sqref="B88"/>
+      <selection pane="topLeft" activeCell="D70" activeCellId="0" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1723,9 +1729,15 @@
       <c r="A88" s="3" t="n">
         <v>45678</v>
       </c>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
+      <c r="B88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D88" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="n">
@@ -3970,8 +3982,8 @@
   </sheetPr>
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B60" activeCellId="0" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4001,10 +4013,10 @@
         <v>45621</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>3</v>
@@ -4015,10 +4027,10 @@
         <v>45622</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>3</v>
@@ -4029,10 +4041,10 @@
         <v>45623</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>5</v>
@@ -4043,10 +4055,10 @@
         <v>45624</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>6</v>
@@ -4057,10 +4069,10 @@
         <v>45625</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>6</v>
@@ -4071,10 +4083,10 @@
         <v>45626</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>3</v>
@@ -4085,10 +4097,10 @@
         <v>45627</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>6</v>
@@ -4099,10 +4111,10 @@
         <v>45628</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>2</v>
@@ -4113,10 +4125,10 @@
         <v>45629</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>4</v>
@@ -4127,10 +4139,10 @@
         <v>45630</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>6</v>
@@ -4141,10 +4153,10 @@
         <v>45631</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>5</v>
@@ -4155,10 +4167,10 @@
         <v>45632</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>5</v>
@@ -4169,10 +4181,10 @@
         <v>45633</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>7</v>
@@ -4183,10 +4195,10 @@
         <v>45634</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>10</v>
@@ -4197,10 +4209,10 @@
         <v>45635</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>4</v>
@@ -4211,10 +4223,10 @@
         <v>45636</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>2</v>
@@ -4225,10 +4237,10 @@
         <v>45637</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>8</v>
@@ -4239,10 +4251,10 @@
         <v>45638</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>4</v>
@@ -4253,10 +4265,10 @@
         <v>45639</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>1</v>
@@ -4267,10 +4279,10 @@
         <v>45640</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>2</v>
@@ -4281,10 +4293,10 @@
         <v>45641</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>2</v>
@@ -4295,10 +4307,10 @@
         <v>45642</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D23" s="4" t="n">
         <v>6</v>
@@ -4309,10 +4321,10 @@
         <v>45643</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D24" s="4" t="n">
         <v>5</v>
@@ -4323,10 +4335,10 @@
         <v>45644</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" s="4" t="n">
         <v>6</v>
@@ -4337,10 +4349,10 @@
         <v>45645</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>6</v>
@@ -4351,10 +4363,10 @@
         <v>45646</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D27" s="4" t="n">
         <v>3</v>
@@ -4365,10 +4377,10 @@
         <v>45647</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D28" s="4" t="n">
         <v>4</v>
@@ -4379,10 +4391,10 @@
         <v>45648</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>2</v>
@@ -4393,10 +4405,10 @@
         <v>45649</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D30" s="4" t="n">
         <v>4</v>
@@ -4407,10 +4419,10 @@
         <v>45650</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D31" s="4" t="n">
         <v>3</v>
@@ -4421,10 +4433,10 @@
         <v>45651</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D32" s="4" t="n">
         <v>2</v>
@@ -4435,10 +4447,10 @@
         <v>45652</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D33" s="4" t="n">
         <v>8</v>
@@ -4449,10 +4461,10 @@
         <v>45653</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D34" s="4" t="n">
         <v>4</v>
@@ -4463,10 +4475,10 @@
         <v>45654</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D35" s="4" t="n">
         <v>3</v>
@@ -4477,10 +4489,10 @@
         <v>45655</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D36" s="4" t="n">
         <v>2</v>
@@ -4491,10 +4503,10 @@
         <v>45656</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D37" s="4" t="n">
         <v>4</v>
@@ -4505,10 +4517,10 @@
         <v>45657</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D38" s="4" t="n">
         <v>4</v>
@@ -4519,10 +4531,10 @@
         <v>45658</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D39" s="4" t="n">
         <v>6</v>
@@ -4533,10 +4545,10 @@
         <v>45659</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D40" s="4" t="n">
         <v>5</v>
@@ -4547,10 +4559,10 @@
         <v>45660</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D41" s="4" t="n">
         <v>1</v>
@@ -4561,10 +4573,10 @@
         <v>45661</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D42" s="4" t="n">
         <v>5</v>
@@ -4575,10 +4587,10 @@
         <v>45662</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D43" s="4" t="n">
         <v>4</v>
@@ -4589,10 +4601,10 @@
         <v>45663</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D44" s="4" t="n">
         <v>3</v>
@@ -4603,10 +4615,10 @@
         <v>45664</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D45" s="4" t="n">
         <v>3</v>
@@ -4617,10 +4629,10 @@
         <v>45665</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D46" s="4" t="n">
         <v>2</v>
@@ -4631,10 +4643,10 @@
         <v>45666</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D47" s="4" t="n">
         <v>3</v>
@@ -4645,10 +4657,10 @@
         <v>45667</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D48" s="4" t="n">
         <v>2</v>
@@ -4659,10 +4671,10 @@
         <v>45668</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D49" s="4" t="n">
         <v>4</v>
@@ -4673,10 +4685,10 @@
         <v>45669</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D50" s="4" t="n">
         <v>1</v>
@@ -4687,10 +4699,10 @@
         <v>45670</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D51" s="4" t="n">
         <v>8</v>
@@ -4701,10 +4713,10 @@
         <v>45671</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D52" s="4" t="n">
         <v>4</v>
@@ -4715,10 +4727,10 @@
         <v>45672</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D53" s="4" t="n">
         <v>4</v>
@@ -4729,10 +4741,10 @@
         <v>45673</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D54" s="4" t="n">
         <v>5</v>
@@ -4743,10 +4755,10 @@
         <v>45674</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D55" s="4" t="n">
         <v>1</v>
@@ -4757,10 +4769,10 @@
         <v>45675</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D56" s="4" t="n">
         <v>3</v>
@@ -4771,10 +4783,10 @@
         <v>45676</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D57" s="4" t="n">
         <v>5</v>
@@ -4785,10 +4797,10 @@
         <v>45677</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D58" s="4" t="n">
         <v>7</v>
@@ -4798,9 +4810,15 @@
       <c r="A59" s="3" t="n">
         <v>45678</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
+      <c r="B59" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D59" s="4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="104">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t xml:space="preserve">The Tower of Frozen Genesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laughterhouse</t>
   </si>
 </sst>
 </file>
@@ -496,7 +499,7 @@
   <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D70" activeCellId="0" sqref="D70"/>
+      <selection pane="topLeft" activeCell="B90" activeCellId="0" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1743,9 +1746,15 @@
       <c r="A89" s="3" t="n">
         <v>45679</v>
       </c>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
+      <c r="B89" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="n">
@@ -3982,8 +3991,8 @@
   </sheetPr>
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B60" activeCellId="0" sqref="B60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C61" activeCellId="0" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4824,9 +4833,15 @@
       <c r="A60" s="3" t="n">
         <v>45679</v>
       </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
+      <c r="B60" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D60" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="104">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -498,8 +498,8 @@
   </sheetPr>
   <dimension ref="A1:D367"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B90" activeCellId="0" sqref="B90"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B91" activeCellId="0" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1760,9 +1760,15 @@
       <c r="A90" s="3" t="n">
         <v>45680</v>
       </c>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
+      <c r="B90" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="n">
@@ -3991,8 +3997,8 @@
   </sheetPr>
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C61" activeCellId="0" sqref="C61"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B62" activeCellId="0" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4847,9 +4853,15 @@
       <c r="A61" s="3" t="n">
         <v>45680</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
+      <c r="B61" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="105">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t xml:space="preserve">Laughterhouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neon Grid World</t>
   </si>
 </sst>
 </file>
@@ -499,7 +502,7 @@
   <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B91" activeCellId="0" sqref="B91"/>
+      <selection pane="topLeft" activeCell="B92" activeCellId="0" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1774,9 +1777,15 @@
       <c r="A91" s="3" t="n">
         <v>45681</v>
       </c>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
+      <c r="B91" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D91" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="n">
@@ -3997,8 +4006,8 @@
   </sheetPr>
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B62" activeCellId="0" sqref="B62"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4867,9 +4876,15 @@
       <c r="A62" s="3" t="n">
         <v>45681</v>
       </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
+      <c r="B62" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="105">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -502,7 +502,7 @@
   <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B92" activeCellId="0" sqref="B92"/>
+      <selection pane="topLeft" activeCell="B93" activeCellId="0" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1791,9 +1791,15 @@
       <c r="A92" s="3" t="n">
         <v>45682</v>
       </c>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
+      <c r="B92" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="n">
@@ -4007,7 +4013,7 @@
   <dimension ref="A1:D366"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="B63"/>
+      <selection pane="topLeft" activeCell="C64" activeCellId="0" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4890,9 +4896,15 @@
       <c r="A63" s="3" t="n">
         <v>45682</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
+      <c r="B63" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="107">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t xml:space="preserve">Lost Frontier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False Kings’ Keep</t>
   </si>
   <si>
     <t xml:space="preserve">Babe of Redemption</t>
@@ -353,6 +356,9 @@
   </si>
   <si>
     <t xml:space="preserve">Neon Grid World</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Mire of Ecstasy</t>
   </si>
 </sst>
 </file>
@@ -502,7 +508,7 @@
   <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B93" activeCellId="0" sqref="B93"/>
+      <selection pane="topLeft" activeCell="B94" activeCellId="0" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1805,9 +1811,15 @@
       <c r="A93" s="3" t="n">
         <v>45683</v>
       </c>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
+      <c r="B93" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D93" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="n">
@@ -4012,8 +4024,8 @@
   </sheetPr>
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C64" activeCellId="0" sqref="C64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4043,10 +4055,10 @@
         <v>45621</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>3</v>
@@ -4057,10 +4069,10 @@
         <v>45622</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>3</v>
@@ -4071,10 +4083,10 @@
         <v>45623</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>5</v>
@@ -4085,10 +4097,10 @@
         <v>45624</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>6</v>
@@ -4099,10 +4111,10 @@
         <v>45625</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>6</v>
@@ -4113,10 +4125,10 @@
         <v>45626</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>3</v>
@@ -4127,10 +4139,10 @@
         <v>45627</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>6</v>
@@ -4141,10 +4153,10 @@
         <v>45628</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>2</v>
@@ -4155,10 +4167,10 @@
         <v>45629</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>4</v>
@@ -4169,10 +4181,10 @@
         <v>45630</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>6</v>
@@ -4183,10 +4195,10 @@
         <v>45631</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>5</v>
@@ -4197,10 +4209,10 @@
         <v>45632</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>5</v>
@@ -4211,10 +4223,10 @@
         <v>45633</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>7</v>
@@ -4225,10 +4237,10 @@
         <v>45634</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>10</v>
@@ -4239,10 +4251,10 @@
         <v>45635</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>4</v>
@@ -4253,10 +4265,10 @@
         <v>45636</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>2</v>
@@ -4267,10 +4279,10 @@
         <v>45637</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>8</v>
@@ -4281,10 +4293,10 @@
         <v>45638</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>4</v>
@@ -4295,10 +4307,10 @@
         <v>45639</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>1</v>
@@ -4309,10 +4321,10 @@
         <v>45640</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>2</v>
@@ -4323,10 +4335,10 @@
         <v>45641</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>2</v>
@@ -4337,10 +4349,10 @@
         <v>45642</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="4" t="n">
         <v>6</v>
@@ -4351,10 +4363,10 @@
         <v>45643</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="4" t="n">
         <v>5</v>
@@ -4365,10 +4377,10 @@
         <v>45644</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D25" s="4" t="n">
         <v>6</v>
@@ -4379,10 +4391,10 @@
         <v>45645</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>6</v>
@@ -4393,10 +4405,10 @@
         <v>45646</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D27" s="4" t="n">
         <v>3</v>
@@ -4407,10 +4419,10 @@
         <v>45647</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D28" s="4" t="n">
         <v>4</v>
@@ -4421,10 +4433,10 @@
         <v>45648</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>2</v>
@@ -4435,10 +4447,10 @@
         <v>45649</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D30" s="4" t="n">
         <v>4</v>
@@ -4449,10 +4461,10 @@
         <v>45650</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D31" s="4" t="n">
         <v>3</v>
@@ -4463,10 +4475,10 @@
         <v>45651</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D32" s="4" t="n">
         <v>2</v>
@@ -4477,10 +4489,10 @@
         <v>45652</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D33" s="4" t="n">
         <v>8</v>
@@ -4491,10 +4503,10 @@
         <v>45653</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D34" s="4" t="n">
         <v>4</v>
@@ -4505,10 +4517,10 @@
         <v>45654</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D35" s="4" t="n">
         <v>3</v>
@@ -4519,10 +4531,10 @@
         <v>45655</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D36" s="4" t="n">
         <v>2</v>
@@ -4533,10 +4545,10 @@
         <v>45656</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D37" s="4" t="n">
         <v>4</v>
@@ -4547,10 +4559,10 @@
         <v>45657</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D38" s="4" t="n">
         <v>4</v>
@@ -4561,10 +4573,10 @@
         <v>45658</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D39" s="4" t="n">
         <v>6</v>
@@ -4575,10 +4587,10 @@
         <v>45659</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D40" s="4" t="n">
         <v>5</v>
@@ -4589,10 +4601,10 @@
         <v>45660</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D41" s="4" t="n">
         <v>1</v>
@@ -4603,10 +4615,10 @@
         <v>45661</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D42" s="4" t="n">
         <v>5</v>
@@ -4617,10 +4629,10 @@
         <v>45662</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D43" s="4" t="n">
         <v>4</v>
@@ -4631,10 +4643,10 @@
         <v>45663</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D44" s="4" t="n">
         <v>3</v>
@@ -4645,10 +4657,10 @@
         <v>45664</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D45" s="4" t="n">
         <v>3</v>
@@ -4659,10 +4671,10 @@
         <v>45665</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D46" s="4" t="n">
         <v>2</v>
@@ -4673,10 +4685,10 @@
         <v>45666</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D47" s="4" t="n">
         <v>3</v>
@@ -4687,10 +4699,10 @@
         <v>45667</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D48" s="4" t="n">
         <v>2</v>
@@ -4701,10 +4713,10 @@
         <v>45668</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D49" s="4" t="n">
         <v>4</v>
@@ -4715,10 +4727,10 @@
         <v>45669</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D50" s="4" t="n">
         <v>1</v>
@@ -4729,10 +4741,10 @@
         <v>45670</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D51" s="4" t="n">
         <v>8</v>
@@ -4743,10 +4755,10 @@
         <v>45671</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D52" s="4" t="n">
         <v>4</v>
@@ -4757,10 +4769,10 @@
         <v>45672</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D53" s="4" t="n">
         <v>4</v>
@@ -4771,10 +4783,10 @@
         <v>45673</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D54" s="4" t="n">
         <v>5</v>
@@ -4785,10 +4797,10 @@
         <v>45674</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D55" s="4" t="n">
         <v>1</v>
@@ -4799,10 +4811,10 @@
         <v>45675</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D56" s="4" t="n">
         <v>3</v>
@@ -4813,10 +4825,10 @@
         <v>45676</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D57" s="4" t="n">
         <v>5</v>
@@ -4827,10 +4839,10 @@
         <v>45677</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D58" s="4" t="n">
         <v>7</v>
@@ -4841,10 +4853,10 @@
         <v>45678</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D59" s="4" t="n">
         <v>8</v>
@@ -4855,10 +4867,10 @@
         <v>45679</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D60" s="4" t="n">
         <v>4</v>
@@ -4869,10 +4881,10 @@
         <v>45680</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D61" s="4" t="n">
         <v>2</v>
@@ -4883,10 +4895,10 @@
         <v>45681</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D62" s="4" t="n">
         <v>3</v>
@@ -4897,10 +4909,10 @@
         <v>45682</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D63" s="4" t="n">
         <v>3</v>
@@ -4910,9 +4922,15 @@
       <c r="A64" s="3" t="n">
         <v>45683</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
+      <c r="B64" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="108">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -359,6 +359,9 @@
   </si>
   <si>
     <t xml:space="preserve">The Mire of Ecstasy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nostalgic Ruin</t>
   </si>
 </sst>
 </file>
@@ -508,7 +511,7 @@
   <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B94" activeCellId="0" sqref="B94"/>
+      <selection pane="topLeft" activeCell="B95" activeCellId="0" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1825,9 +1828,15 @@
       <c r="A94" s="3" t="n">
         <v>45684</v>
       </c>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
+      <c r="B94" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="n">
@@ -4024,8 +4033,8 @@
   </sheetPr>
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="B65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B66" activeCellId="0" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4936,9 +4945,15 @@
       <c r="A65" s="3" t="n">
         <v>45684</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+      <c r="B65" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="108">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -511,7 +511,7 @@
   <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B95" activeCellId="0" sqref="B95"/>
+      <selection pane="topLeft" activeCell="B96" activeCellId="0" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1842,9 +1842,15 @@
       <c r="A95" s="3" t="n">
         <v>45685</v>
       </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
+      <c r="B95" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D95" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="n">
@@ -4033,8 +4039,8 @@
   </sheetPr>
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B66" activeCellId="0" sqref="B66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B67" activeCellId="0" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4959,9 +4965,15 @@
       <c r="A66" s="3" t="n">
         <v>45685</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
+      <c r="B66" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D66" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="108">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -511,7 +511,7 @@
   <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B96" activeCellId="0" sqref="B96"/>
+      <selection pane="topLeft" activeCell="C99" activeCellId="0" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1856,9 +1856,15 @@
       <c r="A96" s="3" t="n">
         <v>45686</v>
       </c>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
+      <c r="B96" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="n">
@@ -4039,8 +4045,8 @@
   </sheetPr>
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B67" activeCellId="0" sqref="B67"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B68" activeCellId="0" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4979,9 +4985,15 @@
       <c r="A67" s="3" t="n">
         <v>45686</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+      <c r="B67" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Main Maps" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="109">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -362,6 +362,9 @@
   </si>
   <si>
     <t xml:space="preserve">Nostalgic Ruin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2Bit Pillars</t>
   </si>
 </sst>
 </file>
@@ -510,8 +513,8 @@
   </sheetPr>
   <dimension ref="A1:D367"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C99" activeCellId="0" sqref="C99"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C98" activeCellId="0" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1870,9 +1873,15 @@
       <c r="A97" s="3" t="n">
         <v>45687</v>
       </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
+      <c r="B97" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="n">
@@ -4045,8 +4054,8 @@
   </sheetPr>
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B68" activeCellId="0" sqref="B68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B69" activeCellId="0" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4999,9 +5008,15 @@
       <c r="A68" s="3" t="n">
         <v>45687</v>
       </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
+      <c r="B68" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D68" s="4" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main Maps" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="110">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -365,6 +365,9 @@
   </si>
   <si>
     <t xml:space="preserve">2Bit Pillars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychedelic Ruin</t>
   </si>
 </sst>
 </file>
@@ -513,8 +516,8 @@
   </sheetPr>
   <dimension ref="A1:D367"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C98" activeCellId="0" sqref="C98"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B99" activeCellId="0" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1887,9 +1890,15 @@
       <c r="A98" s="3" t="n">
         <v>45688</v>
       </c>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
+      <c r="B98" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D98" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="n">
@@ -4054,8 +4063,8 @@
   </sheetPr>
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B69" activeCellId="0" sqref="B69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B70" activeCellId="0" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5022,9 +5031,15 @@
       <c r="A69" s="3" t="n">
         <v>45688</v>
       </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
+      <c r="B69" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D69" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="111">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t xml:space="preserve">Psychedelic Ruin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divine Sanctuary</t>
   </si>
 </sst>
 </file>
@@ -517,7 +520,7 @@
   <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B99" activeCellId="0" sqref="B99"/>
+      <selection pane="topLeft" activeCell="B100" activeCellId="0" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1904,9 +1907,15 @@
       <c r="A99" s="3" t="n">
         <v>45689</v>
       </c>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
+      <c r="B99" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="n">
@@ -4063,8 +4072,8 @@
   </sheetPr>
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B70" activeCellId="0" sqref="B70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C71" activeCellId="0" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5045,9 +5054,15 @@
       <c r="A70" s="3" t="n">
         <v>45689</v>
       </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
+      <c r="B70" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D70" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="112">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -371,6 +371,9 @@
   </si>
   <si>
     <t xml:space="preserve">Divine Sanctuary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False Kings’ Tomb</t>
   </si>
 </sst>
 </file>
@@ -520,7 +523,7 @@
   <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B100" activeCellId="0" sqref="B100"/>
+      <selection pane="topLeft" activeCell="B101" activeCellId="0" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1921,9 +1924,15 @@
       <c r="A100" s="3" t="n">
         <v>45690</v>
       </c>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
+      <c r="B100" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D100" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="n">
@@ -4072,8 +4081,8 @@
   </sheetPr>
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C71" activeCellId="0" sqref="C71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C72" activeCellId="0" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5068,9 +5077,15 @@
       <c r="A71" s="3" t="n">
         <v>45690</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
+      <c r="B71" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="112">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -523,7 +523,7 @@
   <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B101" activeCellId="0" sqref="B101"/>
+      <selection pane="topLeft" activeCell="B102" activeCellId="0" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1938,9 +1938,15 @@
       <c r="A101" s="3" t="n">
         <v>45691</v>
       </c>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
+      <c r="B101" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="n">
@@ -4082,7 +4088,7 @@
   <dimension ref="A1:D366"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C72" activeCellId="0" sqref="C72"/>
+      <selection pane="topLeft" activeCell="D72" activeCellId="0" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5091,9 +5097,15 @@
       <c r="A72" s="3" t="n">
         <v>45691</v>
       </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
+      <c r="B72" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="113">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t xml:space="preserve">False Kings’ Tomb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tinycrown Woods</t>
   </si>
 </sst>
 </file>
@@ -523,7 +526,7 @@
   <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B102" activeCellId="0" sqref="B102"/>
+      <selection pane="topLeft" activeCell="B103" activeCellId="0" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1952,9 +1955,15 @@
       <c r="A102" s="3" t="n">
         <v>45692</v>
       </c>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
+      <c r="B102" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="n">
@@ -4087,8 +4096,8 @@
   </sheetPr>
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D72" activeCellId="0" sqref="D72"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D74" activeCellId="0" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5111,9 +5120,15 @@
       <c r="A73" s="3" t="n">
         <v>45692</v>
       </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
+      <c r="B73" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D73" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Main Maps" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="116">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -377,6 +377,15 @@
   </si>
   <si>
     <t xml:space="preserve">Tinycrown Woods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">222f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Painted Worlds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Northern Ridge</t>
   </si>
 </sst>
 </file>
@@ -525,8 +534,8 @@
   </sheetPr>
   <dimension ref="A1:D367"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B103" activeCellId="0" sqref="B103"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B106" activeCellId="0" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1969,25 +1978,43 @@
       <c r="A103" s="3" t="n">
         <v>45693</v>
       </c>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
+      <c r="B103" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D103" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="n">
         <v>45694</v>
       </c>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
+      <c r="B104" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="n">
         <v>45695</v>
       </c>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
+      <c r="B105" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="n">
@@ -4096,8 +4123,8 @@
   </sheetPr>
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D74" activeCellId="0" sqref="D74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B77" activeCellId="0" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5134,25 +5161,43 @@
       <c r="A74" s="3" t="n">
         <v>45693</v>
       </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
+      <c r="B74" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D74" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="n">
         <v>45694</v>
       </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+      <c r="B75" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D75" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="n">
         <v>45695</v>
       </c>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
+      <c r="B76" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D76" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main Maps" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="118">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -386,6 +386,12 @@
   </si>
   <si>
     <t xml:space="preserve">The Northern Ridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Unshown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Tower of Symmetry</t>
   </si>
 </sst>
 </file>
@@ -534,8 +540,8 @@
   </sheetPr>
   <dimension ref="A1:D367"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B106" activeCellId="0" sqref="B106"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B108" activeCellId="0" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2020,17 +2026,29 @@
       <c r="A106" s="3" t="n">
         <v>45696</v>
       </c>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
+      <c r="B106" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D106" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="n">
         <v>45697</v>
       </c>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
+      <c r="B107" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D107" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="n">
@@ -4123,8 +4141,8 @@
   </sheetPr>
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B77" activeCellId="0" sqref="B77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B79" activeCellId="0" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5203,17 +5221,29 @@
       <c r="A77" s="3" t="n">
         <v>45696</v>
       </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
+      <c r="B77" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D77" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="n">
         <v>45697</v>
       </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
+      <c r="B78" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D78" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="119">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -392,6 +392,9 @@
   </si>
   <si>
     <t xml:space="preserve">The Tower of Symmetry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecstatic Dream</t>
   </si>
 </sst>
 </file>
@@ -541,7 +544,7 @@
   <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B108" activeCellId="0" sqref="B108"/>
+      <selection pane="topLeft" activeCell="B110" activeCellId="0" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2054,17 +2057,29 @@
       <c r="A108" s="3" t="n">
         <v>45698</v>
       </c>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
+      <c r="B108" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3" t="n">
         <v>45699</v>
       </c>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
+      <c r="B109" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D109" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="n">
@@ -4142,7 +4157,7 @@
   <dimension ref="A1:D366"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B79" activeCellId="0" sqref="B79"/>
+      <selection pane="topLeft" activeCell="D80" activeCellId="0" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5249,17 +5264,29 @@
       <c r="A79" s="3" t="n">
         <v>45698</v>
       </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
+      <c r="B79" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D79" s="4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="n">
         <v>45699</v>
       </c>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
+      <c r="B80" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D80" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="170">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t xml:space="preserve">False Kings’ Keep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark Tower</t>
   </si>
   <si>
     <t xml:space="preserve">Babe of Redemption</t>
@@ -395,6 +398,156 @@
   </si>
   <si>
     <t xml:space="preserve">Ecstatic Dream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interior: The Noir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemical Powerplant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derelict Museum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar Limbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Waterfall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End of your Memories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antique Ruin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weaver’s Nest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lofty Empire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castle of Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Construction Tower (Water Variation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tower of Tartarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Babe of Exile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavenly Hurdle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serene Frontier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seedbed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Back Side of Elysion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deserted Ruin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mysterious Power Rains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World 5: Ogre Base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Haunted Tower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Dimension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap To Add Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surveilance Breach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moonlight Mansion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invaded Galaxy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Tower of Babel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World 0: Nest .5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crimson Rupture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashen Abbey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shade of Xanadu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needle Void</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Tower of Inferno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Tower of Ray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabricated Depths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uhh… Bloody Hell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lost Sanctum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Babe of Fate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shrine of Tears</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Chaos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forsaken Interceptor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashen Catacomb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloudtops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sisters of Space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid Airships</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestic Downpour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mime Rift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreboding Fog</t>
   </si>
 </sst>
 </file>
@@ -543,8 +696,8 @@
   </sheetPr>
   <dimension ref="A1:D367"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B110" activeCellId="0" sqref="B110"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A156" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B189" activeCellId="0" sqref="B189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2085,633 +2238,1107 @@
       <c r="A110" s="3" t="n">
         <v>45700</v>
       </c>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
+      <c r="B110" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="n">
         <v>45701</v>
       </c>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
+      <c r="B111" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="n">
         <v>45702</v>
       </c>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
+      <c r="B112" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="n">
         <v>45703</v>
       </c>
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
+      <c r="B113" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D113" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="n">
         <v>45704</v>
       </c>
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
+      <c r="B114" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D114" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3" t="n">
         <v>45705</v>
       </c>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
+      <c r="B115" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="n">
         <v>45706</v>
       </c>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
+      <c r="B116" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D116" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="n">
         <v>45707</v>
       </c>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
+      <c r="B117" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D117" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="n">
         <v>45708</v>
       </c>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
+      <c r="B118" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D118" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="n">
         <v>45709</v>
       </c>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
+      <c r="B119" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="n">
         <v>45710</v>
       </c>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
+      <c r="B120" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3" t="n">
         <v>45711</v>
       </c>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
+      <c r="B121" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="n">
         <v>45712</v>
       </c>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
+      <c r="B122" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D122" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="n">
         <v>45713</v>
       </c>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
+      <c r="B123" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="n">
         <v>45714</v>
       </c>
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
+      <c r="B124" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D124" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="n">
         <v>45715</v>
       </c>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
+      <c r="B125" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D125" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="n">
         <v>45716</v>
       </c>
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
+      <c r="B126" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D126" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="n">
         <v>45717</v>
       </c>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
+      <c r="B127" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="3" t="n">
         <v>45718</v>
       </c>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
+      <c r="B128" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D128" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="n">
         <v>45719</v>
       </c>
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
+      <c r="B129" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D129" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3" t="n">
         <v>45720</v>
       </c>
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
+      <c r="B130" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D130" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="3" t="n">
         <v>45721</v>
       </c>
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
+      <c r="B131" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D131" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="n">
         <v>45722</v>
       </c>
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
+      <c r="B132" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="3" t="n">
         <v>45723</v>
       </c>
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
+      <c r="B133" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3" t="n">
         <v>45724</v>
       </c>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
+      <c r="B134" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D134" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="3" t="n">
         <v>45725</v>
       </c>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
+      <c r="B135" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3" t="n">
         <v>45726</v>
       </c>
-      <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
+      <c r="B136" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D136" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="3" t="n">
         <v>45727</v>
       </c>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
+      <c r="B137" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D137" s="4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="3" t="n">
         <v>45728</v>
       </c>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
+      <c r="B138" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="3" t="n">
         <v>45729</v>
       </c>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
+      <c r="B139" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D139" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="3" t="n">
         <v>45730</v>
       </c>
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
+      <c r="B140" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D140" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="3" t="n">
         <v>45731</v>
       </c>
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
+      <c r="B141" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3" t="n">
         <v>45732</v>
       </c>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
+      <c r="B142" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D142" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3" t="n">
         <v>45733</v>
       </c>
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
+      <c r="B143" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3" t="n">
         <v>45734</v>
       </c>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
+      <c r="B144" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3" t="n">
         <v>45735</v>
       </c>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
+      <c r="B145" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="3" t="n">
         <v>45736</v>
       </c>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
+      <c r="B146" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D146" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="3" t="n">
         <v>45737</v>
       </c>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
+      <c r="B147" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3" t="n">
         <v>45738</v>
       </c>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
+      <c r="B148" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D148" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="3" t="n">
         <v>45739</v>
       </c>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
+      <c r="B149" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="3" t="n">
         <v>45740</v>
       </c>
-      <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
+      <c r="B150" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="3" t="n">
         <v>45741</v>
       </c>
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
+      <c r="B151" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D151" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="3" t="n">
         <v>45742</v>
       </c>
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
+      <c r="B152" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D152" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="3" t="n">
         <v>45743</v>
       </c>
-      <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
+      <c r="B153" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="3" t="n">
         <v>45744</v>
       </c>
-      <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
+      <c r="B154" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D154" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="3" t="n">
         <v>45745</v>
       </c>
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
+      <c r="B155" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D155" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="3" t="n">
         <v>45746</v>
       </c>
-      <c r="B156" s="4"/>
-      <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
+      <c r="B156" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D156" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="3" t="n">
         <v>45747</v>
       </c>
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
+      <c r="B157" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="3" t="n">
         <v>45748</v>
       </c>
-      <c r="B158" s="4"/>
-      <c r="C158" s="4"/>
-      <c r="D158" s="4"/>
+      <c r="B158" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D158" s="4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="3" t="n">
         <v>45749</v>
       </c>
-      <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
+      <c r="B159" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D159" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="3" t="n">
         <v>45750</v>
       </c>
-      <c r="B160" s="4"/>
-      <c r="C160" s="4"/>
-      <c r="D160" s="4"/>
+      <c r="B160" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D160" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="3" t="n">
         <v>45751</v>
       </c>
-      <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
+      <c r="B161" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D161" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="3" t="n">
         <v>45752</v>
       </c>
-      <c r="B162" s="4"/>
-      <c r="C162" s="4"/>
-      <c r="D162" s="4"/>
+      <c r="B162" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D162" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="3" t="n">
         <v>45753</v>
       </c>
-      <c r="B163" s="4"/>
-      <c r="C163" s="4"/>
-      <c r="D163" s="4"/>
+      <c r="B163" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D163" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="3" t="n">
         <v>45754</v>
       </c>
-      <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
+      <c r="B164" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D164" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="3" t="n">
         <v>45755</v>
       </c>
-      <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
+      <c r="B165" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D165" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="3" t="n">
         <v>45756</v>
       </c>
-      <c r="B166" s="4"/>
-      <c r="C166" s="4"/>
-      <c r="D166" s="4"/>
+      <c r="B166" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D166" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="3" t="n">
         <v>45757</v>
       </c>
-      <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
-      <c r="D167" s="4"/>
+      <c r="B167" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D167" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="3" t="n">
         <v>45758</v>
       </c>
-      <c r="B168" s="4"/>
-      <c r="C168" s="4"/>
-      <c r="D168" s="4"/>
+      <c r="B168" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D168" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="3" t="n">
         <v>45759</v>
       </c>
-      <c r="B169" s="4"/>
-      <c r="C169" s="4"/>
-      <c r="D169" s="4"/>
+      <c r="B169" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="3" t="n">
         <v>45760</v>
       </c>
-      <c r="B170" s="4"/>
-      <c r="C170" s="4"/>
-      <c r="D170" s="4"/>
+      <c r="B170" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D170" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="3" t="n">
         <v>45761</v>
       </c>
-      <c r="B171" s="4"/>
-      <c r="C171" s="4"/>
-      <c r="D171" s="4"/>
+      <c r="B171" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D171" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="3" t="n">
         <v>45762</v>
       </c>
-      <c r="B172" s="4"/>
-      <c r="C172" s="4"/>
-      <c r="D172" s="4"/>
+      <c r="B172" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D172" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="3" t="n">
         <v>45763</v>
       </c>
-      <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
-      <c r="D173" s="4"/>
+      <c r="B173" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D173" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="3" t="n">
         <v>45764</v>
       </c>
-      <c r="B174" s="4"/>
-      <c r="C174" s="4"/>
-      <c r="D174" s="4"/>
+      <c r="B174" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D174" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="3" t="n">
         <v>45765</v>
       </c>
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
+      <c r="B175" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D175" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="3" t="n">
         <v>45766</v>
       </c>
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
+      <c r="B176" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D176" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="3" t="n">
         <v>45767</v>
       </c>
-      <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
-      <c r="D177" s="4"/>
+      <c r="B177" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D177" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="3" t="n">
         <v>45768</v>
       </c>
-      <c r="B178" s="4"/>
-      <c r="C178" s="4"/>
-      <c r="D178" s="4"/>
+      <c r="B178" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D178" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="3" t="n">
         <v>45769</v>
       </c>
-      <c r="B179" s="4"/>
-      <c r="C179" s="4"/>
-      <c r="D179" s="4"/>
+      <c r="B179" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D179" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="180" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="3" t="n">
         <v>45770</v>
       </c>
-      <c r="B180" s="4"/>
-      <c r="C180" s="4"/>
-      <c r="D180" s="4"/>
+      <c r="B180" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="3" t="n">
         <v>45771</v>
       </c>
-      <c r="B181" s="4"/>
-      <c r="C181" s="4"/>
-      <c r="D181" s="4"/>
+      <c r="B181" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D181" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="3" t="n">
         <v>45772</v>
       </c>
-      <c r="B182" s="4"/>
-      <c r="C182" s="4"/>
-      <c r="D182" s="4"/>
+      <c r="B182" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D182" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="3" t="n">
         <v>45773</v>
       </c>
-      <c r="B183" s="4"/>
-      <c r="C183" s="4"/>
-      <c r="D183" s="4"/>
+      <c r="B183" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D183" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3" t="n">
         <v>45774</v>
       </c>
-      <c r="B184" s="4"/>
-      <c r="C184" s="4"/>
-      <c r="D184" s="4"/>
+      <c r="B184" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D184" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="3" t="n">
         <v>45775</v>
       </c>
-      <c r="B185" s="4"/>
-      <c r="C185" s="4"/>
-      <c r="D185" s="4"/>
+      <c r="B185" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="3" t="n">
         <v>45776</v>
       </c>
-      <c r="B186" s="4"/>
-      <c r="C186" s="4"/>
-      <c r="D186" s="4"/>
+      <c r="B186" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D186" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="3" t="n">
         <v>45777</v>
       </c>
-      <c r="B187" s="4"/>
-      <c r="C187" s="4"/>
-      <c r="D187" s="4"/>
+      <c r="B187" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D187" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="3" t="n">
         <v>45778</v>
       </c>
-      <c r="B188" s="4"/>
-      <c r="C188" s="4"/>
-      <c r="D188" s="4"/>
+      <c r="B188" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D188" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="3" t="n">
@@ -4156,15 +4783,15 @@
   </sheetPr>
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D80" activeCellId="0" sqref="D80"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B160" activeCellId="0" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="38.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="45.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.52"/>
   </cols>
   <sheetData>
@@ -4187,10 +4814,10 @@
         <v>45621</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>3</v>
@@ -4201,10 +4828,10 @@
         <v>45622</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>3</v>
@@ -4215,10 +4842,10 @@
         <v>45623</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>5</v>
@@ -4229,10 +4856,10 @@
         <v>45624</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>6</v>
@@ -4243,10 +4870,10 @@
         <v>45625</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>6</v>
@@ -4257,10 +4884,10 @@
         <v>45626</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>3</v>
@@ -4271,10 +4898,10 @@
         <v>45627</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>6</v>
@@ -4285,10 +4912,10 @@
         <v>45628</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>2</v>
@@ -4299,10 +4926,10 @@
         <v>45629</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>4</v>
@@ -4313,10 +4940,10 @@
         <v>45630</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>6</v>
@@ -4327,10 +4954,10 @@
         <v>45631</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>5</v>
@@ -4341,10 +4968,10 @@
         <v>45632</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>5</v>
@@ -4355,10 +4982,10 @@
         <v>45633</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>7</v>
@@ -4369,10 +4996,10 @@
         <v>45634</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>10</v>
@@ -4383,10 +5010,10 @@
         <v>45635</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>4</v>
@@ -4397,10 +5024,10 @@
         <v>45636</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>2</v>
@@ -4411,10 +5038,10 @@
         <v>45637</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>8</v>
@@ -4425,10 +5052,10 @@
         <v>45638</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>4</v>
@@ -4439,10 +5066,10 @@
         <v>45639</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>1</v>
@@ -4453,10 +5080,10 @@
         <v>45640</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>2</v>
@@ -4467,10 +5094,10 @@
         <v>45641</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>2</v>
@@ -4481,10 +5108,10 @@
         <v>45642</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D23" s="4" t="n">
         <v>6</v>
@@ -4495,10 +5122,10 @@
         <v>45643</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="4" t="n">
         <v>5</v>
@@ -4509,10 +5136,10 @@
         <v>45644</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="4" t="n">
         <v>6</v>
@@ -4523,10 +5150,10 @@
         <v>45645</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>6</v>
@@ -4537,10 +5164,10 @@
         <v>45646</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D27" s="4" t="n">
         <v>3</v>
@@ -4551,10 +5178,10 @@
         <v>45647</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28" s="4" t="n">
         <v>4</v>
@@ -4565,10 +5192,10 @@
         <v>45648</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>2</v>
@@ -4579,10 +5206,10 @@
         <v>45649</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D30" s="4" t="n">
         <v>4</v>
@@ -4593,10 +5220,10 @@
         <v>45650</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D31" s="4" t="n">
         <v>3</v>
@@ -4607,10 +5234,10 @@
         <v>45651</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D32" s="4" t="n">
         <v>2</v>
@@ -4621,10 +5248,10 @@
         <v>45652</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D33" s="4" t="n">
         <v>8</v>
@@ -4635,10 +5262,10 @@
         <v>45653</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D34" s="4" t="n">
         <v>4</v>
@@ -4649,10 +5276,10 @@
         <v>45654</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D35" s="4" t="n">
         <v>3</v>
@@ -4663,10 +5290,10 @@
         <v>45655</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D36" s="4" t="n">
         <v>2</v>
@@ -4677,10 +5304,10 @@
         <v>45656</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D37" s="4" t="n">
         <v>4</v>
@@ -4691,10 +5318,10 @@
         <v>45657</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D38" s="4" t="n">
         <v>4</v>
@@ -4705,10 +5332,10 @@
         <v>45658</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D39" s="4" t="n">
         <v>6</v>
@@ -4719,10 +5346,10 @@
         <v>45659</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D40" s="4" t="n">
         <v>5</v>
@@ -4733,10 +5360,10 @@
         <v>45660</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D41" s="4" t="n">
         <v>1</v>
@@ -4747,10 +5374,10 @@
         <v>45661</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D42" s="4" t="n">
         <v>5</v>
@@ -4761,10 +5388,10 @@
         <v>45662</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D43" s="4" t="n">
         <v>4</v>
@@ -4775,10 +5402,10 @@
         <v>45663</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D44" s="4" t="n">
         <v>3</v>
@@ -4789,10 +5416,10 @@
         <v>45664</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D45" s="4" t="n">
         <v>3</v>
@@ -4803,10 +5430,10 @@
         <v>45665</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D46" s="4" t="n">
         <v>2</v>
@@ -4817,10 +5444,10 @@
         <v>45666</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D47" s="4" t="n">
         <v>3</v>
@@ -4831,10 +5458,10 @@
         <v>45667</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D48" s="4" t="n">
         <v>2</v>
@@ -4845,10 +5472,10 @@
         <v>45668</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D49" s="4" t="n">
         <v>4</v>
@@ -4859,10 +5486,10 @@
         <v>45669</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D50" s="4" t="n">
         <v>1</v>
@@ -4873,10 +5500,10 @@
         <v>45670</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D51" s="4" t="n">
         <v>8</v>
@@ -4887,10 +5514,10 @@
         <v>45671</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D52" s="4" t="n">
         <v>4</v>
@@ -4901,10 +5528,10 @@
         <v>45672</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D53" s="4" t="n">
         <v>4</v>
@@ -4915,10 +5542,10 @@
         <v>45673</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D54" s="4" t="n">
         <v>5</v>
@@ -4929,10 +5556,10 @@
         <v>45674</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D55" s="4" t="n">
         <v>1</v>
@@ -4943,10 +5570,10 @@
         <v>45675</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D56" s="4" t="n">
         <v>3</v>
@@ -4957,10 +5584,10 @@
         <v>45676</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D57" s="4" t="n">
         <v>5</v>
@@ -4971,10 +5598,10 @@
         <v>45677</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D58" s="4" t="n">
         <v>7</v>
@@ -4985,10 +5612,10 @@
         <v>45678</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D59" s="4" t="n">
         <v>8</v>
@@ -4999,10 +5626,10 @@
         <v>45679</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D60" s="4" t="n">
         <v>4</v>
@@ -5013,10 +5640,10 @@
         <v>45680</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D61" s="4" t="n">
         <v>2</v>
@@ -5027,10 +5654,10 @@
         <v>45681</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D62" s="4" t="n">
         <v>3</v>
@@ -5041,10 +5668,10 @@
         <v>45682</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D63" s="4" t="n">
         <v>3</v>
@@ -5055,10 +5682,10 @@
         <v>45683</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D64" s="4" t="n">
         <v>7</v>
@@ -5069,10 +5696,10 @@
         <v>45684</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D65" s="4" t="n">
         <v>2</v>
@@ -5083,10 +5710,10 @@
         <v>45685</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D66" s="4" t="n">
         <v>1</v>
@@ -5097,10 +5724,10 @@
         <v>45686</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D67" s="4" t="n">
         <v>3</v>
@@ -5111,10 +5738,10 @@
         <v>45687</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D68" s="4" t="n">
         <v>9</v>
@@ -5125,10 +5752,10 @@
         <v>45688</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D69" s="4" t="n">
         <v>2</v>
@@ -5139,10 +5766,10 @@
         <v>45689</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D70" s="4" t="n">
         <v>4</v>
@@ -5153,10 +5780,10 @@
         <v>45690</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D71" s="4" t="n">
         <v>2</v>
@@ -5167,10 +5794,10 @@
         <v>45691</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D72" s="4" t="n">
         <v>7</v>
@@ -5181,10 +5808,10 @@
         <v>45692</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D73" s="4" t="n">
         <v>4</v>
@@ -5195,10 +5822,10 @@
         <v>45693</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D74" s="4" t="n">
         <v>7</v>
@@ -5209,10 +5836,10 @@
         <v>45694</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D75" s="4" t="n">
         <v>2</v>
@@ -5223,10 +5850,10 @@
         <v>45695</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D76" s="4" t="n">
         <v>3</v>
@@ -5237,10 +5864,10 @@
         <v>45696</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D77" s="4" t="n">
         <v>2</v>
@@ -5251,10 +5878,10 @@
         <v>45697</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D78" s="4" t="n">
         <v>6</v>
@@ -5265,10 +5892,10 @@
         <v>45698</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D79" s="4" t="n">
         <v>8</v>
@@ -5279,10 +5906,10 @@
         <v>45699</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D80" s="4" t="n">
         <v>5</v>
@@ -5292,633 +5919,1107 @@
       <c r="A81" s="3" t="n">
         <v>45700</v>
       </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
+      <c r="B81" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D81" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="n">
         <v>45701</v>
       </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
+      <c r="B82" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D82" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="n">
         <v>45702</v>
       </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
+      <c r="B83" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D83" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="n">
         <v>45703</v>
       </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
+      <c r="B84" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D84" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="n">
         <v>45704</v>
       </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
+      <c r="B85" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D85" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="n">
         <v>45705</v>
       </c>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
+      <c r="B86" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="n">
         <v>45706</v>
       </c>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
+      <c r="B87" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D87" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="n">
         <v>45707</v>
       </c>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
+      <c r="B88" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D88" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="n">
         <v>45708</v>
       </c>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
+      <c r="B89" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D89" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="n">
         <v>45709</v>
       </c>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
+      <c r="B90" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D90" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="n">
         <v>45710</v>
       </c>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
+      <c r="B91" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D91" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="n">
         <v>45711</v>
       </c>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
+      <c r="B92" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D92" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="n">
         <v>45712</v>
       </c>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
+      <c r="B93" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D93" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="n">
         <v>45713</v>
       </c>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
+      <c r="B94" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D94" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="n">
         <v>45714</v>
       </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
+      <c r="B95" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D95" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="n">
         <v>45715</v>
       </c>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
+      <c r="B96" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D96" s="4" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="n">
         <v>45716</v>
       </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
+      <c r="B97" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D97" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="n">
         <v>45717</v>
       </c>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
+      <c r="B98" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D98" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="n">
         <v>45718</v>
       </c>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
+      <c r="B99" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D99" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="n">
         <v>45719</v>
       </c>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
+      <c r="B100" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D100" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="n">
         <v>45720</v>
       </c>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
+      <c r="B101" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D101" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="n">
         <v>45721</v>
       </c>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
+      <c r="B102" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D102" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="n">
         <v>45722</v>
       </c>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
+      <c r="B103" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D103" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="n">
         <v>45723</v>
       </c>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
+      <c r="B104" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D104" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="n">
         <v>45724</v>
       </c>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
+      <c r="B105" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D105" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="n">
         <v>45725</v>
       </c>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
+      <c r="B106" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D106" s="4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="n">
         <v>45726</v>
       </c>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
+      <c r="B107" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D107" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="n">
         <v>45727</v>
       </c>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
+      <c r="B108" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D108" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3" t="n">
         <v>45728</v>
       </c>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
+      <c r="B109" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D109" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="n">
         <v>45729</v>
       </c>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
+      <c r="B110" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D110" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="n">
         <v>45730</v>
       </c>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
+      <c r="B111" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D111" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="n">
         <v>45731</v>
       </c>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
+      <c r="B112" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D112" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="n">
         <v>45732</v>
       </c>
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
+      <c r="B113" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D113" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="n">
         <v>45733</v>
       </c>
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
+      <c r="B114" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D114" s="4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3" t="n">
         <v>45734</v>
       </c>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
+      <c r="B115" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D115" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="n">
         <v>45735</v>
       </c>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
+      <c r="B116" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D116" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="n">
         <v>45736</v>
       </c>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
+      <c r="B117" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D117" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="n">
         <v>45737</v>
       </c>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
+      <c r="B118" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D118" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="n">
         <v>45738</v>
       </c>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
+      <c r="B119" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D119" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="n">
         <v>45739</v>
       </c>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
+      <c r="B120" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D120" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3" t="n">
         <v>45740</v>
       </c>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
+      <c r="B121" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D121" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="n">
         <v>45741</v>
       </c>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
+      <c r="B122" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D122" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="n">
         <v>45742</v>
       </c>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
+      <c r="B123" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D123" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="n">
         <v>45743</v>
       </c>
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
+      <c r="B124" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D124" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="n">
         <v>45744</v>
       </c>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
+      <c r="B125" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D125" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="n">
         <v>45745</v>
       </c>
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
+      <c r="B126" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D126" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="n">
         <v>45746</v>
       </c>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
+      <c r="B127" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D127" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="3" t="n">
         <v>45747</v>
       </c>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
+      <c r="B128" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D128" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="n">
         <v>45748</v>
       </c>
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
+      <c r="B129" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D129" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3" t="n">
         <v>45749</v>
       </c>
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
+      <c r="B130" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D130" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="3" t="n">
         <v>45750</v>
       </c>
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
+      <c r="B131" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D131" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="n">
         <v>45751</v>
       </c>
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
+      <c r="B132" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D132" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="3" t="n">
         <v>45752</v>
       </c>
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
+      <c r="B133" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D133" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3" t="n">
         <v>45753</v>
       </c>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
+      <c r="B134" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D134" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="3" t="n">
         <v>45754</v>
       </c>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
+      <c r="B135" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D135" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3" t="n">
         <v>45755</v>
       </c>
-      <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
+      <c r="B136" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D136" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="3" t="n">
         <v>45756</v>
       </c>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
+      <c r="B137" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D137" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="3" t="n">
         <v>45757</v>
       </c>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
+      <c r="B138" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D138" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="3" t="n">
         <v>45758</v>
       </c>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
+      <c r="B139" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D139" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="3" t="n">
         <v>45759</v>
       </c>
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
+      <c r="B140" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D140" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="3" t="n">
         <v>45760</v>
       </c>
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
+      <c r="B141" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D141" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3" t="n">
         <v>45761</v>
       </c>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
+      <c r="B142" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D142" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3" t="n">
         <v>45762</v>
       </c>
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
+      <c r="B143" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D143" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3" t="n">
         <v>45763</v>
       </c>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
+      <c r="B144" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D144" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3" t="n">
         <v>45764</v>
       </c>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
+      <c r="B145" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D145" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="3" t="n">
         <v>45765</v>
       </c>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
+      <c r="B146" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D146" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="3" t="n">
         <v>45766</v>
       </c>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
+      <c r="B147" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D147" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3" t="n">
         <v>45767</v>
       </c>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
+      <c r="B148" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D148" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="3" t="n">
         <v>45768</v>
       </c>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
+      <c r="B149" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D149" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="3" t="n">
         <v>45769</v>
       </c>
-      <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
+      <c r="B150" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D150" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="3" t="n">
         <v>45770</v>
       </c>
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
+      <c r="B151" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D151" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="3" t="n">
         <v>45771</v>
       </c>
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
+      <c r="B152" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D152" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="3" t="n">
         <v>45772</v>
       </c>
-      <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
+      <c r="B153" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D153" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="3" t="n">
         <v>45773</v>
       </c>
-      <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
+      <c r="B154" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D154" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="3" t="n">
         <v>45774</v>
       </c>
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
+      <c r="B155" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D155" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="3" t="n">
         <v>45775</v>
       </c>
-      <c r="B156" s="4"/>
-      <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
+      <c r="B156" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D156" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="3" t="n">
         <v>45776</v>
       </c>
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
+      <c r="B157" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D157" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="3" t="n">
         <v>45777</v>
       </c>
-      <c r="B158" s="4"/>
-      <c r="C158" s="4"/>
-      <c r="D158" s="4"/>
+      <c r="B158" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D158" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="3" t="n">
         <v>45778</v>
       </c>
-      <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
+      <c r="B159" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D159" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="197">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -548,6 +548,87 @@
   </si>
   <si>
     <t xml:space="preserve">Foreboding Fog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Horizon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversed Avalon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystal Den</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Tower of Recollection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stalactite Cave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enigmatic Escalators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windy Garden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcended Tower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World 6: Journey’s End</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deadcrown Woods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another Dimension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disconnected Ruin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frost Sanctum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bright Grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distorted Elysion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brisk Frontier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Tower of Interception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Timeless Temple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark Atlantis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse Dimension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luminous Lair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lost Fortress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esoteric Chasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Space Debris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infinite Incline</t>
   </si>
 </sst>
 </file>
@@ -696,8 +777,8 @@
   </sheetPr>
   <dimension ref="A1:D367"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A156" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B189" activeCellId="0" sqref="B189"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A214" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B249" activeCellId="0" sqref="B249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3344,481 +3425,841 @@
       <c r="A189" s="3" t="n">
         <v>45779</v>
       </c>
-      <c r="B189" s="4"/>
-      <c r="C189" s="4"/>
-      <c r="D189" s="4"/>
+      <c r="B189" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D189" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="3" t="n">
         <v>45780</v>
       </c>
-      <c r="B190" s="4"/>
-      <c r="C190" s="4"/>
-      <c r="D190" s="4"/>
+      <c r="B190" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D190" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="3" t="n">
         <v>45781</v>
       </c>
-      <c r="B191" s="4"/>
-      <c r="C191" s="4"/>
-      <c r="D191" s="4"/>
+      <c r="B191" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D191" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="3" t="n">
         <v>45782</v>
       </c>
-      <c r="B192" s="4"/>
-      <c r="C192" s="4"/>
-      <c r="D192" s="4"/>
+      <c r="B192" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D192" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="3" t="n">
         <v>45783</v>
       </c>
-      <c r="B193" s="4"/>
-      <c r="C193" s="4"/>
-      <c r="D193" s="4"/>
+      <c r="B193" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D193" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="3" t="n">
         <v>45784</v>
       </c>
-      <c r="B194" s="4"/>
-      <c r="C194" s="4"/>
-      <c r="D194" s="4"/>
+      <c r="B194" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D194" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="3" t="n">
         <v>45785</v>
       </c>
-      <c r="B195" s="4"/>
-      <c r="C195" s="4"/>
-      <c r="D195" s="4"/>
+      <c r="B195" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D195" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="3" t="n">
         <v>45786</v>
       </c>
-      <c r="B196" s="4"/>
-      <c r="C196" s="4"/>
-      <c r="D196" s="4"/>
+      <c r="B196" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D196" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="3" t="n">
         <v>45787</v>
       </c>
-      <c r="B197" s="4"/>
-      <c r="C197" s="4"/>
-      <c r="D197" s="4"/>
+      <c r="B197" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D197" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="3" t="n">
         <v>45788</v>
       </c>
-      <c r="B198" s="4"/>
-      <c r="C198" s="4"/>
-      <c r="D198" s="4"/>
+      <c r="B198" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D198" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="3" t="n">
         <v>45789</v>
       </c>
-      <c r="B199" s="4"/>
-      <c r="C199" s="4"/>
-      <c r="D199" s="4"/>
+      <c r="B199" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D199" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="3" t="n">
         <v>45790</v>
       </c>
-      <c r="B200" s="4"/>
-      <c r="C200" s="4"/>
-      <c r="D200" s="4"/>
+      <c r="B200" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D200" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="3" t="n">
         <v>45791</v>
       </c>
-      <c r="B201" s="4"/>
-      <c r="C201" s="4"/>
-      <c r="D201" s="4"/>
+      <c r="B201" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D201" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="3" t="n">
         <v>45792</v>
       </c>
-      <c r="B202" s="4"/>
-      <c r="C202" s="4"/>
-      <c r="D202" s="4"/>
+      <c r="B202" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D202" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="3" t="n">
         <v>45793</v>
       </c>
-      <c r="B203" s="4"/>
-      <c r="C203" s="4"/>
-      <c r="D203" s="4"/>
+      <c r="B203" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D203" s="4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="204" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="3" t="n">
         <v>45794</v>
       </c>
-      <c r="B204" s="4"/>
-      <c r="C204" s="4"/>
-      <c r="D204" s="4"/>
+      <c r="B204" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="3" t="n">
         <v>45795</v>
       </c>
-      <c r="B205" s="4"/>
-      <c r="C205" s="4"/>
-      <c r="D205" s="4"/>
+      <c r="B205" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D205" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="3" t="n">
         <v>45796</v>
       </c>
-      <c r="B206" s="4"/>
-      <c r="C206" s="4"/>
-      <c r="D206" s="4"/>
+      <c r="B206" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D206" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="3" t="n">
         <v>45797</v>
       </c>
-      <c r="B207" s="4"/>
-      <c r="C207" s="4"/>
-      <c r="D207" s="4"/>
+      <c r="B207" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D207" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="208" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="3" t="n">
         <v>45798</v>
       </c>
-      <c r="B208" s="4"/>
-      <c r="C208" s="4"/>
-      <c r="D208" s="4"/>
+      <c r="B208" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D208" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="209" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="3" t="n">
         <v>45799</v>
       </c>
-      <c r="B209" s="4"/>
-      <c r="C209" s="4"/>
-      <c r="D209" s="4"/>
+      <c r="B209" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D209" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="3" t="n">
         <v>45800</v>
       </c>
-      <c r="B210" s="4"/>
-      <c r="C210" s="4"/>
-      <c r="D210" s="4"/>
+      <c r="B210" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D210" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="3" t="n">
         <v>45801</v>
       </c>
-      <c r="B211" s="4"/>
-      <c r="C211" s="4"/>
-      <c r="D211" s="4"/>
+      <c r="B211" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D211" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="212" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="3" t="n">
         <v>45802</v>
       </c>
-      <c r="B212" s="4"/>
-      <c r="C212" s="4"/>
-      <c r="D212" s="4"/>
+      <c r="B212" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D212" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="213" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="3" t="n">
         <v>45803</v>
       </c>
-      <c r="B213" s="4"/>
-      <c r="C213" s="4"/>
-      <c r="D213" s="4"/>
+      <c r="B213" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D213" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="214" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="3" t="n">
         <v>45804</v>
       </c>
-      <c r="B214" s="4"/>
-      <c r="C214" s="4"/>
-      <c r="D214" s="4"/>
+      <c r="B214" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D214" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="215" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="3" t="n">
         <v>45805</v>
       </c>
-      <c r="B215" s="4"/>
-      <c r="C215" s="4"/>
-      <c r="D215" s="4"/>
+      <c r="B215" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D215" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="216" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="3" t="n">
         <v>45806</v>
       </c>
-      <c r="B216" s="4"/>
-      <c r="C216" s="4"/>
-      <c r="D216" s="4"/>
+      <c r="B216" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D216" s="4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="217" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="3" t="n">
         <v>45807</v>
       </c>
-      <c r="B217" s="4"/>
-      <c r="C217" s="4"/>
-      <c r="D217" s="4"/>
+      <c r="B217" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D217" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="218" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="3" t="n">
         <v>45808</v>
       </c>
-      <c r="B218" s="4"/>
-      <c r="C218" s="4"/>
-      <c r="D218" s="4"/>
+      <c r="B218" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D218" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="219" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="3" t="n">
         <v>45809</v>
       </c>
-      <c r="B219" s="4"/>
-      <c r="C219" s="4"/>
-      <c r="D219" s="4"/>
+      <c r="B219" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D219" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="220" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="3" t="n">
         <v>45810</v>
       </c>
-      <c r="B220" s="4"/>
-      <c r="C220" s="4"/>
-      <c r="D220" s="4"/>
+      <c r="B220" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D220" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="221" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="3" t="n">
         <v>45811</v>
       </c>
-      <c r="B221" s="4"/>
-      <c r="C221" s="4"/>
-      <c r="D221" s="4"/>
+      <c r="B221" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D221" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="222" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="3" t="n">
         <v>45812</v>
       </c>
-      <c r="B222" s="4"/>
-      <c r="C222" s="4"/>
-      <c r="D222" s="4"/>
+      <c r="B222" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D222" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="223" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="3" t="n">
         <v>45813</v>
       </c>
-      <c r="B223" s="4"/>
-      <c r="C223" s="4"/>
-      <c r="D223" s="4"/>
+      <c r="B223" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D223" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="224" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="3" t="n">
         <v>45814</v>
       </c>
-      <c r="B224" s="4"/>
-      <c r="C224" s="4"/>
-      <c r="D224" s="4"/>
+      <c r="B224" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D224" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="225" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="3" t="n">
         <v>45815</v>
       </c>
-      <c r="B225" s="4"/>
-      <c r="C225" s="4"/>
-      <c r="D225" s="4"/>
+      <c r="B225" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D225" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="226" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="3" t="n">
         <v>45816</v>
       </c>
-      <c r="B226" s="4"/>
-      <c r="C226" s="4"/>
-      <c r="D226" s="4"/>
+      <c r="B226" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D226" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="227" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="3" t="n">
         <v>45817</v>
       </c>
-      <c r="B227" s="4"/>
-      <c r="C227" s="4"/>
-      <c r="D227" s="4"/>
+      <c r="B227" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D227" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="228" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="3" t="n">
         <v>45818</v>
       </c>
-      <c r="B228" s="4"/>
-      <c r="C228" s="4"/>
-      <c r="D228" s="4"/>
+      <c r="B228" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D228" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="229" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="3" t="n">
         <v>45819</v>
       </c>
-      <c r="B229" s="4"/>
-      <c r="C229" s="4"/>
-      <c r="D229" s="4"/>
+      <c r="B229" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D229" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="230" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="3" t="n">
         <v>45820</v>
       </c>
-      <c r="B230" s="4"/>
-      <c r="C230" s="4"/>
-      <c r="D230" s="4"/>
+      <c r="B230" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D230" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="231" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="3" t="n">
         <v>45821</v>
       </c>
-      <c r="B231" s="4"/>
-      <c r="C231" s="4"/>
-      <c r="D231" s="4"/>
+      <c r="B231" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D231" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="232" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="3" t="n">
         <v>45822</v>
       </c>
-      <c r="B232" s="4"/>
-      <c r="C232" s="4"/>
-      <c r="D232" s="4"/>
+      <c r="B232" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D232" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="233" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="3" t="n">
         <v>45823</v>
       </c>
-      <c r="B233" s="4"/>
-      <c r="C233" s="4"/>
-      <c r="D233" s="4"/>
+      <c r="B233" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D233" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="234" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="3" t="n">
         <v>45824</v>
       </c>
-      <c r="B234" s="4"/>
-      <c r="C234" s="4"/>
-      <c r="D234" s="4"/>
+      <c r="B234" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D234" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="235" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="3" t="n">
         <v>45825</v>
       </c>
-      <c r="B235" s="4"/>
-      <c r="C235" s="4"/>
-      <c r="D235" s="4"/>
+      <c r="B235" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D235" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="236" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="3" t="n">
         <v>45826</v>
       </c>
-      <c r="B236" s="4"/>
-      <c r="C236" s="4"/>
-      <c r="D236" s="4"/>
+      <c r="B236" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D236" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="237" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="3" t="n">
         <v>45827</v>
       </c>
-      <c r="B237" s="4"/>
-      <c r="C237" s="4"/>
-      <c r="D237" s="4"/>
+      <c r="B237" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D237" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="238" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="3" t="n">
         <v>45828</v>
       </c>
-      <c r="B238" s="4"/>
-      <c r="C238" s="4"/>
-      <c r="D238" s="4"/>
+      <c r="B238" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D238" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="239" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="3" t="n">
         <v>45829</v>
       </c>
-      <c r="B239" s="4"/>
-      <c r="C239" s="4"/>
-      <c r="D239" s="4"/>
+      <c r="B239" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D239" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="240" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="3" t="n">
         <v>45830</v>
       </c>
-      <c r="B240" s="4"/>
-      <c r="C240" s="4"/>
-      <c r="D240" s="4"/>
+      <c r="B240" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D240" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="241" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="3" t="n">
         <v>45831</v>
       </c>
-      <c r="B241" s="4"/>
-      <c r="C241" s="4"/>
-      <c r="D241" s="4"/>
+      <c r="B241" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D241" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="242" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="3" t="n">
         <v>45832</v>
       </c>
-      <c r="B242" s="4"/>
-      <c r="C242" s="4"/>
-      <c r="D242" s="4"/>
+      <c r="B242" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D242" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="243" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="3" t="n">
         <v>45833</v>
       </c>
-      <c r="B243" s="4"/>
-      <c r="C243" s="4"/>
-      <c r="D243" s="4"/>
+      <c r="B243" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D243" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="244" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="3" t="n">
         <v>45834</v>
       </c>
-      <c r="B244" s="4"/>
-      <c r="C244" s="4"/>
-      <c r="D244" s="4"/>
+      <c r="B244" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D244" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="245" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="3" t="n">
         <v>45835</v>
       </c>
-      <c r="B245" s="4"/>
-      <c r="C245" s="4"/>
-      <c r="D245" s="4"/>
+      <c r="B245" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D245" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="246" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="3" t="n">
         <v>45836</v>
       </c>
-      <c r="B246" s="4"/>
-      <c r="C246" s="4"/>
-      <c r="D246" s="4"/>
+      <c r="B246" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D246" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="247" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="3" t="n">
         <v>45837</v>
       </c>
-      <c r="B247" s="4"/>
-      <c r="C247" s="4"/>
-      <c r="D247" s="4"/>
+      <c r="B247" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D247" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="248" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="3" t="n">
         <v>45838</v>
       </c>
-      <c r="B248" s="4"/>
-      <c r="C248" s="4"/>
-      <c r="D248" s="4"/>
+      <c r="B248" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D248" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="249" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="3" t="n">
@@ -4783,8 +5224,8 @@
   </sheetPr>
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B160" activeCellId="0" sqref="B160"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A185" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B220" activeCellId="0" sqref="B220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7025,481 +7466,841 @@
       <c r="A160" s="3" t="n">
         <v>45779</v>
       </c>
-      <c r="B160" s="4"/>
-      <c r="C160" s="4"/>
-      <c r="D160" s="4"/>
+      <c r="B160" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D160" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="3" t="n">
         <v>45780</v>
       </c>
-      <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
+      <c r="B161" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D161" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="3" t="n">
         <v>45781</v>
       </c>
-      <c r="B162" s="4"/>
-      <c r="C162" s="4"/>
-      <c r="D162" s="4"/>
+      <c r="B162" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D162" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="3" t="n">
         <v>45782</v>
       </c>
-      <c r="B163" s="4"/>
-      <c r="C163" s="4"/>
-      <c r="D163" s="4"/>
+      <c r="B163" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D163" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="3" t="n">
         <v>45783</v>
       </c>
-      <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
+      <c r="B164" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D164" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="3" t="n">
         <v>45784</v>
       </c>
-      <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
+      <c r="B165" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D165" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="3" t="n">
         <v>45785</v>
       </c>
-      <c r="B166" s="4"/>
-      <c r="C166" s="4"/>
-      <c r="D166" s="4"/>
+      <c r="B166" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D166" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="3" t="n">
         <v>45786</v>
       </c>
-      <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
-      <c r="D167" s="4"/>
+      <c r="B167" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D167" s="4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="3" t="n">
         <v>45787</v>
       </c>
-      <c r="B168" s="4"/>
-      <c r="C168" s="4"/>
-      <c r="D168" s="4"/>
+      <c r="B168" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D168" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="3" t="n">
         <v>45788</v>
       </c>
-      <c r="B169" s="4"/>
-      <c r="C169" s="4"/>
-      <c r="D169" s="4"/>
+      <c r="B169" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D169" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="3" t="n">
         <v>45789</v>
       </c>
-      <c r="B170" s="4"/>
-      <c r="C170" s="4"/>
-      <c r="D170" s="4"/>
+      <c r="B170" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D170" s="4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="3" t="n">
         <v>45790</v>
       </c>
-      <c r="B171" s="4"/>
-      <c r="C171" s="4"/>
-      <c r="D171" s="4"/>
+      <c r="B171" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D171" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="3" t="n">
         <v>45791</v>
       </c>
-      <c r="B172" s="4"/>
-      <c r="C172" s="4"/>
-      <c r="D172" s="4"/>
+      <c r="B172" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D172" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="3" t="n">
         <v>45792</v>
       </c>
-      <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
-      <c r="D173" s="4"/>
+      <c r="B173" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D173" s="4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="3" t="n">
         <v>45793</v>
       </c>
-      <c r="B174" s="4"/>
-      <c r="C174" s="4"/>
-      <c r="D174" s="4"/>
+      <c r="B174" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="3" t="n">
         <v>45794</v>
       </c>
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
+      <c r="B175" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D175" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="3" t="n">
         <v>45795</v>
       </c>
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
+      <c r="B176" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D176" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="3" t="n">
         <v>45796</v>
       </c>
-      <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
-      <c r="D177" s="4"/>
+      <c r="B177" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D177" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="3" t="n">
         <v>45797</v>
       </c>
-      <c r="B178" s="4"/>
-      <c r="C178" s="4"/>
-      <c r="D178" s="4"/>
+      <c r="B178" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D178" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="3" t="n">
         <v>45798</v>
       </c>
-      <c r="B179" s="4"/>
-      <c r="C179" s="4"/>
-      <c r="D179" s="4"/>
+      <c r="B179" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D179" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="180" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="3" t="n">
         <v>45799</v>
       </c>
-      <c r="B180" s="4"/>
-      <c r="C180" s="4"/>
-      <c r="D180" s="4"/>
+      <c r="B180" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D180" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="3" t="n">
         <v>45800</v>
       </c>
-      <c r="B181" s="4"/>
-      <c r="C181" s="4"/>
-      <c r="D181" s="4"/>
+      <c r="B181" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D181" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="3" t="n">
         <v>45801</v>
       </c>
-      <c r="B182" s="4"/>
-      <c r="C182" s="4"/>
-      <c r="D182" s="4"/>
+      <c r="B182" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D182" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="3" t="n">
         <v>45802</v>
       </c>
-      <c r="B183" s="4"/>
-      <c r="C183" s="4"/>
-      <c r="D183" s="4"/>
+      <c r="B183" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D183" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3" t="n">
         <v>45803</v>
       </c>
-      <c r="B184" s="4"/>
-      <c r="C184" s="4"/>
-      <c r="D184" s="4"/>
+      <c r="B184" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D184" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="3" t="n">
         <v>45804</v>
       </c>
-      <c r="B185" s="4"/>
-      <c r="C185" s="4"/>
-      <c r="D185" s="4"/>
+      <c r="B185" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D185" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="3" t="n">
         <v>45805</v>
       </c>
-      <c r="B186" s="4"/>
-      <c r="C186" s="4"/>
-      <c r="D186" s="4"/>
+      <c r="B186" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D186" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="3" t="n">
         <v>45806</v>
       </c>
-      <c r="B187" s="4"/>
-      <c r="C187" s="4"/>
-      <c r="D187" s="4"/>
+      <c r="B187" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D187" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="3" t="n">
         <v>45807</v>
       </c>
-      <c r="B188" s="4"/>
-      <c r="C188" s="4"/>
-      <c r="D188" s="4"/>
+      <c r="B188" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D188" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="3" t="n">
         <v>45808</v>
       </c>
-      <c r="B189" s="4"/>
-      <c r="C189" s="4"/>
-      <c r="D189" s="4"/>
+      <c r="B189" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D189" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="3" t="n">
         <v>45809</v>
       </c>
-      <c r="B190" s="4"/>
-      <c r="C190" s="4"/>
-      <c r="D190" s="4"/>
+      <c r="B190" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D190" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="3" t="n">
         <v>45810</v>
       </c>
-      <c r="B191" s="4"/>
-      <c r="C191" s="4"/>
-      <c r="D191" s="4"/>
+      <c r="B191" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D191" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="3" t="n">
         <v>45811</v>
       </c>
-      <c r="B192" s="4"/>
-      <c r="C192" s="4"/>
-      <c r="D192" s="4"/>
+      <c r="B192" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D192" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="3" t="n">
         <v>45812</v>
       </c>
-      <c r="B193" s="4"/>
-      <c r="C193" s="4"/>
-      <c r="D193" s="4"/>
+      <c r="B193" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D193" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="3" t="n">
         <v>45813</v>
       </c>
-      <c r="B194" s="4"/>
-      <c r="C194" s="4"/>
-      <c r="D194" s="4"/>
+      <c r="B194" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D194" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="3" t="n">
         <v>45814</v>
       </c>
-      <c r="B195" s="4"/>
-      <c r="C195" s="4"/>
-      <c r="D195" s="4"/>
+      <c r="B195" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D195" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="3" t="n">
         <v>45815</v>
       </c>
-      <c r="B196" s="4"/>
-      <c r="C196" s="4"/>
-      <c r="D196" s="4"/>
+      <c r="B196" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D196" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="3" t="n">
         <v>45816</v>
       </c>
-      <c r="B197" s="4"/>
-      <c r="C197" s="4"/>
-      <c r="D197" s="4"/>
+      <c r="B197" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D197" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="3" t="n">
         <v>45817</v>
       </c>
-      <c r="B198" s="4"/>
-      <c r="C198" s="4"/>
-      <c r="D198" s="4"/>
+      <c r="B198" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D198" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="3" t="n">
         <v>45818</v>
       </c>
-      <c r="B199" s="4"/>
-      <c r="C199" s="4"/>
-      <c r="D199" s="4"/>
+      <c r="B199" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D199" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="3" t="n">
         <v>45819</v>
       </c>
-      <c r="B200" s="4"/>
-      <c r="C200" s="4"/>
-      <c r="D200" s="4"/>
+      <c r="B200" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D200" s="4" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="3" t="n">
         <v>45820</v>
       </c>
-      <c r="B201" s="4"/>
-      <c r="C201" s="4"/>
-      <c r="D201" s="4"/>
+      <c r="B201" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D201" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="3" t="n">
         <v>45821</v>
       </c>
-      <c r="B202" s="4"/>
-      <c r="C202" s="4"/>
-      <c r="D202" s="4"/>
+      <c r="B202" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D202" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="3" t="n">
         <v>45822</v>
       </c>
-      <c r="B203" s="4"/>
-      <c r="C203" s="4"/>
-      <c r="D203" s="4"/>
+      <c r="B203" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D203" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="204" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="3" t="n">
         <v>45823</v>
       </c>
-      <c r="B204" s="4"/>
-      <c r="C204" s="4"/>
-      <c r="D204" s="4"/>
+      <c r="B204" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D204" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="3" t="n">
         <v>45824</v>
       </c>
-      <c r="B205" s="4"/>
-      <c r="C205" s="4"/>
-      <c r="D205" s="4"/>
+      <c r="B205" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D205" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="3" t="n">
         <v>45825</v>
       </c>
-      <c r="B206" s="4"/>
-      <c r="C206" s="4"/>
-      <c r="D206" s="4"/>
+      <c r="B206" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D206" s="4" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="3" t="n">
         <v>45826</v>
       </c>
-      <c r="B207" s="4"/>
-      <c r="C207" s="4"/>
-      <c r="D207" s="4"/>
+      <c r="B207" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D207" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="208" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="3" t="n">
         <v>45827</v>
       </c>
-      <c r="B208" s="4"/>
-      <c r="C208" s="4"/>
-      <c r="D208" s="4"/>
+      <c r="B208" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D208" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="209" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="3" t="n">
         <v>45828</v>
       </c>
-      <c r="B209" s="4"/>
-      <c r="C209" s="4"/>
-      <c r="D209" s="4"/>
+      <c r="B209" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D209" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="3" t="n">
         <v>45829</v>
       </c>
-      <c r="B210" s="4"/>
-      <c r="C210" s="4"/>
-      <c r="D210" s="4"/>
+      <c r="B210" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D210" s="4" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="3" t="n">
         <v>45830</v>
       </c>
-      <c r="B211" s="4"/>
-      <c r="C211" s="4"/>
-      <c r="D211" s="4"/>
+      <c r="B211" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D211" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="212" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="3" t="n">
         <v>45831</v>
       </c>
-      <c r="B212" s="4"/>
-      <c r="C212" s="4"/>
-      <c r="D212" s="4"/>
+      <c r="B212" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D212" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="213" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="3" t="n">
         <v>45832</v>
       </c>
-      <c r="B213" s="4"/>
-      <c r="C213" s="4"/>
-      <c r="D213" s="4"/>
+      <c r="B213" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D213" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="214" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="3" t="n">
         <v>45833</v>
       </c>
-      <c r="B214" s="4"/>
-      <c r="C214" s="4"/>
-      <c r="D214" s="4"/>
+      <c r="B214" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D214" s="4" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="215" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="3" t="n">
         <v>45834</v>
       </c>
-      <c r="B215" s="4"/>
-      <c r="C215" s="4"/>
-      <c r="D215" s="4"/>
+      <c r="B215" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D215" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="216" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="3" t="n">
         <v>45835</v>
       </c>
-      <c r="B216" s="4"/>
-      <c r="C216" s="4"/>
-      <c r="D216" s="4"/>
+      <c r="B216" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D216" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="217" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="3" t="n">
         <v>45836</v>
       </c>
-      <c r="B217" s="4"/>
-      <c r="C217" s="4"/>
-      <c r="D217" s="4"/>
+      <c r="B217" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D217" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="218" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="3" t="n">
         <v>45837</v>
       </c>
-      <c r="B218" s="4"/>
-      <c r="C218" s="4"/>
-      <c r="D218" s="4"/>
+      <c r="B218" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D218" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="219" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="3" t="n">
         <v>45838</v>
       </c>
-      <c r="B219" s="4"/>
-      <c r="C219" s="4"/>
-      <c r="D219" s="4"/>
+      <c r="B219" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D219" s="4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="220" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="203">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -629,6 +629,24 @@
   </si>
   <si>
     <t xml:space="preserve">Infinite Incline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frozen Valhalla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colossal Jungle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lavender Hall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Mire of Greed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barren Ether</t>
   </si>
 </sst>
 </file>
@@ -777,8 +795,8 @@
   </sheetPr>
   <dimension ref="A1:D367"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A214" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B249" activeCellId="0" sqref="B249"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A229" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B264" activeCellId="0" sqref="B264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4265,121 +4283,211 @@
       <c r="A249" s="3" t="n">
         <v>45839</v>
       </c>
-      <c r="B249" s="4"/>
-      <c r="C249" s="4"/>
-      <c r="D249" s="4"/>
+      <c r="B249" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D249" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="250" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="3" t="n">
         <v>45840</v>
       </c>
-      <c r="B250" s="4"/>
-      <c r="C250" s="4"/>
-      <c r="D250" s="4"/>
+      <c r="B250" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D250" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="251" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="3" t="n">
         <v>45841</v>
       </c>
-      <c r="B251" s="4"/>
-      <c r="C251" s="4"/>
-      <c r="D251" s="4"/>
+      <c r="B251" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D251" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="252" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="3" t="n">
         <v>45842</v>
       </c>
-      <c r="B252" s="4"/>
-      <c r="C252" s="4"/>
-      <c r="D252" s="4"/>
+      <c r="B252" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D252" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="253" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="3" t="n">
         <v>45843</v>
       </c>
-      <c r="B253" s="4"/>
-      <c r="C253" s="4"/>
-      <c r="D253" s="4"/>
+      <c r="B253" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D253" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="254" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="3" t="n">
         <v>45844</v>
       </c>
-      <c r="B254" s="4"/>
-      <c r="C254" s="4"/>
-      <c r="D254" s="4"/>
+      <c r="B254" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D254" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="255" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="3" t="n">
         <v>45845</v>
       </c>
-      <c r="B255" s="4"/>
-      <c r="C255" s="4"/>
-      <c r="D255" s="4"/>
+      <c r="B255" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D255" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="256" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="3" t="n">
         <v>45846</v>
       </c>
-      <c r="B256" s="4"/>
-      <c r="C256" s="4"/>
-      <c r="D256" s="4"/>
+      <c r="B256" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D256" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="257" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="3" t="n">
         <v>45847</v>
       </c>
-      <c r="B257" s="4"/>
-      <c r="C257" s="4"/>
-      <c r="D257" s="4"/>
+      <c r="B257" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D257" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="258" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="3" t="n">
         <v>45848</v>
       </c>
-      <c r="B258" s="4"/>
-      <c r="C258" s="4"/>
-      <c r="D258" s="4"/>
+      <c r="B258" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D258" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="259" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="3" t="n">
         <v>45849</v>
       </c>
-      <c r="B259" s="4"/>
-      <c r="C259" s="4"/>
-      <c r="D259" s="4"/>
+      <c r="B259" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D259" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="260" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="3" t="n">
         <v>45850</v>
       </c>
-      <c r="B260" s="4"/>
-      <c r="C260" s="4"/>
-      <c r="D260" s="4"/>
+      <c r="B260" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D260" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="261" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="3" t="n">
         <v>45851</v>
       </c>
-      <c r="B261" s="4"/>
-      <c r="C261" s="4"/>
-      <c r="D261" s="4"/>
+      <c r="B261" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D261" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="262" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="3" t="n">
         <v>45852</v>
       </c>
-      <c r="B262" s="4"/>
-      <c r="C262" s="4"/>
-      <c r="D262" s="4"/>
+      <c r="B262" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D262" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="263" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="3" t="n">
         <v>45853</v>
       </c>
-      <c r="B263" s="4"/>
-      <c r="C263" s="4"/>
-      <c r="D263" s="4"/>
+      <c r="B263" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D263" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="264" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="3" t="n">
@@ -5224,8 +5332,8 @@
   </sheetPr>
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A185" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B220" activeCellId="0" sqref="B220"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A200" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B227" activeCellId="0" sqref="B227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8306,121 +8414,211 @@
       <c r="A220" s="3" t="n">
         <v>45839</v>
       </c>
-      <c r="B220" s="4"/>
-      <c r="C220" s="4"/>
-      <c r="D220" s="4"/>
+      <c r="B220" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D220" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="221" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="3" t="n">
         <v>45840</v>
       </c>
-      <c r="B221" s="4"/>
-      <c r="C221" s="4"/>
-      <c r="D221" s="4"/>
+      <c r="B221" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D221" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="222" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="3" t="n">
         <v>45841</v>
       </c>
-      <c r="B222" s="4"/>
-      <c r="C222" s="4"/>
-      <c r="D222" s="4"/>
+      <c r="B222" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D222" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="223" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="3" t="n">
         <v>45842</v>
       </c>
-      <c r="B223" s="4"/>
-      <c r="C223" s="4"/>
-      <c r="D223" s="4"/>
+      <c r="B223" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D223" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="224" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="3" t="n">
         <v>45843</v>
       </c>
-      <c r="B224" s="4"/>
-      <c r="C224" s="4"/>
-      <c r="D224" s="4"/>
+      <c r="B224" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D224" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="225" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="3" t="n">
         <v>45844</v>
       </c>
-      <c r="B225" s="4"/>
-      <c r="C225" s="4"/>
-      <c r="D225" s="4"/>
+      <c r="B225" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D225" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="226" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="3" t="n">
         <v>45845</v>
       </c>
-      <c r="B226" s="4"/>
-      <c r="C226" s="4"/>
-      <c r="D226" s="4"/>
+      <c r="B226" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D226" s="4" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="227" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="3" t="n">
         <v>45846</v>
       </c>
-      <c r="B227" s="4"/>
-      <c r="C227" s="4"/>
-      <c r="D227" s="4"/>
+      <c r="B227" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D227" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="228" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="3" t="n">
         <v>45847</v>
       </c>
-      <c r="B228" s="4"/>
-      <c r="C228" s="4"/>
-      <c r="D228" s="4"/>
+      <c r="B228" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D228" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="229" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="3" t="n">
         <v>45848</v>
       </c>
-      <c r="B229" s="4"/>
-      <c r="C229" s="4"/>
-      <c r="D229" s="4"/>
+      <c r="B229" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D229" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="230" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="3" t="n">
         <v>45849</v>
       </c>
-      <c r="B230" s="4"/>
-      <c r="C230" s="4"/>
-      <c r="D230" s="4"/>
+      <c r="B230" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D230" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="231" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="3" t="n">
         <v>45850</v>
       </c>
-      <c r="B231" s="4"/>
-      <c r="C231" s="4"/>
-      <c r="D231" s="4"/>
+      <c r="B231" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D231" s="4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="232" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="3" t="n">
         <v>45851</v>
       </c>
-      <c r="B232" s="4"/>
-      <c r="C232" s="4"/>
-      <c r="D232" s="4"/>
+      <c r="B232" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D232" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="233" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="3" t="n">
         <v>45852</v>
       </c>
-      <c r="B233" s="4"/>
-      <c r="C233" s="4"/>
-      <c r="D233" s="4"/>
+      <c r="B233" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D233" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="234" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="3" t="n">
         <v>45853</v>
       </c>
-      <c r="B234" s="4"/>
-      <c r="C234" s="4"/>
-      <c r="D234" s="4"/>
+      <c r="B234" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D234" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="235" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="218">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -647,6 +647,51 @@
   </si>
   <si>
     <t xml:space="preserve">Barren Ether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silent Realm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Tower of Lost Paradise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desert Ruins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yummyburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subspace Spire Two</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Didn’t Feel Like Making Anything in This Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Spider Thread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glittering Cave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krill Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World 1: From the Top!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cold Pit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eternal Frontier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time Rift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swamp of Solitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Retro Tower</t>
   </si>
 </sst>
 </file>
@@ -795,8 +840,8 @@
   </sheetPr>
   <dimension ref="A1:D367"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A229" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B264" activeCellId="0" sqref="B264"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A263" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B298" activeCellId="0" sqref="B298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4493,273 +4538,477 @@
       <c r="A264" s="3" t="n">
         <v>45854</v>
       </c>
-      <c r="B264" s="4"/>
-      <c r="C264" s="4"/>
-      <c r="D264" s="4"/>
+      <c r="B264" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D264" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="265" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="3" t="n">
         <v>45855</v>
       </c>
-      <c r="B265" s="4"/>
-      <c r="C265" s="4"/>
-      <c r="D265" s="4"/>
+      <c r="B265" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D265" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="266" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="3" t="n">
         <v>45856</v>
       </c>
-      <c r="B266" s="4"/>
-      <c r="C266" s="4"/>
-      <c r="D266" s="4"/>
+      <c r="B266" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D266" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="267" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="3" t="n">
         <v>45857</v>
       </c>
-      <c r="B267" s="4"/>
-      <c r="C267" s="4"/>
-      <c r="D267" s="4"/>
+      <c r="B267" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D267" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="268" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="3" t="n">
         <v>45858</v>
       </c>
-      <c r="B268" s="4"/>
-      <c r="C268" s="4"/>
-      <c r="D268" s="4"/>
+      <c r="B268" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D268" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="269" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="3" t="n">
         <v>45859</v>
       </c>
-      <c r="B269" s="4"/>
-      <c r="C269" s="4"/>
-      <c r="D269" s="4"/>
+      <c r="B269" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D269" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="270" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="3" t="n">
         <v>45860</v>
       </c>
-      <c r="B270" s="4"/>
-      <c r="C270" s="4"/>
-      <c r="D270" s="4"/>
+      <c r="B270" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D270" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="271" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="3" t="n">
         <v>45861</v>
       </c>
-      <c r="B271" s="4"/>
-      <c r="C271" s="4"/>
-      <c r="D271" s="4"/>
+      <c r="B271" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D271" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="272" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="3" t="n">
         <v>45862</v>
       </c>
-      <c r="B272" s="4"/>
-      <c r="C272" s="4"/>
-      <c r="D272" s="4"/>
+      <c r="B272" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D272" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="273" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="3" t="n">
         <v>45863</v>
       </c>
-      <c r="B273" s="4"/>
-      <c r="C273" s="4"/>
-      <c r="D273" s="4"/>
+      <c r="B273" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D273" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="274" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="3" t="n">
         <v>45864</v>
       </c>
-      <c r="B274" s="4"/>
-      <c r="C274" s="4"/>
-      <c r="D274" s="4"/>
+      <c r="B274" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D274" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="275" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="3" t="n">
         <v>45865</v>
       </c>
-      <c r="B275" s="4"/>
-      <c r="C275" s="4"/>
-      <c r="D275" s="4"/>
+      <c r="B275" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D275" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="276" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="3" t="n">
         <v>45866</v>
       </c>
-      <c r="B276" s="4"/>
-      <c r="C276" s="4"/>
-      <c r="D276" s="4"/>
+      <c r="B276" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D276" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="277" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="3" t="n">
         <v>45867</v>
       </c>
-      <c r="B277" s="4"/>
-      <c r="C277" s="4"/>
-      <c r="D277" s="4"/>
+      <c r="B277" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D277" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="278" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="3" t="n">
         <v>45868</v>
       </c>
-      <c r="B278" s="4"/>
-      <c r="C278" s="4"/>
-      <c r="D278" s="4"/>
+      <c r="B278" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D278" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="279" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="3" t="n">
         <v>45869</v>
       </c>
-      <c r="B279" s="4"/>
-      <c r="C279" s="4"/>
-      <c r="D279" s="4"/>
+      <c r="B279" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D279" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="280" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="3" t="n">
         <v>45870</v>
       </c>
-      <c r="B280" s="4"/>
-      <c r="C280" s="4"/>
-      <c r="D280" s="4"/>
+      <c r="B280" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D280" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="281" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="3" t="n">
         <v>45871</v>
       </c>
-      <c r="B281" s="4"/>
-      <c r="C281" s="4"/>
-      <c r="D281" s="4"/>
+      <c r="B281" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D281" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="282" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="3" t="n">
         <v>45872</v>
       </c>
-      <c r="B282" s="4"/>
-      <c r="C282" s="4"/>
-      <c r="D282" s="4"/>
+      <c r="B282" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D282" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="283" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="3" t="n">
         <v>45873</v>
       </c>
-      <c r="B283" s="4"/>
-      <c r="C283" s="4"/>
-      <c r="D283" s="4"/>
+      <c r="B283" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D283" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="284" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="3" t="n">
         <v>45874</v>
       </c>
-      <c r="B284" s="4"/>
-      <c r="C284" s="4"/>
-      <c r="D284" s="4"/>
+      <c r="B284" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D284" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="285" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="3" t="n">
         <v>45875</v>
       </c>
-      <c r="B285" s="4"/>
-      <c r="C285" s="4"/>
-      <c r="D285" s="4"/>
+      <c r="B285" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D285" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="286" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="3" t="n">
         <v>45876</v>
       </c>
-      <c r="B286" s="4"/>
-      <c r="C286" s="4"/>
-      <c r="D286" s="4"/>
+      <c r="B286" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D286" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="287" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="3" t="n">
         <v>45877</v>
       </c>
-      <c r="B287" s="4"/>
-      <c r="C287" s="4"/>
-      <c r="D287" s="4"/>
+      <c r="B287" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D287" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="288" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="3" t="n">
         <v>45878</v>
       </c>
-      <c r="B288" s="4"/>
-      <c r="C288" s="4"/>
-      <c r="D288" s="4"/>
+      <c r="B288" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D288" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="289" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="3" t="n">
         <v>45879</v>
       </c>
-      <c r="B289" s="4"/>
-      <c r="C289" s="4"/>
-      <c r="D289" s="4"/>
+      <c r="B289" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D289" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="290" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="3" t="n">
         <v>45880</v>
       </c>
-      <c r="B290" s="4"/>
-      <c r="C290" s="4"/>
-      <c r="D290" s="4"/>
+      <c r="B290" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D290" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="291" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="3" t="n">
         <v>45881</v>
       </c>
-      <c r="B291" s="4"/>
-      <c r="C291" s="4"/>
-      <c r="D291" s="4"/>
+      <c r="B291" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D291" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="292" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="3" t="n">
         <v>45882</v>
       </c>
-      <c r="B292" s="4"/>
-      <c r="C292" s="4"/>
-      <c r="D292" s="4"/>
+      <c r="B292" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D292" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="293" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="3" t="n">
         <v>45883</v>
       </c>
-      <c r="B293" s="4"/>
-      <c r="C293" s="4"/>
-      <c r="D293" s="4"/>
+      <c r="B293" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D293" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="294" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="3" t="n">
         <v>45884</v>
       </c>
-      <c r="B294" s="4"/>
-      <c r="C294" s="4"/>
-      <c r="D294" s="4"/>
+      <c r="B294" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D294" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="295" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="3" t="n">
         <v>45885</v>
       </c>
-      <c r="B295" s="4"/>
-      <c r="C295" s="4"/>
-      <c r="D295" s="4"/>
+      <c r="B295" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D295" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="296" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="3" t="n">
         <v>45886</v>
       </c>
-      <c r="B296" s="4"/>
-      <c r="C296" s="4"/>
-      <c r="D296" s="4"/>
+      <c r="B296" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D296" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="297" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="3" t="n">
         <v>45887</v>
       </c>
-      <c r="B297" s="4"/>
-      <c r="C297" s="4"/>
-      <c r="D297" s="4"/>
+      <c r="B297" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D297" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="298" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="3" t="n">
@@ -5332,15 +5581,15 @@
   </sheetPr>
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A200" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B227" activeCellId="0" sqref="B227"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A234" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B269" activeCellId="0" sqref="B269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="45.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="64.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.52"/>
   </cols>
   <sheetData>
@@ -8624,273 +8873,477 @@
       <c r="A235" s="3" t="n">
         <v>45854</v>
       </c>
-      <c r="B235" s="4"/>
-      <c r="C235" s="4"/>
-      <c r="D235" s="4"/>
+      <c r="B235" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D235" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="236" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="3" t="n">
         <v>45855</v>
       </c>
-      <c r="B236" s="4"/>
-      <c r="C236" s="4"/>
-      <c r="D236" s="4"/>
+      <c r="B236" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D236" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="237" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="3" t="n">
         <v>45856</v>
       </c>
-      <c r="B237" s="4"/>
-      <c r="C237" s="4"/>
-      <c r="D237" s="4"/>
+      <c r="B237" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D237" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="238" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="3" t="n">
         <v>45857</v>
       </c>
-      <c r="B238" s="4"/>
-      <c r="C238" s="4"/>
-      <c r="D238" s="4"/>
+      <c r="B238" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D238" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="239" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="3" t="n">
         <v>45858</v>
       </c>
-      <c r="B239" s="4"/>
-      <c r="C239" s="4"/>
-      <c r="D239" s="4"/>
+      <c r="B239" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D239" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="240" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="3" t="n">
         <v>45859</v>
       </c>
-      <c r="B240" s="4"/>
-      <c r="C240" s="4"/>
-      <c r="D240" s="4"/>
+      <c r="B240" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D240" s="4" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="241" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="3" t="n">
         <v>45860</v>
       </c>
-      <c r="B241" s="4"/>
-      <c r="C241" s="4"/>
-      <c r="D241" s="4"/>
+      <c r="B241" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D241" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="242" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="3" t="n">
         <v>45861</v>
       </c>
-      <c r="B242" s="4"/>
-      <c r="C242" s="4"/>
-      <c r="D242" s="4"/>
+      <c r="B242" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D242" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="243" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="3" t="n">
         <v>45862</v>
       </c>
-      <c r="B243" s="4"/>
-      <c r="C243" s="4"/>
-      <c r="D243" s="4"/>
+      <c r="B243" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D243" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="244" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="3" t="n">
         <v>45863</v>
       </c>
-      <c r="B244" s="4"/>
-      <c r="C244" s="4"/>
-      <c r="D244" s="4"/>
+      <c r="B244" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D244" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="245" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="3" t="n">
         <v>45864</v>
       </c>
-      <c r="B245" s="4"/>
-      <c r="C245" s="4"/>
-      <c r="D245" s="4"/>
+      <c r="B245" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D245" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="246" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="3" t="n">
         <v>45865</v>
       </c>
-      <c r="B246" s="4"/>
-      <c r="C246" s="4"/>
-      <c r="D246" s="4"/>
+      <c r="B246" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D246" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="247" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="3" t="n">
         <v>45866</v>
       </c>
-      <c r="B247" s="4"/>
-      <c r="C247" s="4"/>
-      <c r="D247" s="4"/>
+      <c r="B247" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D247" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="248" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="3" t="n">
         <v>45867</v>
       </c>
-      <c r="B248" s="4"/>
-      <c r="C248" s="4"/>
-      <c r="D248" s="4"/>
+      <c r="B248" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D248" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="249" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="3" t="n">
         <v>45868</v>
       </c>
-      <c r="B249" s="4"/>
-      <c r="C249" s="4"/>
-      <c r="D249" s="4"/>
+      <c r="B249" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D249" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="250" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="3" t="n">
         <v>45869</v>
       </c>
-      <c r="B250" s="4"/>
-      <c r="C250" s="4"/>
-      <c r="D250" s="4"/>
+      <c r="B250" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D250" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="251" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="3" t="n">
         <v>45870</v>
       </c>
-      <c r="B251" s="4"/>
-      <c r="C251" s="4"/>
-      <c r="D251" s="4"/>
+      <c r="B251" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D251" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="252" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="3" t="n">
         <v>45871</v>
       </c>
-      <c r="B252" s="4"/>
-      <c r="C252" s="4"/>
-      <c r="D252" s="4"/>
+      <c r="B252" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D252" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="253" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="3" t="n">
         <v>45872</v>
       </c>
-      <c r="B253" s="4"/>
-      <c r="C253" s="4"/>
-      <c r="D253" s="4"/>
+      <c r="B253" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D253" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="254" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="3" t="n">
         <v>45873</v>
       </c>
-      <c r="B254" s="4"/>
-      <c r="C254" s="4"/>
-      <c r="D254" s="4"/>
+      <c r="B254" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D254" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="255" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="3" t="n">
         <v>45874</v>
       </c>
-      <c r="B255" s="4"/>
-      <c r="C255" s="4"/>
-      <c r="D255" s="4"/>
+      <c r="B255" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D255" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="256" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="3" t="n">
         <v>45875</v>
       </c>
-      <c r="B256" s="4"/>
-      <c r="C256" s="4"/>
-      <c r="D256" s="4"/>
+      <c r="B256" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D256" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="257" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="3" t="n">
         <v>45876</v>
       </c>
-      <c r="B257" s="4"/>
-      <c r="C257" s="4"/>
-      <c r="D257" s="4"/>
+      <c r="B257" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D257" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="258" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="3" t="n">
         <v>45877</v>
       </c>
-      <c r="B258" s="4"/>
-      <c r="C258" s="4"/>
-      <c r="D258" s="4"/>
+      <c r="B258" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D258" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="259" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="3" t="n">
         <v>45878</v>
       </c>
-      <c r="B259" s="4"/>
-      <c r="C259" s="4"/>
-      <c r="D259" s="4"/>
+      <c r="B259" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D259" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="260" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="3" t="n">
         <v>45879</v>
       </c>
-      <c r="B260" s="4"/>
-      <c r="C260" s="4"/>
-      <c r="D260" s="4"/>
+      <c r="B260" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D260" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="261" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="3" t="n">
         <v>45880</v>
       </c>
-      <c r="B261" s="4"/>
-      <c r="C261" s="4"/>
-      <c r="D261" s="4"/>
+      <c r="B261" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D261" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="262" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="3" t="n">
         <v>45881</v>
       </c>
-      <c r="B262" s="4"/>
-      <c r="C262" s="4"/>
-      <c r="D262" s="4"/>
+      <c r="B262" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D262" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="263" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="3" t="n">
         <v>45882</v>
       </c>
-      <c r="B263" s="4"/>
-      <c r="C263" s="4"/>
-      <c r="D263" s="4"/>
+      <c r="B263" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D263" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="264" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="3" t="n">
         <v>45883</v>
       </c>
-      <c r="B264" s="4"/>
-      <c r="C264" s="4"/>
-      <c r="D264" s="4"/>
+      <c r="B264" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D264" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="265" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="3" t="n">
         <v>45884</v>
       </c>
-      <c r="B265" s="4"/>
-      <c r="C265" s="4"/>
-      <c r="D265" s="4"/>
+      <c r="B265" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D265" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="266" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="3" t="n">
         <v>45885</v>
       </c>
-      <c r="B266" s="4"/>
-      <c r="C266" s="4"/>
-      <c r="D266" s="4"/>
+      <c r="B266" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D266" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="267" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="3" t="n">
         <v>45886</v>
       </c>
-      <c r="B267" s="4"/>
-      <c r="C267" s="4"/>
-      <c r="D267" s="4"/>
+      <c r="B267" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D267" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="268" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="3" t="n">
         <v>45887</v>
       </c>
-      <c r="B268" s="4"/>
-      <c r="C268" s="4"/>
-      <c r="D268" s="4"/>
+      <c r="B268" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D268" s="4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="269" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Main Maps" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="236">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -56,10 +56,7 @@
     <t xml:space="preserve">Bog</t>
   </si>
   <si>
-    <t xml:space="preserve">Ghost of the Babe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philosophers Forest</t>
+    <t xml:space="preserve">Philosopher's Forest</t>
   </si>
   <si>
     <t xml:space="preserve">Chapel Perilous</t>
@@ -113,9 +110,6 @@
     <t xml:space="preserve">Moulding Manor</t>
   </si>
   <si>
-    <t xml:space="preserve"> New Babe+</t>
-  </si>
-  <si>
     <t xml:space="preserve">Imp Room</t>
   </si>
   <si>
@@ -134,7 +128,7 @@
     <t xml:space="preserve">False Kings’ Keep</t>
   </si>
   <si>
-    <t xml:space="preserve">Dark Tower</t>
+    <t xml:space="preserve">The Dark Tower</t>
   </si>
   <si>
     <t xml:space="preserve">Babe of Redemption</t>
@@ -692,6 +686,66 @@
   </si>
   <si>
     <t xml:space="preserve">The Retro Tower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palace of Mirrors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Real Void</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stellar Corridor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cybernetic Metropolis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KZ_Null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luminescent Darkness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gooey Grotto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subspace Spire Three</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World 3: Phoenixx Mountain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good Job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Trench</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nostalgic Nexus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fury of Vulcanus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doodlebug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Babe] 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghost Tower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infe-Station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lonely Cabin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethereal Horizon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our Memories</t>
   </si>
 </sst>
 </file>
@@ -840,8 +894,8 @@
   </sheetPr>
   <dimension ref="A1:D367"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A263" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B298" activeCellId="0" sqref="B298"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A333" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B361" activeCellId="0" sqref="B361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -927,10 +981,10 @@
         <v>45596</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>5</v>
@@ -944,7 +998,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>3</v>
@@ -958,7 +1012,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>1</v>
@@ -972,7 +1026,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>1</v>
@@ -986,7 +1040,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>5</v>
@@ -1014,7 +1068,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>6</v>
@@ -1028,7 +1082,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>4</v>
@@ -1042,7 +1096,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>2</v>
@@ -1056,7 +1110,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>2</v>
@@ -1070,7 +1124,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>2</v>
@@ -1084,7 +1138,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>1</v>
@@ -1098,7 +1152,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>4</v>
@@ -1112,7 +1166,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>6</v>
@@ -1126,7 +1180,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>1</v>
@@ -1140,7 +1194,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>4</v>
@@ -1154,7 +1208,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>5</v>
@@ -1168,7 +1222,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="4" t="n">
         <v>5</v>
@@ -1182,7 +1236,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" s="4" t="n">
         <v>5</v>
@@ -1210,7 +1264,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>3</v>
@@ -1224,7 +1278,7 @@
         <v>9</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="4" t="n">
         <v>5</v>
@@ -1252,7 +1306,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>5</v>
@@ -1280,7 +1334,7 @@
         <v>9</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31" s="4" t="n">
         <v>4</v>
@@ -1294,7 +1348,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D32" s="4" t="n">
         <v>2</v>
@@ -1322,7 +1376,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34" s="4" t="n">
         <v>3</v>
@@ -1336,7 +1390,7 @@
         <v>9</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" s="4" t="n">
         <v>7</v>
@@ -1350,7 +1404,7 @@
         <v>9</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" s="4" t="n">
         <v>2</v>
@@ -1364,7 +1418,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37" s="4" t="n">
         <v>1</v>
@@ -1378,7 +1432,7 @@
         <v>9</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38" s="4" t="n">
         <v>1</v>
@@ -1392,7 +1446,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" s="4" t="n">
         <v>2</v>
@@ -1406,7 +1460,7 @@
         <v>9</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D40" s="4" t="n">
         <v>6</v>
@@ -1420,7 +1474,7 @@
         <v>4</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" s="4" t="n">
         <v>3</v>
@@ -1434,7 +1488,7 @@
         <v>4</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42" s="4" t="n">
         <v>3</v>
@@ -1445,10 +1499,10 @@
         <v>45633</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D43" s="4" t="n">
         <v>1</v>
@@ -1462,7 +1516,7 @@
         <v>7</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D44" s="4" t="n">
         <v>2</v>
@@ -1476,7 +1530,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D45" s="4" t="n">
         <v>5</v>
@@ -1490,7 +1544,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D46" s="4" t="n">
         <v>1</v>
@@ -1504,7 +1558,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D47" s="4" t="n">
         <v>3</v>
@@ -1518,7 +1572,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D48" s="4" t="n">
         <v>1</v>
@@ -1532,7 +1586,7 @@
         <v>7</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49" s="4" t="n">
         <v>4</v>
@@ -1546,7 +1600,7 @@
         <v>9</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D50" s="4" t="n">
         <v>7</v>
@@ -1560,7 +1614,7 @@
         <v>4</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D51" s="4" t="n">
         <v>1</v>
@@ -1574,7 +1628,7 @@
         <v>9</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D52" s="4" t="n">
         <v>3</v>
@@ -1588,7 +1642,7 @@
         <v>4</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D53" s="4" t="n">
         <v>1</v>
@@ -1602,7 +1656,7 @@
         <v>4</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D54" s="4" t="n">
         <v>3</v>
@@ -1644,7 +1698,7 @@
         <v>9</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D57" s="4" t="n">
         <v>3</v>
@@ -1658,7 +1712,7 @@
         <v>9</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D58" s="4" t="n">
         <v>4</v>
@@ -1672,7 +1726,7 @@
         <v>9</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D59" s="4" t="n">
         <v>4</v>
@@ -1686,7 +1740,7 @@
         <v>9</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D60" s="4" t="n">
         <v>2</v>
@@ -1700,7 +1754,7 @@
         <v>9</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D61" s="4" t="n">
         <v>3</v>
@@ -1714,7 +1768,7 @@
         <v>7</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D62" s="4" t="n">
         <v>6</v>
@@ -1728,7 +1782,7 @@
         <v>4</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D63" s="4" t="n">
         <v>5</v>
@@ -1742,7 +1796,7 @@
         <v>7</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D64" s="4" t="n">
         <v>1</v>
@@ -1756,7 +1810,7 @@
         <v>4</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D65" s="4" t="n">
         <v>5</v>
@@ -1770,7 +1824,7 @@
         <v>9</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D66" s="4" t="n">
         <v>4</v>
@@ -1784,7 +1838,7 @@
         <v>9</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D67" s="4" t="n">
         <v>1</v>
@@ -1798,7 +1852,7 @@
         <v>7</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D68" s="4" t="n">
         <v>2</v>
@@ -1812,7 +1866,7 @@
         <v>7</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D69" s="4" t="n">
         <v>3</v>
@@ -1826,7 +1880,7 @@
         <v>4</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D70" s="4" t="n">
         <v>3</v>
@@ -1840,7 +1894,7 @@
         <v>9</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D71" s="4" t="n">
         <v>5</v>
@@ -1868,7 +1922,7 @@
         <v>9</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D73" s="4" t="n">
         <v>7</v>
@@ -1882,7 +1936,7 @@
         <v>7</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D74" s="4" t="n">
         <v>2</v>
@@ -1896,7 +1950,7 @@
         <v>4</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D75" s="4" t="n">
         <v>2</v>
@@ -1910,7 +1964,7 @@
         <v>4</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D76" s="4" t="n">
         <v>4</v>
@@ -1938,7 +1992,7 @@
         <v>7</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D78" s="4" t="n">
         <v>4</v>
@@ -1952,7 +2006,7 @@
         <v>7</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D79" s="4" t="n">
         <v>4</v>
@@ -1966,7 +2020,7 @@
         <v>7</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D80" s="4" t="n">
         <v>3</v>
@@ -1980,7 +2034,7 @@
         <v>9</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D81" s="4" t="n">
         <v>6</v>
@@ -1994,7 +2048,7 @@
         <v>9</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D82" s="4" t="n">
         <v>2</v>
@@ -2008,7 +2062,7 @@
         <v>9</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D83" s="4" t="n">
         <v>6</v>
@@ -2036,7 +2090,7 @@
         <v>9</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D85" s="4" t="n">
         <v>1</v>
@@ -2050,7 +2104,7 @@
         <v>7</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D86" s="4" t="n">
         <v>3</v>
@@ -2064,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D87" s="4" t="n">
         <v>3</v>
@@ -2078,7 +2132,7 @@
         <v>7</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D88" s="4" t="n">
         <v>3</v>
@@ -2092,7 +2146,7 @@
         <v>4</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D89" s="4" t="n">
         <v>1</v>
@@ -2106,7 +2160,7 @@
         <v>7</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D90" s="4" t="n">
         <v>7</v>
@@ -2120,7 +2174,7 @@
         <v>4</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D91" s="4" t="n">
         <v>4</v>
@@ -2148,7 +2202,7 @@
         <v>4</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D93" s="4" t="n">
         <v>3</v>
@@ -2176,7 +2230,7 @@
         <v>7</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D95" s="4" t="n">
         <v>5</v>
@@ -2190,7 +2244,7 @@
         <v>7</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D96" s="4" t="n">
         <v>1</v>
@@ -2204,7 +2258,7 @@
         <v>4</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D97" s="4" t="n">
         <v>1</v>
@@ -2218,7 +2272,7 @@
         <v>9</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D98" s="4" t="n">
         <v>5</v>
@@ -2232,7 +2286,7 @@
         <v>9</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D99" s="4" t="n">
         <v>4</v>
@@ -2246,7 +2300,7 @@
         <v>7</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D100" s="4" t="n">
         <v>4</v>
@@ -2260,7 +2314,7 @@
         <v>7</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D101" s="4" t="n">
         <v>1</v>
@@ -2274,7 +2328,7 @@
         <v>7</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D102" s="4" t="n">
         <v>1</v>
@@ -2288,7 +2342,7 @@
         <v>9</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D103" s="4" t="n">
         <v>3</v>
@@ -2302,7 +2356,7 @@
         <v>7</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D104" s="4" t="n">
         <v>6</v>
@@ -2330,7 +2384,7 @@
         <v>4</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D106" s="4" t="n">
         <v>3</v>
@@ -2344,7 +2398,7 @@
         <v>4</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D107" s="4" t="n">
         <v>5</v>
@@ -2358,7 +2412,7 @@
         <v>7</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D108" s="4" t="n">
         <v>6</v>
@@ -2372,7 +2426,7 @@
         <v>4</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D109" s="4" t="n">
         <v>1</v>
@@ -2386,7 +2440,7 @@
         <v>4</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D110" s="4" t="n">
         <v>1</v>
@@ -2400,7 +2454,7 @@
         <v>4</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D111" s="4" t="n">
         <v>3</v>
@@ -2414,7 +2468,7 @@
         <v>9</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D112" s="4" t="n">
         <v>4</v>
@@ -2428,7 +2482,7 @@
         <v>7</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D113" s="4" t="n">
         <v>5</v>
@@ -2442,7 +2496,7 @@
         <v>9</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D114" s="4" t="n">
         <v>4</v>
@@ -2470,7 +2524,7 @@
         <v>9</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D116" s="4" t="n">
         <v>1</v>
@@ -2484,7 +2538,7 @@
         <v>4</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D117" s="4" t="n">
         <v>5</v>
@@ -2498,7 +2552,7 @@
         <v>7</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D118" s="4" t="n">
         <v>3</v>
@@ -2526,7 +2580,7 @@
         <v>4</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D120" s="4" t="n">
         <v>2</v>
@@ -2554,7 +2608,7 @@
         <v>9</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D122" s="4" t="n">
         <v>1</v>
@@ -2582,7 +2636,7 @@
         <v>7</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D124" s="4" t="n">
         <v>3</v>
@@ -2596,7 +2650,7 @@
         <v>9</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D125" s="4" t="n">
         <v>5</v>
@@ -2610,7 +2664,7 @@
         <v>9</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D126" s="4" t="n">
         <v>1</v>
@@ -2624,7 +2678,7 @@
         <v>9</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D127" s="4" t="n">
         <v>2</v>
@@ -2638,7 +2692,7 @@
         <v>7</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D128" s="4" t="n">
         <v>5</v>
@@ -2652,7 +2706,7 @@
         <v>9</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D129" s="4" t="n">
         <v>3</v>
@@ -2666,7 +2720,7 @@
         <v>9</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D130" s="4" t="n">
         <v>1</v>
@@ -2680,7 +2734,7 @@
         <v>4</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D131" s="4" t="n">
         <v>3</v>
@@ -2694,7 +2748,7 @@
         <v>9</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D132" s="4" t="n">
         <v>6</v>
@@ -2708,7 +2762,7 @@
         <v>7</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D133" s="4" t="n">
         <v>3</v>
@@ -2722,7 +2776,7 @@
         <v>7</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D134" s="4" t="n">
         <v>3</v>
@@ -2736,7 +2790,7 @@
         <v>9</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D135" s="4" t="n">
         <v>4</v>
@@ -2750,7 +2804,7 @@
         <v>9</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D136" s="4" t="n">
         <v>4</v>
@@ -2764,7 +2818,7 @@
         <v>9</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D137" s="4" t="n">
         <v>8</v>
@@ -2778,7 +2832,7 @@
         <v>9</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D138" s="4" t="n">
         <v>4</v>
@@ -2792,7 +2846,7 @@
         <v>7</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D139" s="4" t="n">
         <v>5</v>
@@ -2806,7 +2860,7 @@
         <v>7</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D140" s="4" t="n">
         <v>4</v>
@@ -2820,7 +2874,7 @@
         <v>9</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D141" s="4" t="n">
         <v>4</v>
@@ -2834,7 +2888,7 @@
         <v>7</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D142" s="4" t="n">
         <v>4</v>
@@ -2848,7 +2902,7 @@
         <v>9</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D143" s="4" t="n">
         <v>2</v>
@@ -2862,7 +2916,7 @@
         <v>9</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D144" s="4" t="n">
         <v>2</v>
@@ -2876,7 +2930,7 @@
         <v>4</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D145" s="4" t="n">
         <v>1</v>
@@ -2890,7 +2944,7 @@
         <v>4</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D146" s="4" t="n">
         <v>1</v>
@@ -2904,7 +2958,7 @@
         <v>4</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D147" s="4" t="n">
         <v>4</v>
@@ -2918,7 +2972,7 @@
         <v>9</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D148" s="4" t="n">
         <v>1</v>
@@ -2932,7 +2986,7 @@
         <v>4</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D149" s="4" t="n">
         <v>1</v>
@@ -2960,7 +3014,7 @@
         <v>4</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D151" s="4" t="n">
         <v>2</v>
@@ -2974,7 +3028,7 @@
         <v>9</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D152" s="4" t="n">
         <v>5</v>
@@ -3002,7 +3056,7 @@
         <v>9</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D154" s="4" t="n">
         <v>5</v>
@@ -3016,7 +3070,7 @@
         <v>7</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D155" s="4" t="n">
         <v>2</v>
@@ -3030,7 +3084,7 @@
         <v>7</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D156" s="4" t="n">
         <v>4</v>
@@ -3044,7 +3098,7 @@
         <v>4</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D157" s="4" t="n">
         <v>1</v>
@@ -3058,7 +3112,7 @@
         <v>9</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D158" s="4" t="n">
         <v>8</v>
@@ -3072,7 +3126,7 @@
         <v>7</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D159" s="4" t="n">
         <v>2</v>
@@ -3086,7 +3140,7 @@
         <v>4</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D160" s="4" t="n">
         <v>2</v>
@@ -3100,7 +3154,7 @@
         <v>9</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D161" s="4" t="n">
         <v>3</v>
@@ -3114,7 +3168,7 @@
         <v>7</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D162" s="4" t="n">
         <v>5</v>
@@ -3128,7 +3182,7 @@
         <v>7</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D163" s="4" t="n">
         <v>5</v>
@@ -3142,7 +3196,7 @@
         <v>4</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D164" s="4" t="n">
         <v>1</v>
@@ -3156,7 +3210,7 @@
         <v>9</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D165" s="4" t="n">
         <v>3</v>
@@ -3170,7 +3224,7 @@
         <v>7</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D166" s="4" t="n">
         <v>4</v>
@@ -3184,7 +3238,7 @@
         <v>7</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D167" s="4" t="n">
         <v>4</v>
@@ -3198,7 +3252,7 @@
         <v>9</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D168" s="4" t="n">
         <v>6</v>
@@ -3226,7 +3280,7 @@
         <v>9</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D170" s="4" t="n">
         <v>1</v>
@@ -3240,7 +3294,7 @@
         <v>4</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D171" s="4" t="n">
         <v>3</v>
@@ -3254,7 +3308,7 @@
         <v>9</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D172" s="4" t="n">
         <v>4</v>
@@ -3268,7 +3322,7 @@
         <v>4</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D173" s="4" t="n">
         <v>1</v>
@@ -3282,7 +3336,7 @@
         <v>9</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D174" s="4" t="n">
         <v>7</v>
@@ -3296,7 +3350,7 @@
         <v>9</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D175" s="4" t="n">
         <v>1</v>
@@ -3310,7 +3364,7 @@
         <v>4</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D176" s="4" t="n">
         <v>1</v>
@@ -3324,7 +3378,7 @@
         <v>7</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D177" s="4" t="n">
         <v>4</v>
@@ -3338,7 +3392,7 @@
         <v>9</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D178" s="4" t="n">
         <v>3</v>
@@ -3352,7 +3406,7 @@
         <v>7</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D179" s="4" t="n">
         <v>3</v>
@@ -3380,7 +3434,7 @@
         <v>4</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D181" s="4" t="n">
         <v>2</v>
@@ -3394,7 +3448,7 @@
         <v>7</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D182" s="4" t="n">
         <v>6</v>
@@ -3422,7 +3476,7 @@
         <v>7</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D184" s="4" t="n">
         <v>7</v>
@@ -3436,7 +3490,7 @@
         <v>9</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D185" s="4" t="n">
         <v>4</v>
@@ -3450,7 +3504,7 @@
         <v>9</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D186" s="4" t="n">
         <v>1</v>
@@ -3464,7 +3518,7 @@
         <v>4</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D187" s="4" t="n">
         <v>4</v>
@@ -3478,7 +3532,7 @@
         <v>4</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D188" s="4" t="n">
         <v>2</v>
@@ -3492,7 +3546,7 @@
         <v>4</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D189" s="4" t="n">
         <v>4</v>
@@ -3506,7 +3560,7 @@
         <v>4</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D190" s="4" t="n">
         <v>4</v>
@@ -3520,7 +3574,7 @@
         <v>9</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D191" s="4" t="n">
         <v>3</v>
@@ -3534,7 +3588,7 @@
         <v>7</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D192" s="4" t="n">
         <v>5</v>
@@ -3548,7 +3602,7 @@
         <v>7</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D193" s="4" t="n">
         <v>4</v>
@@ -3562,7 +3616,7 @@
         <v>7</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D194" s="4" t="n">
         <v>5</v>
@@ -3576,7 +3630,7 @@
         <v>7</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D195" s="4" t="n">
         <v>4</v>
@@ -3590,7 +3644,7 @@
         <v>4</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D196" s="4" t="n">
         <v>4</v>
@@ -3618,7 +3672,7 @@
         <v>4</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D198" s="4" t="n">
         <v>4</v>
@@ -3632,7 +3686,7 @@
         <v>7</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D199" s="4" t="n">
         <v>1</v>
@@ -3660,7 +3714,7 @@
         <v>4</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D201" s="4" t="n">
         <v>2</v>
@@ -3674,7 +3728,7 @@
         <v>7</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D202" s="4" t="n">
         <v>6</v>
@@ -3688,7 +3742,7 @@
         <v>9</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D203" s="4" t="n">
         <v>8</v>
@@ -3702,7 +3756,7 @@
         <v>4</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D204" s="4" t="n">
         <v>1</v>
@@ -3730,7 +3784,7 @@
         <v>9</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D206" s="4" t="n">
         <v>3</v>
@@ -3744,7 +3798,7 @@
         <v>4</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D207" s="4" t="n">
         <v>4</v>
@@ -3758,7 +3812,7 @@
         <v>7</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D208" s="4" t="n">
         <v>2</v>
@@ -3772,7 +3826,7 @@
         <v>9</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D209" s="4" t="n">
         <v>2</v>
@@ -3786,7 +3840,7 @@
         <v>7</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D210" s="4" t="n">
         <v>3</v>
@@ -3814,7 +3868,7 @@
         <v>7</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D212" s="4" t="n">
         <v>1</v>
@@ -3828,7 +3882,7 @@
         <v>4</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D213" s="4" t="n">
         <v>4</v>
@@ -3842,7 +3896,7 @@
         <v>9</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D214" s="4" t="n">
         <v>7</v>
@@ -3856,7 +3910,7 @@
         <v>4</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D215" s="4" t="n">
         <v>3</v>
@@ -3870,7 +3924,7 @@
         <v>9</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D216" s="4" t="n">
         <v>8</v>
@@ -3884,7 +3938,7 @@
         <v>7</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D217" s="4" t="n">
         <v>1</v>
@@ -3898,7 +3952,7 @@
         <v>7</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D218" s="4" t="n">
         <v>1</v>
@@ -3912,7 +3966,7 @@
         <v>7</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D219" s="4" t="n">
         <v>1</v>
@@ -3926,7 +3980,7 @@
         <v>7</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D220" s="4" t="n">
         <v>7</v>
@@ -3940,7 +3994,7 @@
         <v>4</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D221" s="4" t="n">
         <v>1</v>
@@ -3954,7 +4008,7 @@
         <v>4</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D222" s="4" t="n">
         <v>2</v>
@@ -3996,7 +4050,7 @@
         <v>7</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D225" s="4" t="n">
         <v>1</v>
@@ -4010,7 +4064,7 @@
         <v>7</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D226" s="4" t="n">
         <v>3</v>
@@ -4024,7 +4078,7 @@
         <v>9</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D227" s="4" t="n">
         <v>6</v>
@@ -4038,7 +4092,7 @@
         <v>4</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D228" s="4" t="n">
         <v>3</v>
@@ -4052,7 +4106,7 @@
         <v>4</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D229" s="4" t="n">
         <v>1</v>
@@ -4066,7 +4120,7 @@
         <v>9</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D230" s="4" t="n">
         <v>6</v>
@@ -4080,7 +4134,7 @@
         <v>9</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D231" s="4" t="n">
         <v>3</v>
@@ -4094,7 +4148,7 @@
         <v>7</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D232" s="4" t="n">
         <v>5</v>
@@ -4108,7 +4162,7 @@
         <v>9</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D233" s="4" t="n">
         <v>2</v>
@@ -4122,7 +4176,7 @@
         <v>9</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D234" s="4" t="n">
         <v>1</v>
@@ -4136,7 +4190,7 @@
         <v>4</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D235" s="4" t="n">
         <v>4</v>
@@ -4150,7 +4204,7 @@
         <v>4</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D236" s="4" t="n">
         <v>3</v>
@@ -4164,7 +4218,7 @@
         <v>4</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D237" s="4" t="n">
         <v>5</v>
@@ -4178,7 +4232,7 @@
         <v>4</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D238" s="4" t="n">
         <v>5</v>
@@ -4192,7 +4246,7 @@
         <v>4</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D239" s="4" t="n">
         <v>2</v>
@@ -4206,7 +4260,7 @@
         <v>4</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D240" s="4" t="n">
         <v>3</v>
@@ -4234,7 +4288,7 @@
         <v>9</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D242" s="4" t="n">
         <v>2</v>
@@ -4248,7 +4302,7 @@
         <v>9</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D243" s="4" t="n">
         <v>5</v>
@@ -4262,7 +4316,7 @@
         <v>4</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D244" s="4" t="n">
         <v>3</v>
@@ -4276,7 +4330,7 @@
         <v>7</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D245" s="4" t="n">
         <v>1</v>
@@ -4290,7 +4344,7 @@
         <v>4</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D246" s="4" t="n">
         <v>2</v>
@@ -4304,7 +4358,7 @@
         <v>9</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D247" s="4" t="n">
         <v>6</v>
@@ -4318,7 +4372,7 @@
         <v>9</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D248" s="4" t="n">
         <v>3</v>
@@ -4332,7 +4386,7 @@
         <v>7</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D249" s="4" t="n">
         <v>1</v>
@@ -4346,7 +4400,7 @@
         <v>7</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D250" s="4" t="n">
         <v>4</v>
@@ -4360,7 +4414,7 @@
         <v>7</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D251" s="4" t="n">
         <v>6</v>
@@ -4374,7 +4428,7 @@
         <v>7</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D252" s="4" t="n">
         <v>1</v>
@@ -4388,7 +4442,7 @@
         <v>9</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D253" s="4" t="n">
         <v>4</v>
@@ -4402,7 +4456,7 @@
         <v>7</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D254" s="4" t="n">
         <v>1</v>
@@ -4416,7 +4470,7 @@
         <v>7</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D255" s="4" t="n">
         <v>3</v>
@@ -4444,7 +4498,7 @@
         <v>9</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D257" s="4" t="n">
         <v>7</v>
@@ -4458,7 +4512,7 @@
         <v>9</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D258" s="4" t="n">
         <v>2</v>
@@ -4472,7 +4526,7 @@
         <v>7</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D259" s="4" t="n">
         <v>6</v>
@@ -4486,7 +4540,7 @@
         <v>9</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D260" s="4" t="n">
         <v>1</v>
@@ -4514,7 +4568,7 @@
         <v>9</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D262" s="4" t="n">
         <v>2</v>
@@ -4528,7 +4582,7 @@
         <v>4</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D263" s="4" t="n">
         <v>4</v>
@@ -4542,7 +4596,7 @@
         <v>7</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D264" s="4" t="n">
         <v>3</v>
@@ -4556,7 +4610,7 @@
         <v>4</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D265" s="4" t="n">
         <v>1</v>
@@ -4570,7 +4624,7 @@
         <v>4</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D266" s="4" t="n">
         <v>2</v>
@@ -4584,7 +4638,7 @@
         <v>9</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D267" s="4" t="n">
         <v>5</v>
@@ -4598,7 +4652,7 @@
         <v>9</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D268" s="4" t="n">
         <v>6</v>
@@ -4612,7 +4666,7 @@
         <v>7</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D269" s="4" t="n">
         <v>4</v>
@@ -4626,7 +4680,7 @@
         <v>9</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D270" s="4" t="n">
         <v>3</v>
@@ -4640,7 +4694,7 @@
         <v>4</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D271" s="4" t="n">
         <v>5</v>
@@ -4654,7 +4708,7 @@
         <v>4</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D272" s="4" t="n">
         <v>1</v>
@@ -4668,7 +4722,7 @@
         <v>9</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D273" s="4" t="n">
         <v>3</v>
@@ -4682,7 +4736,7 @@
         <v>4</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D274" s="4" t="n">
         <v>4</v>
@@ -4696,7 +4750,7 @@
         <v>9</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D275" s="4" t="n">
         <v>1</v>
@@ -4710,7 +4764,7 @@
         <v>7</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D276" s="4" t="n">
         <v>4</v>
@@ -4724,7 +4778,7 @@
         <v>7</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D277" s="4" t="n">
         <v>2</v>
@@ -4752,7 +4806,7 @@
         <v>4</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D279" s="4" t="n">
         <v>1</v>
@@ -4766,7 +4820,7 @@
         <v>9</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D280" s="4" t="n">
         <v>3</v>
@@ -4780,7 +4834,7 @@
         <v>7</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D281" s="4" t="n">
         <v>2</v>
@@ -4794,7 +4848,7 @@
         <v>7</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D282" s="4" t="n">
         <v>1</v>
@@ -4808,7 +4862,7 @@
         <v>9</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D283" s="4" t="n">
         <v>1</v>
@@ -4822,7 +4876,7 @@
         <v>4</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D284" s="4" t="n">
         <v>3</v>
@@ -4836,7 +4890,7 @@
         <v>4</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D285" s="4" t="n">
         <v>1</v>
@@ -4850,7 +4904,7 @@
         <v>9</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D286" s="4" t="n">
         <v>5</v>
@@ -4864,7 +4918,7 @@
         <v>7</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D287" s="4" t="n">
         <v>3</v>
@@ -4878,7 +4932,7 @@
         <v>4</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D288" s="4" t="n">
         <v>4</v>
@@ -4892,7 +4946,7 @@
         <v>7</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D289" s="4" t="n">
         <v>4</v>
@@ -4906,7 +4960,7 @@
         <v>4</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D290" s="4" t="n">
         <v>5</v>
@@ -4934,7 +4988,7 @@
         <v>4</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D292" s="4" t="n">
         <v>5</v>
@@ -4948,7 +5002,7 @@
         <v>9</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D293" s="4" t="n">
         <v>4</v>
@@ -4962,7 +5016,7 @@
         <v>4</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D294" s="4" t="n">
         <v>3</v>
@@ -4976,7 +5030,7 @@
         <v>7</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D295" s="4" t="n">
         <v>7</v>
@@ -4990,7 +5044,7 @@
         <v>7</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D296" s="4" t="n">
         <v>4</v>
@@ -5004,7 +5058,7 @@
         <v>7</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D297" s="4" t="n">
         <v>2</v>
@@ -5014,553 +5068,967 @@
       <c r="A298" s="3" t="n">
         <v>45888</v>
       </c>
-      <c r="B298" s="4"/>
-      <c r="C298" s="4"/>
-      <c r="D298" s="4"/>
+      <c r="B298" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D298" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="299" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="3" t="n">
         <v>45889</v>
       </c>
-      <c r="B299" s="4"/>
-      <c r="C299" s="4"/>
-      <c r="D299" s="4"/>
+      <c r="B299" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D299" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="300" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="3" t="n">
         <v>45890</v>
       </c>
-      <c r="B300" s="4"/>
-      <c r="C300" s="4"/>
-      <c r="D300" s="4"/>
+      <c r="B300" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="301" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="3" t="n">
         <v>45891</v>
       </c>
-      <c r="B301" s="4"/>
-      <c r="C301" s="4"/>
-      <c r="D301" s="4"/>
+      <c r="B301" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D301" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="302" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="3" t="n">
         <v>45892</v>
       </c>
-      <c r="B302" s="4"/>
-      <c r="C302" s="4"/>
-      <c r="D302" s="4"/>
+      <c r="B302" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D302" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="303" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="3" t="n">
         <v>45893</v>
       </c>
-      <c r="B303" s="4"/>
-      <c r="C303" s="4"/>
-      <c r="D303" s="4"/>
+      <c r="B303" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D303" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="304" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="3" t="n">
         <v>45894</v>
       </c>
-      <c r="B304" s="4"/>
-      <c r="C304" s="4"/>
-      <c r="D304" s="4"/>
+      <c r="B304" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D304" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="305" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="3" t="n">
         <v>45895</v>
       </c>
-      <c r="B305" s="4"/>
-      <c r="C305" s="4"/>
-      <c r="D305" s="4"/>
+      <c r="B305" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D305" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="306" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="3" t="n">
         <v>45896</v>
       </c>
-      <c r="B306" s="4"/>
-      <c r="C306" s="4"/>
-      <c r="D306" s="4"/>
+      <c r="B306" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D306" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="307" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="3" t="n">
         <v>45897</v>
       </c>
-      <c r="B307" s="4"/>
-      <c r="C307" s="4"/>
-      <c r="D307" s="4"/>
+      <c r="B307" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D307" s="4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="308" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="3" t="n">
         <v>45898</v>
       </c>
-      <c r="B308" s="4"/>
-      <c r="C308" s="4"/>
-      <c r="D308" s="4"/>
+      <c r="B308" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D308" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="309" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="3" t="n">
         <v>45899</v>
       </c>
-      <c r="B309" s="4"/>
-      <c r="C309" s="4"/>
-      <c r="D309" s="4"/>
+      <c r="B309" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D309" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="310" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="3" t="n">
         <v>45900</v>
       </c>
-      <c r="B310" s="4"/>
-      <c r="C310" s="4"/>
-      <c r="D310" s="4"/>
+      <c r="B310" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D310" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="311" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="3" t="n">
         <v>45901</v>
       </c>
-      <c r="B311" s="4"/>
-      <c r="C311" s="4"/>
-      <c r="D311" s="4"/>
+      <c r="B311" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C311" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D311" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="312" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="3" t="n">
         <v>45902</v>
       </c>
-      <c r="B312" s="4"/>
-      <c r="C312" s="4"/>
-      <c r="D312" s="4"/>
+      <c r="B312" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D312" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="313" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="3" t="n">
         <v>45903</v>
       </c>
-      <c r="B313" s="4"/>
-      <c r="C313" s="4"/>
-      <c r="D313" s="4"/>
+      <c r="B313" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D313" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="314" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="3" t="n">
         <v>45904</v>
       </c>
-      <c r="B314" s="4"/>
-      <c r="C314" s="4"/>
-      <c r="D314" s="4"/>
+      <c r="B314" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D314" s="4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="315" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="3" t="n">
         <v>45905</v>
       </c>
-      <c r="B315" s="4"/>
-      <c r="C315" s="4"/>
-      <c r="D315" s="4"/>
+      <c r="B315" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C315" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D315" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="316" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="3" t="n">
         <v>45906</v>
       </c>
-      <c r="B316" s="4"/>
-      <c r="C316" s="4"/>
-      <c r="D316" s="4"/>
+      <c r="B316" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C316" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D316" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="317" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="3" t="n">
         <v>45907</v>
       </c>
-      <c r="B317" s="4"/>
-      <c r="C317" s="4"/>
-      <c r="D317" s="4"/>
+      <c r="B317" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C317" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D317" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="318" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="3" t="n">
         <v>45908</v>
       </c>
-      <c r="B318" s="4"/>
-      <c r="C318" s="4"/>
-      <c r="D318" s="4"/>
+      <c r="B318" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C318" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D318" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="319" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="3" t="n">
         <v>45909</v>
       </c>
-      <c r="B319" s="4"/>
-      <c r="C319" s="4"/>
-      <c r="D319" s="4"/>
+      <c r="B319" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C319" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D319" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="320" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="3" t="n">
         <v>45910</v>
       </c>
-      <c r="B320" s="4"/>
-      <c r="C320" s="4"/>
-      <c r="D320" s="4"/>
+      <c r="B320" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C320" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D320" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="321" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="3" t="n">
         <v>45911</v>
       </c>
-      <c r="B321" s="4"/>
-      <c r="C321" s="4"/>
-      <c r="D321" s="4"/>
+      <c r="B321" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C321" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D321" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="322" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="3" t="n">
         <v>45912</v>
       </c>
-      <c r="B322" s="4"/>
-      <c r="C322" s="4"/>
-      <c r="D322" s="4"/>
+      <c r="B322" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D322" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="323" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="3" t="n">
         <v>45913</v>
       </c>
-      <c r="B323" s="4"/>
-      <c r="C323" s="4"/>
-      <c r="D323" s="4"/>
+      <c r="B323" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C323" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D323" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="324" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="3" t="n">
         <v>45914</v>
       </c>
-      <c r="B324" s="4"/>
-      <c r="C324" s="4"/>
-      <c r="D324" s="4"/>
+      <c r="B324" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C324" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D324" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="325" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="3" t="n">
         <v>45915</v>
       </c>
-      <c r="B325" s="4"/>
-      <c r="C325" s="4"/>
-      <c r="D325" s="4"/>
+      <c r="B325" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C325" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D325" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="326" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="B326" s="4"/>
-      <c r="C326" s="4"/>
-      <c r="D326" s="4"/>
+      <c r="B326" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C326" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D326" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="327" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="3" t="n">
         <v>45917</v>
       </c>
-      <c r="B327" s="4"/>
-      <c r="C327" s="4"/>
-      <c r="D327" s="4"/>
+      <c r="B327" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C327" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D327" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="328" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="3" t="n">
         <v>45918</v>
       </c>
-      <c r="B328" s="4"/>
-      <c r="C328" s="4"/>
-      <c r="D328" s="4"/>
+      <c r="B328" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C328" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D328" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="329" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="3" t="n">
         <v>45919</v>
       </c>
-      <c r="B329" s="4"/>
-      <c r="C329" s="4"/>
-      <c r="D329" s="4"/>
+      <c r="B329" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C329" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D329" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="330" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="3" t="n">
         <v>45920</v>
       </c>
-      <c r="B330" s="4"/>
-      <c r="C330" s="4"/>
-      <c r="D330" s="4"/>
+      <c r="B330" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C330" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D330" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="331" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="3" t="n">
         <v>45921</v>
       </c>
-      <c r="B331" s="4"/>
-      <c r="C331" s="4"/>
-      <c r="D331" s="4"/>
+      <c r="B331" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C331" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D331" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="332" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="3" t="n">
         <v>45922</v>
       </c>
-      <c r="B332" s="4"/>
-      <c r="C332" s="4"/>
-      <c r="D332" s="4"/>
+      <c r="B332" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C332" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D332" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="333" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="3" t="n">
         <v>45923</v>
       </c>
-      <c r="B333" s="4"/>
-      <c r="C333" s="4"/>
-      <c r="D333" s="4"/>
+      <c r="B333" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C333" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D333" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="334" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="3" t="n">
         <v>45924</v>
       </c>
-      <c r="B334" s="4"/>
-      <c r="C334" s="4"/>
-      <c r="D334" s="4"/>
+      <c r="B334" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C334" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D334" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="335" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="3" t="n">
         <v>45925</v>
       </c>
-      <c r="B335" s="4"/>
-      <c r="C335" s="4"/>
-      <c r="D335" s="4"/>
+      <c r="B335" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C335" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D335" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="336" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="3" t="n">
         <v>45926</v>
       </c>
-      <c r="B336" s="4"/>
-      <c r="C336" s="4"/>
-      <c r="D336" s="4"/>
+      <c r="B336" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C336" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D336" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="337" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="3" t="n">
         <v>45927</v>
       </c>
-      <c r="B337" s="4"/>
-      <c r="C337" s="4"/>
-      <c r="D337" s="4"/>
+      <c r="B337" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C337" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D337" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="338" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="3" t="n">
         <v>45928</v>
       </c>
-      <c r="B338" s="4"/>
-      <c r="C338" s="4"/>
-      <c r="D338" s="4"/>
+      <c r="B338" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C338" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D338" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="339" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="3" t="n">
         <v>45929</v>
       </c>
-      <c r="B339" s="4"/>
-      <c r="C339" s="4"/>
-      <c r="D339" s="4"/>
+      <c r="B339" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C339" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D339" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="340" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="3" t="n">
         <v>45930</v>
       </c>
-      <c r="B340" s="4"/>
-      <c r="C340" s="4"/>
-      <c r="D340" s="4"/>
+      <c r="B340" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C340" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D340" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="341" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="3" t="n">
         <v>45931</v>
       </c>
-      <c r="B341" s="4"/>
-      <c r="C341" s="4"/>
-      <c r="D341" s="4"/>
+      <c r="B341" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C341" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D341" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="342" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="3" t="n">
         <v>45932</v>
       </c>
-      <c r="B342" s="4"/>
-      <c r="C342" s="4"/>
-      <c r="D342" s="4"/>
+      <c r="B342" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C342" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D342" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="343" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="3" t="n">
         <v>45933</v>
       </c>
-      <c r="B343" s="4"/>
-      <c r="C343" s="4"/>
-      <c r="D343" s="4"/>
+      <c r="B343" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C343" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D343" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="344" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="3" t="n">
         <v>45934</v>
       </c>
-      <c r="B344" s="4"/>
-      <c r="C344" s="4"/>
-      <c r="D344" s="4"/>
+      <c r="B344" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C344" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D344" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="345" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="3" t="n">
         <v>45935</v>
       </c>
-      <c r="B345" s="4"/>
-      <c r="C345" s="4"/>
-      <c r="D345" s="4"/>
+      <c r="B345" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C345" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D345" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="346" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="3" t="n">
         <v>45936</v>
       </c>
-      <c r="B346" s="4"/>
-      <c r="C346" s="4"/>
-      <c r="D346" s="4"/>
+      <c r="B346" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C346" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D346" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="347" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="3" t="n">
         <v>45937</v>
       </c>
-      <c r="B347" s="4"/>
-      <c r="C347" s="4"/>
-      <c r="D347" s="4"/>
+      <c r="B347" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C347" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D347" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="348" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="3" t="n">
         <v>45938</v>
       </c>
-      <c r="B348" s="4"/>
-      <c r="C348" s="4"/>
-      <c r="D348" s="4"/>
+      <c r="B348" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C348" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D348" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="349" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="3" t="n">
         <v>45939</v>
       </c>
-      <c r="B349" s="4"/>
-      <c r="C349" s="4"/>
-      <c r="D349" s="4"/>
+      <c r="B349" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C349" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D349" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="350" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="3" t="n">
         <v>45940</v>
       </c>
-      <c r="B350" s="4"/>
-      <c r="C350" s="4"/>
-      <c r="D350" s="4"/>
+      <c r="B350" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C350" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D350" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="351" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="3" t="n">
         <v>45941</v>
       </c>
-      <c r="B351" s="4"/>
-      <c r="C351" s="4"/>
-      <c r="D351" s="4"/>
+      <c r="B351" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C351" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D351" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="352" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="3" t="n">
         <v>45942</v>
       </c>
-      <c r="B352" s="4"/>
-      <c r="C352" s="4"/>
-      <c r="D352" s="4"/>
+      <c r="B352" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C352" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D352" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="353" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="3" t="n">
         <v>45943</v>
       </c>
-      <c r="B353" s="4"/>
-      <c r="C353" s="4"/>
-      <c r="D353" s="4"/>
+      <c r="B353" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C353" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D353" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="354" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="3" t="n">
         <v>45944</v>
       </c>
-      <c r="B354" s="4"/>
-      <c r="C354" s="4"/>
-      <c r="D354" s="4"/>
+      <c r="B354" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C354" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D354" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="355" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="3" t="n">
         <v>45945</v>
       </c>
-      <c r="B355" s="4"/>
-      <c r="C355" s="4"/>
-      <c r="D355" s="4"/>
+      <c r="B355" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C355" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D355" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="356" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="3" t="n">
         <v>45946</v>
       </c>
-      <c r="B356" s="4"/>
-      <c r="C356" s="4"/>
-      <c r="D356" s="4"/>
+      <c r="B356" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C356" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D356" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="357" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="3" t="n">
         <v>45947</v>
       </c>
-      <c r="B357" s="4"/>
-      <c r="C357" s="4"/>
-      <c r="D357" s="4"/>
+      <c r="B357" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C357" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D357" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="358" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="3" t="n">
         <v>45948</v>
       </c>
-      <c r="B358" s="4"/>
-      <c r="C358" s="4"/>
-      <c r="D358" s="4"/>
+      <c r="B358" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C358" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D358" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="359" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="3" t="n">
         <v>45949</v>
       </c>
-      <c r="B359" s="4"/>
-      <c r="C359" s="4"/>
-      <c r="D359" s="4"/>
+      <c r="B359" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C359" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D359" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="360" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="3" t="n">
         <v>45950</v>
       </c>
-      <c r="B360" s="4"/>
-      <c r="C360" s="4"/>
-      <c r="D360" s="4"/>
+      <c r="B360" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C360" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D360" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="361" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="3" t="n">
         <v>45951</v>
       </c>
-      <c r="B361" s="4"/>
-      <c r="C361" s="4"/>
-      <c r="D361" s="4"/>
+      <c r="B361" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C361" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D361" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="362" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="3" t="n">
         <v>45952</v>
       </c>
-      <c r="B362" s="4"/>
-      <c r="C362" s="4"/>
-      <c r="D362" s="4"/>
+      <c r="B362" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C362" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D362" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="363" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="3" t="n">
         <v>45953</v>
       </c>
-      <c r="B363" s="4"/>
-      <c r="C363" s="4"/>
-      <c r="D363" s="4"/>
+      <c r="B363" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C363" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D363" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="364" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="3" t="n">
         <v>45954</v>
       </c>
-      <c r="B364" s="4"/>
-      <c r="C364" s="4"/>
-      <c r="D364" s="4"/>
+      <c r="B364" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C364" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D364" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="365" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="3" t="n">
         <v>45955</v>
       </c>
-      <c r="B365" s="4"/>
-      <c r="C365" s="4"/>
-      <c r="D365" s="4"/>
+      <c r="B365" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C365" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D365" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="366" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="3" t="n">
         <v>45956</v>
       </c>
-      <c r="B366" s="4"/>
-      <c r="C366" s="4"/>
-      <c r="D366" s="4"/>
+      <c r="B366" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C366" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D366" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="367" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -5581,8 +6049,8 @@
   </sheetPr>
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A234" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B269" activeCellId="0" sqref="B269"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A311" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C338" activeCellId="0" sqref="C338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5612,10 +6080,10 @@
         <v>45621</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>3</v>
@@ -5626,10 +6094,10 @@
         <v>45622</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>3</v>
@@ -5640,10 +6108,10 @@
         <v>45623</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>5</v>
@@ -5654,10 +6122,10 @@
         <v>45624</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>6</v>
@@ -5668,10 +6136,10 @@
         <v>45625</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>6</v>
@@ -5682,10 +6150,10 @@
         <v>45626</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>3</v>
@@ -5696,10 +6164,10 @@
         <v>45627</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>6</v>
@@ -5710,10 +6178,10 @@
         <v>45628</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>2</v>
@@ -5724,10 +6192,10 @@
         <v>45629</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>4</v>
@@ -5738,10 +6206,10 @@
         <v>45630</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>6</v>
@@ -5752,10 +6220,10 @@
         <v>45631</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>5</v>
@@ -5766,10 +6234,10 @@
         <v>45632</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>5</v>
@@ -5780,10 +6248,10 @@
         <v>45633</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>7</v>
@@ -5794,10 +6262,10 @@
         <v>45634</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>10</v>
@@ -5808,10 +6276,10 @@
         <v>45635</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>4</v>
@@ -5822,10 +6290,10 @@
         <v>45636</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>2</v>
@@ -5836,10 +6304,10 @@
         <v>45637</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>8</v>
@@ -5850,10 +6318,10 @@
         <v>45638</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>4</v>
@@ -5864,10 +6332,10 @@
         <v>45639</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>1</v>
@@ -5878,10 +6346,10 @@
         <v>45640</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>2</v>
@@ -5892,10 +6360,10 @@
         <v>45641</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>2</v>
@@ -5906,10 +6374,10 @@
         <v>45642</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D23" s="4" t="n">
         <v>6</v>
@@ -5920,10 +6388,10 @@
         <v>45643</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D24" s="4" t="n">
         <v>5</v>
@@ -5934,10 +6402,10 @@
         <v>45644</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D25" s="4" t="n">
         <v>6</v>
@@ -5948,10 +6416,10 @@
         <v>45645</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>6</v>
@@ -5962,10 +6430,10 @@
         <v>45646</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D27" s="4" t="n">
         <v>3</v>
@@ -5976,10 +6444,10 @@
         <v>45647</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D28" s="4" t="n">
         <v>4</v>
@@ -5990,10 +6458,10 @@
         <v>45648</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>2</v>
@@ -6004,10 +6472,10 @@
         <v>45649</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="D30" s="4" t="n">
         <v>4</v>
@@ -6018,10 +6486,10 @@
         <v>45650</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D31" s="4" t="n">
         <v>3</v>
@@ -6032,10 +6500,10 @@
         <v>45651</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D32" s="4" t="n">
         <v>2</v>
@@ -6046,10 +6514,10 @@
         <v>45652</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D33" s="4" t="n">
         <v>8</v>
@@ -6060,10 +6528,10 @@
         <v>45653</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D34" s="4" t="n">
         <v>4</v>
@@ -6074,10 +6542,10 @@
         <v>45654</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D35" s="4" t="n">
         <v>3</v>
@@ -6088,10 +6556,10 @@
         <v>45655</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D36" s="4" t="n">
         <v>2</v>
@@ -6102,10 +6570,10 @@
         <v>45656</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D37" s="4" t="n">
         <v>4</v>
@@ -6116,10 +6584,10 @@
         <v>45657</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D38" s="4" t="n">
         <v>4</v>
@@ -6130,10 +6598,10 @@
         <v>45658</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D39" s="4" t="n">
         <v>6</v>
@@ -6144,10 +6612,10 @@
         <v>45659</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D40" s="4" t="n">
         <v>5</v>
@@ -6158,10 +6626,10 @@
         <v>45660</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D41" s="4" t="n">
         <v>1</v>
@@ -6172,10 +6640,10 @@
         <v>45661</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D42" s="4" t="n">
         <v>5</v>
@@ -6186,10 +6654,10 @@
         <v>45662</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D43" s="4" t="n">
         <v>4</v>
@@ -6200,10 +6668,10 @@
         <v>45663</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D44" s="4" t="n">
         <v>3</v>
@@ -6214,10 +6682,10 @@
         <v>45664</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D45" s="4" t="n">
         <v>3</v>
@@ -6228,10 +6696,10 @@
         <v>45665</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D46" s="4" t="n">
         <v>2</v>
@@ -6242,10 +6710,10 @@
         <v>45666</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D47" s="4" t="n">
         <v>3</v>
@@ -6256,10 +6724,10 @@
         <v>45667</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D48" s="4" t="n">
         <v>2</v>
@@ -6270,10 +6738,10 @@
         <v>45668</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D49" s="4" t="n">
         <v>4</v>
@@ -6284,10 +6752,10 @@
         <v>45669</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D50" s="4" t="n">
         <v>1</v>
@@ -6298,10 +6766,10 @@
         <v>45670</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D51" s="4" t="n">
         <v>8</v>
@@ -6312,10 +6780,10 @@
         <v>45671</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D52" s="4" t="n">
         <v>4</v>
@@ -6326,10 +6794,10 @@
         <v>45672</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D53" s="4" t="n">
         <v>4</v>
@@ -6340,10 +6808,10 @@
         <v>45673</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D54" s="4" t="n">
         <v>5</v>
@@ -6354,10 +6822,10 @@
         <v>45674</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D55" s="4" t="n">
         <v>1</v>
@@ -6368,10 +6836,10 @@
         <v>45675</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D56" s="4" t="n">
         <v>3</v>
@@ -6382,10 +6850,10 @@
         <v>45676</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D57" s="4" t="n">
         <v>5</v>
@@ -6396,10 +6864,10 @@
         <v>45677</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D58" s="4" t="n">
         <v>7</v>
@@ -6410,10 +6878,10 @@
         <v>45678</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D59" s="4" t="n">
         <v>8</v>
@@ -6424,10 +6892,10 @@
         <v>45679</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D60" s="4" t="n">
         <v>4</v>
@@ -6438,10 +6906,10 @@
         <v>45680</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D61" s="4" t="n">
         <v>2</v>
@@ -6452,10 +6920,10 @@
         <v>45681</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D62" s="4" t="n">
         <v>3</v>
@@ -6466,10 +6934,10 @@
         <v>45682</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D63" s="4" t="n">
         <v>3</v>
@@ -6480,10 +6948,10 @@
         <v>45683</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D64" s="4" t="n">
         <v>7</v>
@@ -6494,10 +6962,10 @@
         <v>45684</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D65" s="4" t="n">
         <v>2</v>
@@ -6508,10 +6976,10 @@
         <v>45685</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D66" s="4" t="n">
         <v>1</v>
@@ -6522,10 +6990,10 @@
         <v>45686</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D67" s="4" t="n">
         <v>3</v>
@@ -6536,10 +7004,10 @@
         <v>45687</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D68" s="4" t="n">
         <v>9</v>
@@ -6550,10 +7018,10 @@
         <v>45688</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D69" s="4" t="n">
         <v>2</v>
@@ -6564,10 +7032,10 @@
         <v>45689</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D70" s="4" t="n">
         <v>4</v>
@@ -6578,10 +7046,10 @@
         <v>45690</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D71" s="4" t="n">
         <v>2</v>
@@ -6592,10 +7060,10 @@
         <v>45691</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D72" s="4" t="n">
         <v>7</v>
@@ -6606,10 +7074,10 @@
         <v>45692</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D73" s="4" t="n">
         <v>4</v>
@@ -6620,10 +7088,10 @@
         <v>45693</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D74" s="4" t="n">
         <v>7</v>
@@ -6634,10 +7102,10 @@
         <v>45694</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D75" s="4" t="n">
         <v>2</v>
@@ -6648,10 +7116,10 @@
         <v>45695</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D76" s="4" t="n">
         <v>3</v>
@@ -6662,10 +7130,10 @@
         <v>45696</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D77" s="4" t="n">
         <v>2</v>
@@ -6676,10 +7144,10 @@
         <v>45697</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D78" s="4" t="n">
         <v>6</v>
@@ -6690,10 +7158,10 @@
         <v>45698</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D79" s="4" t="n">
         <v>8</v>
@@ -6704,10 +7172,10 @@
         <v>45699</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D80" s="4" t="n">
         <v>5</v>
@@ -6718,10 +7186,10 @@
         <v>45700</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D81" s="4" t="n">
         <v>7</v>
@@ -6732,10 +7200,10 @@
         <v>45701</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D82" s="4" t="n">
         <v>6</v>
@@ -6746,10 +7214,10 @@
         <v>45702</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D83" s="4" t="n">
         <v>5</v>
@@ -6760,10 +7228,10 @@
         <v>45703</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D84" s="4" t="n">
         <v>7</v>
@@ -6774,10 +7242,10 @@
         <v>45704</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D85" s="4" t="n">
         <v>7</v>
@@ -6788,10 +7256,10 @@
         <v>45705</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D86" s="4" t="n">
         <v>1</v>
@@ -6802,10 +7270,10 @@
         <v>45706</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D87" s="4" t="n">
         <v>3</v>
@@ -6816,10 +7284,10 @@
         <v>45707</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D88" s="4" t="n">
         <v>1</v>
@@ -6830,10 +7298,10 @@
         <v>45708</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D89" s="4" t="n">
         <v>3</v>
@@ -6844,10 +7312,10 @@
         <v>45709</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D90" s="4" t="n">
         <v>6</v>
@@ -6858,10 +7326,10 @@
         <v>45710</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D91" s="4" t="n">
         <v>2</v>
@@ -6872,10 +7340,10 @@
         <v>45711</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D92" s="4" t="n">
         <v>1</v>
@@ -6886,10 +7354,10 @@
         <v>45712</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D93" s="4" t="n">
         <v>5</v>
@@ -6900,10 +7368,10 @@
         <v>45713</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D94" s="4" t="n">
         <v>5</v>
@@ -6914,10 +7382,10 @@
         <v>45714</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D95" s="4" t="n">
         <v>1</v>
@@ -6928,10 +7396,10 @@
         <v>45715</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D96" s="4" t="n">
         <v>11</v>
@@ -6942,10 +7410,10 @@
         <v>45716</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D97" s="4" t="n">
         <v>2</v>
@@ -6956,10 +7424,10 @@
         <v>45717</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D98" s="4" t="n">
         <v>2</v>
@@ -6970,10 +7438,10 @@
         <v>45718</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D99" s="4" t="n">
         <v>5</v>
@@ -6984,10 +7452,10 @@
         <v>45719</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D100" s="4" t="n">
         <v>2</v>
@@ -6998,10 +7466,10 @@
         <v>45720</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D101" s="4" t="n">
         <v>1</v>
@@ -7012,10 +7480,10 @@
         <v>45721</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D102" s="4" t="n">
         <v>1</v>
@@ -7026,10 +7494,10 @@
         <v>45722</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D103" s="4" t="n">
         <v>7</v>
@@ -7040,10 +7508,10 @@
         <v>45723</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D104" s="4" t="n">
         <v>5</v>
@@ -7054,10 +7522,10 @@
         <v>45724</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D105" s="4" t="n">
         <v>1</v>
@@ -7068,10 +7536,10 @@
         <v>45725</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D106" s="4" t="n">
         <v>8</v>
@@ -7082,10 +7550,10 @@
         <v>45726</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D107" s="4" t="n">
         <v>1</v>
@@ -7096,10 +7564,10 @@
         <v>45727</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D108" s="4" t="n">
         <v>6</v>
@@ -7110,10 +7578,10 @@
         <v>45728</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D109" s="4" t="n">
         <v>1</v>
@@ -7124,10 +7592,10 @@
         <v>45729</v>
       </c>
       <c r="B110" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D110" s="4" t="n">
         <v>1</v>
@@ -7138,10 +7606,10 @@
         <v>45730</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D111" s="4" t="n">
         <v>3</v>
@@ -7152,10 +7620,10 @@
         <v>45731</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D112" s="4" t="n">
         <v>2</v>
@@ -7166,10 +7634,10 @@
         <v>45732</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D113" s="4" t="n">
         <v>4</v>
@@ -7180,10 +7648,10 @@
         <v>45733</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D114" s="4" t="n">
         <v>8</v>
@@ -7194,10 +7662,10 @@
         <v>45734</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D115" s="4" t="n">
         <v>7</v>
@@ -7208,10 +7676,10 @@
         <v>45735</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D116" s="4" t="n">
         <v>5</v>
@@ -7222,10 +7690,10 @@
         <v>45736</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D117" s="4" t="n">
         <v>3</v>
@@ -7236,10 +7704,10 @@
         <v>45737</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D118" s="4" t="n">
         <v>2</v>
@@ -7250,10 +7718,10 @@
         <v>45738</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D119" s="4" t="n">
         <v>4</v>
@@ -7264,10 +7732,10 @@
         <v>45739</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D120" s="4" t="n">
         <v>7</v>
@@ -7278,10 +7746,10 @@
         <v>45740</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D121" s="4" t="n">
         <v>5</v>
@@ -7292,10 +7760,10 @@
         <v>45741</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D122" s="4" t="n">
         <v>3</v>
@@ -7306,10 +7774,10 @@
         <v>45742</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D123" s="4" t="n">
         <v>6</v>
@@ -7320,10 +7788,10 @@
         <v>45743</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D124" s="4" t="n">
         <v>3</v>
@@ -7334,10 +7802,10 @@
         <v>45744</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D125" s="4" t="n">
         <v>2</v>
@@ -7348,10 +7816,10 @@
         <v>45745</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D126" s="4" t="n">
         <v>2</v>
@@ -7362,10 +7830,10 @@
         <v>45746</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D127" s="4" t="n">
         <v>3</v>
@@ -7376,10 +7844,10 @@
         <v>45747</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D128" s="4" t="n">
         <v>3</v>
@@ -7390,10 +7858,10 @@
         <v>45748</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D129" s="4" t="n">
         <v>2</v>
@@ -7404,10 +7872,10 @@
         <v>45749</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D130" s="4" t="n">
         <v>5</v>
@@ -7418,10 +7886,10 @@
         <v>45750</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D131" s="4" t="n">
         <v>6</v>
@@ -7432,10 +7900,10 @@
         <v>45751</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D132" s="4" t="n">
         <v>3</v>
@@ -7446,10 +7914,10 @@
         <v>45752</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D133" s="4" t="n">
         <v>1</v>
@@ -7460,10 +7928,10 @@
         <v>45753</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D134" s="4" t="n">
         <v>2</v>
@@ -7474,10 +7942,10 @@
         <v>45754</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D135" s="4" t="n">
         <v>3</v>
@@ -7488,10 +7956,10 @@
         <v>45755</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D136" s="4" t="n">
         <v>7</v>
@@ -7502,10 +7970,10 @@
         <v>45756</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D137" s="4" t="n">
         <v>2</v>
@@ -7516,10 +7984,10 @@
         <v>45757</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D138" s="4" t="n">
         <v>5</v>
@@ -7530,10 +7998,10 @@
         <v>45758</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D139" s="4" t="n">
         <v>7</v>
@@ -7544,10 +8012,10 @@
         <v>45759</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D140" s="4" t="n">
         <v>4</v>
@@ -7558,10 +8026,10 @@
         <v>45760</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D141" s="4" t="n">
         <v>4</v>
@@ -7572,10 +8040,10 @@
         <v>45761</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D142" s="4" t="n">
         <v>2</v>
@@ -7586,10 +8054,10 @@
         <v>45762</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D143" s="4" t="n">
         <v>5</v>
@@ -7600,10 +8068,10 @@
         <v>45763</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D144" s="4" t="n">
         <v>1</v>
@@ -7614,10 +8082,10 @@
         <v>45764</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D145" s="4" t="n">
         <v>5</v>
@@ -7628,10 +8096,10 @@
         <v>45765</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D146" s="4" t="n">
         <v>3</v>
@@ -7642,10 +8110,10 @@
         <v>45766</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D147" s="4" t="n">
         <v>6</v>
@@ -7656,10 +8124,10 @@
         <v>45767</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D148" s="4" t="n">
         <v>1</v>
@@ -7670,10 +8138,10 @@
         <v>45768</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D149" s="4" t="n">
         <v>7</v>
@@ -7684,10 +8152,10 @@
         <v>45769</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D150" s="4" t="n">
         <v>4</v>
@@ -7698,10 +8166,10 @@
         <v>45770</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D151" s="4" t="n">
         <v>3</v>
@@ -7712,10 +8180,10 @@
         <v>45771</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D152" s="4" t="n">
         <v>5</v>
@@ -7726,10 +8194,10 @@
         <v>45772</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D153" s="4" t="n">
         <v>5</v>
@@ -7740,10 +8208,10 @@
         <v>45773</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D154" s="4" t="n">
         <v>2</v>
@@ -7754,10 +8222,10 @@
         <v>45774</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D155" s="4" t="n">
         <v>1</v>
@@ -7768,10 +8236,10 @@
         <v>45775</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D156" s="4" t="n">
         <v>1</v>
@@ -7782,10 +8250,10 @@
         <v>45776</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D157" s="4" t="n">
         <v>3</v>
@@ -7796,10 +8264,10 @@
         <v>45777</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D158" s="4" t="n">
         <v>3</v>
@@ -7810,10 +8278,10 @@
         <v>45778</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D159" s="4" t="n">
         <v>1</v>
@@ -7824,10 +8292,10 @@
         <v>45779</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D160" s="4" t="n">
         <v>7</v>
@@ -7838,10 +8306,10 @@
         <v>45780</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D161" s="4" t="n">
         <v>1</v>
@@ -7852,10 +8320,10 @@
         <v>45781</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D162" s="4" t="n">
         <v>6</v>
@@ -7866,10 +8334,10 @@
         <v>45782</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D163" s="4" t="n">
         <v>3</v>
@@ -7880,10 +8348,10 @@
         <v>45783</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D164" s="4" t="n">
         <v>7</v>
@@ -7894,10 +8362,10 @@
         <v>45784</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D165" s="4" t="n">
         <v>3</v>
@@ -7908,10 +8376,10 @@
         <v>45785</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D166" s="4" t="n">
         <v>1</v>
@@ -7922,10 +8390,10 @@
         <v>45786</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D167" s="4" t="n">
         <v>8</v>
@@ -7936,10 +8404,10 @@
         <v>45787</v>
       </c>
       <c r="B168" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C168" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D168" s="4" t="n">
         <v>1</v>
@@ -7950,10 +8418,10 @@
         <v>45788</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D169" s="4" t="n">
         <v>2</v>
@@ -7964,10 +8432,10 @@
         <v>45789</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D170" s="4" t="n">
         <v>8</v>
@@ -7978,10 +8446,10 @@
         <v>45790</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D171" s="4" t="n">
         <v>1</v>
@@ -7992,10 +8460,10 @@
         <v>45791</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D172" s="4" t="n">
         <v>2</v>
@@ -8006,10 +8474,10 @@
         <v>45792</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D173" s="4" t="n">
         <v>8</v>
@@ -8020,10 +8488,10 @@
         <v>45793</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D174" s="4" t="n">
         <v>1</v>
@@ -8034,10 +8502,10 @@
         <v>45794</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D175" s="4" t="n">
         <v>3</v>
@@ -8048,10 +8516,10 @@
         <v>45795</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D176" s="4" t="n">
         <v>5</v>
@@ -8062,10 +8530,10 @@
         <v>45796</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D177" s="4" t="n">
         <v>3</v>
@@ -8076,10 +8544,10 @@
         <v>45797</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D178" s="4" t="n">
         <v>5</v>
@@ -8090,10 +8558,10 @@
         <v>45798</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D179" s="4" t="n">
         <v>3</v>
@@ -8104,10 +8572,10 @@
         <v>45799</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D180" s="4" t="n">
         <v>1</v>
@@ -8118,10 +8586,10 @@
         <v>45800</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D181" s="4" t="n">
         <v>2</v>
@@ -8132,10 +8600,10 @@
         <v>45801</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D182" s="4" t="n">
         <v>1</v>
@@ -8146,10 +8614,10 @@
         <v>45802</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D183" s="4" t="n">
         <v>3</v>
@@ -8160,10 +8628,10 @@
         <v>45803</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D184" s="4" t="n">
         <v>7</v>
@@ -8174,10 +8642,10 @@
         <v>45804</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D185" s="4" t="n">
         <v>6</v>
@@ -8188,10 +8656,10 @@
         <v>45805</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D186" s="4" t="n">
         <v>4</v>
@@ -8202,10 +8670,10 @@
         <v>45806</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D187" s="4" t="n">
         <v>2</v>
@@ -8216,10 +8684,10 @@
         <v>45807</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D188" s="4" t="n">
         <v>6</v>
@@ -8230,10 +8698,10 @@
         <v>45808</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D189" s="4" t="n">
         <v>3</v>
@@ -8244,10 +8712,10 @@
         <v>45809</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D190" s="4" t="n">
         <v>4</v>
@@ -8258,10 +8726,10 @@
         <v>45810</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D191" s="4" t="n">
         <v>1</v>
@@ -8272,10 +8740,10 @@
         <v>45811</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D192" s="4" t="n">
         <v>5</v>
@@ -8286,10 +8754,10 @@
         <v>45812</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D193" s="4" t="n">
         <v>6</v>
@@ -8300,10 +8768,10 @@
         <v>45813</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D194" s="4" t="n">
         <v>5</v>
@@ -8314,10 +8782,10 @@
         <v>45814</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D195" s="4" t="n">
         <v>6</v>
@@ -8328,10 +8796,10 @@
         <v>45815</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D196" s="4" t="n">
         <v>6</v>
@@ -8342,10 +8810,10 @@
         <v>45816</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D197" s="4" t="n">
         <v>5</v>
@@ -8356,10 +8824,10 @@
         <v>45817</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D198" s="4" t="n">
         <v>5</v>
@@ -8370,10 +8838,10 @@
         <v>45818</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D199" s="4" t="n">
         <v>1</v>
@@ -8384,10 +8852,10 @@
         <v>45819</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D200" s="4" t="n">
         <v>12</v>
@@ -8398,10 +8866,10 @@
         <v>45820</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D201" s="4" t="n">
         <v>1</v>
@@ -8412,10 +8880,10 @@
         <v>45821</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D202" s="4" t="n">
         <v>6</v>
@@ -8426,10 +8894,10 @@
         <v>45822</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D203" s="4" t="n">
         <v>6</v>
@@ -8440,10 +8908,10 @@
         <v>45823</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D204" s="4" t="n">
         <v>1</v>
@@ -8454,10 +8922,10 @@
         <v>45824</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D205" s="4" t="n">
         <v>6</v>
@@ -8468,10 +8936,10 @@
         <v>45825</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D206" s="4" t="n">
         <v>10</v>
@@ -8482,10 +8950,10 @@
         <v>45826</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D207" s="4" t="n">
         <v>4</v>
@@ -8496,10 +8964,10 @@
         <v>45827</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D208" s="4" t="n">
         <v>4</v>
@@ -8510,10 +8978,10 @@
         <v>45828</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D209" s="4" t="n">
         <v>2</v>
@@ -8524,10 +8992,10 @@
         <v>45829</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D210" s="4" t="n">
         <v>10</v>
@@ -8538,10 +9006,10 @@
         <v>45830</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D211" s="4" t="n">
         <v>5</v>
@@ -8552,10 +9020,10 @@
         <v>45831</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D212" s="4" t="n">
         <v>2</v>
@@ -8566,10 +9034,10 @@
         <v>45832</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D213" s="4" t="n">
         <v>6</v>
@@ -8580,10 +9048,10 @@
         <v>45833</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D214" s="4" t="n">
         <v>10</v>
@@ -8594,10 +9062,10 @@
         <v>45834</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D215" s="4" t="n">
         <v>6</v>
@@ -8608,10 +9076,10 @@
         <v>45835</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D216" s="4" t="n">
         <v>1</v>
@@ -8622,10 +9090,10 @@
         <v>45836</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D217" s="4" t="n">
         <v>7</v>
@@ -8636,10 +9104,10 @@
         <v>45837</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D218" s="4" t="n">
         <v>2</v>
@@ -8650,10 +9118,10 @@
         <v>45838</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D219" s="4" t="n">
         <v>8</v>
@@ -8664,10 +9132,10 @@
         <v>45839</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D220" s="4" t="n">
         <v>5</v>
@@ -8678,10 +9146,10 @@
         <v>45840</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D221" s="4" t="n">
         <v>4</v>
@@ -8692,10 +9160,10 @@
         <v>45841</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D222" s="4" t="n">
         <v>1</v>
@@ -8706,10 +9174,10 @@
         <v>45842</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D223" s="4" t="n">
         <v>2</v>
@@ -8720,10 +9188,10 @@
         <v>45843</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D224" s="4" t="n">
         <v>1</v>
@@ -8734,10 +9202,10 @@
         <v>45844</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D225" s="4" t="n">
         <v>5</v>
@@ -8748,10 +9216,10 @@
         <v>45845</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D226" s="4" t="n">
         <v>9</v>
@@ -8762,10 +9230,10 @@
         <v>45846</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D227" s="4" t="n">
         <v>1</v>
@@ -8776,10 +9244,10 @@
         <v>45847</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D228" s="4" t="n">
         <v>3</v>
@@ -8790,10 +9258,10 @@
         <v>45848</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D229" s="4" t="n">
         <v>2</v>
@@ -8804,10 +9272,10 @@
         <v>45849</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D230" s="4" t="n">
         <v>5</v>
@@ -8818,10 +9286,10 @@
         <v>45850</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D231" s="4" t="n">
         <v>8</v>
@@ -8832,10 +9300,10 @@
         <v>45851</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D232" s="4" t="n">
         <v>4</v>
@@ -8846,10 +9314,10 @@
         <v>45852</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D233" s="4" t="n">
         <v>3</v>
@@ -8860,10 +9328,10 @@
         <v>45853</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D234" s="4" t="n">
         <v>2</v>
@@ -8874,10 +9342,10 @@
         <v>45854</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D235" s="4" t="n">
         <v>5</v>
@@ -8888,10 +9356,10 @@
         <v>45855</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D236" s="4" t="n">
         <v>4</v>
@@ -8902,10 +9370,10 @@
         <v>45856</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D237" s="4" t="n">
         <v>7</v>
@@ -8916,10 +9384,10 @@
         <v>45857</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D238" s="4" t="n">
         <v>3</v>
@@ -8930,10 +9398,10 @@
         <v>45858</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D239" s="4" t="n">
         <v>3</v>
@@ -8944,10 +9412,10 @@
         <v>45859</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D240" s="4" t="n">
         <v>10</v>
@@ -8958,10 +9426,10 @@
         <v>45860</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D241" s="4" t="n">
         <v>6</v>
@@ -8972,10 +9440,10 @@
         <v>45861</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D242" s="4" t="n">
         <v>2</v>
@@ -8986,10 +9454,10 @@
         <v>45862</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D243" s="4" t="n">
         <v>7</v>
@@ -9000,10 +9468,10 @@
         <v>45863</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D244" s="4" t="n">
         <v>3</v>
@@ -9014,10 +9482,10 @@
         <v>45864</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D245" s="4" t="n">
         <v>1</v>
@@ -9028,10 +9496,10 @@
         <v>45865</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D246" s="4" t="n">
         <v>2</v>
@@ -9042,10 +9510,10 @@
         <v>45866</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D247" s="4" t="n">
         <v>5</v>
@@ -9056,10 +9524,10 @@
         <v>45867</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D248" s="4" t="n">
         <v>6</v>
@@ -9070,10 +9538,10 @@
         <v>45868</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D249" s="4" t="n">
         <v>3</v>
@@ -9084,10 +9552,10 @@
         <v>45869</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D250" s="4" t="n">
         <v>5</v>
@@ -9098,10 +9566,10 @@
         <v>45870</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D251" s="4" t="n">
         <v>5</v>
@@ -9112,10 +9580,10 @@
         <v>45871</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D252" s="4" t="n">
         <v>4</v>
@@ -9126,10 +9594,10 @@
         <v>45872</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D253" s="4" t="n">
         <v>7</v>
@@ -9140,10 +9608,10 @@
         <v>45873</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D254" s="4" t="n">
         <v>4</v>
@@ -9154,10 +9622,10 @@
         <v>45874</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D255" s="4" t="n">
         <v>5</v>
@@ -9168,10 +9636,10 @@
         <v>45875</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D256" s="4" t="n">
         <v>3</v>
@@ -9182,10 +9650,10 @@
         <v>45876</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D257" s="4" t="n">
         <v>1</v>
@@ -9196,10 +9664,10 @@
         <v>45877</v>
       </c>
       <c r="B258" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C258" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C258" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="D258" s="4" t="n">
         <v>5</v>
@@ -9210,10 +9678,10 @@
         <v>45878</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D259" s="4" t="n">
         <v>2</v>
@@ -9224,10 +9692,10 @@
         <v>45879</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D260" s="4" t="n">
         <v>1</v>
@@ -9238,10 +9706,10 @@
         <v>45880</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D261" s="4" t="n">
         <v>1</v>
@@ -9252,10 +9720,10 @@
         <v>45881</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D262" s="4" t="n">
         <v>1</v>
@@ -9266,10 +9734,10 @@
         <v>45882</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D263" s="4" t="n">
         <v>4</v>
@@ -9280,10 +9748,10 @@
         <v>45883</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D264" s="4" t="n">
         <v>2</v>
@@ -9294,10 +9762,10 @@
         <v>45884</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D265" s="4" t="n">
         <v>3</v>
@@ -9308,10 +9776,10 @@
         <v>45885</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D266" s="4" t="n">
         <v>6</v>
@@ -9322,10 +9790,10 @@
         <v>45886</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D267" s="4" t="n">
         <v>3</v>
@@ -9336,10 +9804,10 @@
         <v>45887</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D268" s="4" t="n">
         <v>8</v>
@@ -9349,553 +9817,967 @@
       <c r="A269" s="3" t="n">
         <v>45888</v>
       </c>
-      <c r="B269" s="4"/>
-      <c r="C269" s="4"/>
-      <c r="D269" s="4"/>
+      <c r="B269" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D269" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="270" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="3" t="n">
         <v>45889</v>
       </c>
-      <c r="B270" s="4"/>
-      <c r="C270" s="4"/>
-      <c r="D270" s="4"/>
+      <c r="B270" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D270" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="271" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="3" t="n">
         <v>45890</v>
       </c>
-      <c r="B271" s="4"/>
-      <c r="C271" s="4"/>
-      <c r="D271" s="4"/>
+      <c r="B271" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D271" s="4" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="272" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="3" t="n">
         <v>45891</v>
       </c>
-      <c r="B272" s="4"/>
-      <c r="C272" s="4"/>
-      <c r="D272" s="4"/>
+      <c r="B272" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D272" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="273" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="3" t="n">
         <v>45892</v>
       </c>
-      <c r="B273" s="4"/>
-      <c r="C273" s="4"/>
-      <c r="D273" s="4"/>
+      <c r="B273" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D273" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="274" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="3" t="n">
         <v>45893</v>
       </c>
-      <c r="B274" s="4"/>
-      <c r="C274" s="4"/>
-      <c r="D274" s="4"/>
+      <c r="B274" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D274" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="275" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="3" t="n">
         <v>45894</v>
       </c>
-      <c r="B275" s="4"/>
-      <c r="C275" s="4"/>
-      <c r="D275" s="4"/>
+      <c r="B275" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D275" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="276" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="3" t="n">
         <v>45895</v>
       </c>
-      <c r="B276" s="4"/>
-      <c r="C276" s="4"/>
-      <c r="D276" s="4"/>
+      <c r="B276" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D276" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="277" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="3" t="n">
         <v>45896</v>
       </c>
-      <c r="B277" s="4"/>
-      <c r="C277" s="4"/>
-      <c r="D277" s="4"/>
+      <c r="B277" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D277" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="278" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="3" t="n">
         <v>45897</v>
       </c>
-      <c r="B278" s="4"/>
-      <c r="C278" s="4"/>
-      <c r="D278" s="4"/>
+      <c r="B278" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D278" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="279" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="3" t="n">
         <v>45898</v>
       </c>
-      <c r="B279" s="4"/>
-      <c r="C279" s="4"/>
-      <c r="D279" s="4"/>
+      <c r="B279" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D279" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="280" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="3" t="n">
         <v>45899</v>
       </c>
-      <c r="B280" s="4"/>
-      <c r="C280" s="4"/>
-      <c r="D280" s="4"/>
+      <c r="B280" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D280" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="281" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="3" t="n">
         <v>45900</v>
       </c>
-      <c r="B281" s="4"/>
-      <c r="C281" s="4"/>
-      <c r="D281" s="4"/>
+      <c r="B281" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D281" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="282" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="3" t="n">
         <v>45901</v>
       </c>
-      <c r="B282" s="4"/>
-      <c r="C282" s="4"/>
-      <c r="D282" s="4"/>
+      <c r="B282" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D282" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="283" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="3" t="n">
         <v>45902</v>
       </c>
-      <c r="B283" s="4"/>
-      <c r="C283" s="4"/>
-      <c r="D283" s="4"/>
+      <c r="B283" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D283" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="284" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="3" t="n">
         <v>45903</v>
       </c>
-      <c r="B284" s="4"/>
-      <c r="C284" s="4"/>
-      <c r="D284" s="4"/>
+      <c r="B284" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D284" s="4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="285" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="3" t="n">
         <v>45904</v>
       </c>
-      <c r="B285" s="4"/>
-      <c r="C285" s="4"/>
-      <c r="D285" s="4"/>
+      <c r="B285" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D285" s="4" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="286" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="3" t="n">
         <v>45905</v>
       </c>
-      <c r="B286" s="4"/>
-      <c r="C286" s="4"/>
-      <c r="D286" s="4"/>
+      <c r="B286" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D286" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="287" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="3" t="n">
         <v>45906</v>
       </c>
-      <c r="B287" s="4"/>
-      <c r="C287" s="4"/>
-      <c r="D287" s="4"/>
+      <c r="B287" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D287" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="288" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="3" t="n">
         <v>45907</v>
       </c>
-      <c r="B288" s="4"/>
-      <c r="C288" s="4"/>
-      <c r="D288" s="4"/>
+      <c r="B288" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D288" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="289" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="3" t="n">
         <v>45908</v>
       </c>
-      <c r="B289" s="4"/>
-      <c r="C289" s="4"/>
-      <c r="D289" s="4"/>
+      <c r="B289" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D289" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="290" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="3" t="n">
         <v>45909</v>
       </c>
-      <c r="B290" s="4"/>
-      <c r="C290" s="4"/>
-      <c r="D290" s="4"/>
+      <c r="B290" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D290" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="291" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="3" t="n">
         <v>45910</v>
       </c>
-      <c r="B291" s="4"/>
-      <c r="C291" s="4"/>
-      <c r="D291" s="4"/>
+      <c r="B291" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D291" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="292" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="3" t="n">
         <v>45911</v>
       </c>
-      <c r="B292" s="4"/>
-      <c r="C292" s="4"/>
-      <c r="D292" s="4"/>
+      <c r="B292" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D292" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="293" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="3" t="n">
         <v>45912</v>
       </c>
-      <c r="B293" s="4"/>
-      <c r="C293" s="4"/>
-      <c r="D293" s="4"/>
+      <c r="B293" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D293" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="294" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="3" t="n">
         <v>45913</v>
       </c>
-      <c r="B294" s="4"/>
-      <c r="C294" s="4"/>
-      <c r="D294" s="4"/>
+      <c r="B294" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D294" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="295" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="3" t="n">
         <v>45914</v>
       </c>
-      <c r="B295" s="4"/>
-      <c r="C295" s="4"/>
-      <c r="D295" s="4"/>
+      <c r="B295" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D295" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="296" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="3" t="n">
         <v>45915</v>
       </c>
-      <c r="B296" s="4"/>
-      <c r="C296" s="4"/>
-      <c r="D296" s="4"/>
+      <c r="B296" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D296" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="297" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="B297" s="4"/>
-      <c r="C297" s="4"/>
-      <c r="D297" s="4"/>
+      <c r="B297" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D297" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="298" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="3" t="n">
         <v>45917</v>
       </c>
-      <c r="B298" s="4"/>
-      <c r="C298" s="4"/>
-      <c r="D298" s="4"/>
+      <c r="B298" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D298" s="4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="299" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="3" t="n">
         <v>45918</v>
       </c>
-      <c r="B299" s="4"/>
-      <c r="C299" s="4"/>
-      <c r="D299" s="4"/>
+      <c r="B299" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D299" s="4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="300" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="3" t="n">
         <v>45919</v>
       </c>
-      <c r="B300" s="4"/>
-      <c r="C300" s="4"/>
-      <c r="D300" s="4"/>
+      <c r="B300" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D300" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="301" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="3" t="n">
         <v>45920</v>
       </c>
-      <c r="B301" s="4"/>
-      <c r="C301" s="4"/>
-      <c r="D301" s="4"/>
+      <c r="B301" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D301" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="302" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="3" t="n">
         <v>45921</v>
       </c>
-      <c r="B302" s="4"/>
-      <c r="C302" s="4"/>
-      <c r="D302" s="4"/>
+      <c r="B302" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D302" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="303" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="3" t="n">
         <v>45922</v>
       </c>
-      <c r="B303" s="4"/>
-      <c r="C303" s="4"/>
-      <c r="D303" s="4"/>
+      <c r="B303" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D303" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="304" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="3" t="n">
         <v>45923</v>
       </c>
-      <c r="B304" s="4"/>
-      <c r="C304" s="4"/>
-      <c r="D304" s="4"/>
+      <c r="B304" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D304" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="305" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="3" t="n">
         <v>45924</v>
       </c>
-      <c r="B305" s="4"/>
-      <c r="C305" s="4"/>
-      <c r="D305" s="4"/>
+      <c r="B305" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D305" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="306" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="3" t="n">
         <v>45925</v>
       </c>
-      <c r="B306" s="4"/>
-      <c r="C306" s="4"/>
-      <c r="D306" s="4"/>
+      <c r="B306" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D306" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="307" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="3" t="n">
         <v>45926</v>
       </c>
-      <c r="B307" s="4"/>
-      <c r="C307" s="4"/>
-      <c r="D307" s="4"/>
+      <c r="B307" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D307" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="308" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="3" t="n">
         <v>45927</v>
       </c>
-      <c r="B308" s="4"/>
-      <c r="C308" s="4"/>
-      <c r="D308" s="4"/>
+      <c r="B308" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D308" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="309" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="3" t="n">
         <v>45928</v>
       </c>
-      <c r="B309" s="4"/>
-      <c r="C309" s="4"/>
-      <c r="D309" s="4"/>
+      <c r="B309" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D309" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="310" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="3" t="n">
         <v>45929</v>
       </c>
-      <c r="B310" s="4"/>
-      <c r="C310" s="4"/>
-      <c r="D310" s="4"/>
+      <c r="B310" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D310" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="311" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="3" t="n">
         <v>45930</v>
       </c>
-      <c r="B311" s="4"/>
-      <c r="C311" s="4"/>
-      <c r="D311" s="4"/>
+      <c r="B311" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C311" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D311" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="312" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="3" t="n">
         <v>45931</v>
       </c>
-      <c r="B312" s="4"/>
-      <c r="C312" s="4"/>
-      <c r="D312" s="4"/>
+      <c r="B312" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D312" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="313" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="3" t="n">
         <v>45932</v>
       </c>
-      <c r="B313" s="4"/>
-      <c r="C313" s="4"/>
-      <c r="D313" s="4"/>
+      <c r="B313" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D313" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="314" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="3" t="n">
         <v>45933</v>
       </c>
-      <c r="B314" s="4"/>
-      <c r="C314" s="4"/>
-      <c r="D314" s="4"/>
+      <c r="B314" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D314" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="315" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="3" t="n">
         <v>45934</v>
       </c>
-      <c r="B315" s="4"/>
-      <c r="C315" s="4"/>
-      <c r="D315" s="4"/>
+      <c r="B315" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C315" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D315" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="316" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="3" t="n">
         <v>45935</v>
       </c>
-      <c r="B316" s="4"/>
-      <c r="C316" s="4"/>
-      <c r="D316" s="4"/>
+      <c r="B316" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C316" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D316" s="4" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="317" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="3" t="n">
         <v>45936</v>
       </c>
-      <c r="B317" s="4"/>
-      <c r="C317" s="4"/>
-      <c r="D317" s="4"/>
+      <c r="B317" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C317" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D317" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="318" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="3" t="n">
         <v>45937</v>
       </c>
-      <c r="B318" s="4"/>
-      <c r="C318" s="4"/>
-      <c r="D318" s="4"/>
+      <c r="B318" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C318" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D318" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="319" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="3" t="n">
         <v>45938</v>
       </c>
-      <c r="B319" s="4"/>
-      <c r="C319" s="4"/>
-      <c r="D319" s="4"/>
+      <c r="B319" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C319" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D319" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="320" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="3" t="n">
         <v>45939</v>
       </c>
-      <c r="B320" s="4"/>
-      <c r="C320" s="4"/>
-      <c r="D320" s="4"/>
+      <c r="B320" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C320" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D320" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="321" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="3" t="n">
         <v>45940</v>
       </c>
-      <c r="B321" s="4"/>
-      <c r="C321" s="4"/>
-      <c r="D321" s="4"/>
+      <c r="B321" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C321" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D321" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="322" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="3" t="n">
         <v>45941</v>
       </c>
-      <c r="B322" s="4"/>
-      <c r="C322" s="4"/>
-      <c r="D322" s="4"/>
+      <c r="B322" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D322" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="323" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="3" t="n">
         <v>45942</v>
       </c>
-      <c r="B323" s="4"/>
-      <c r="C323" s="4"/>
-      <c r="D323" s="4"/>
+      <c r="B323" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C323" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D323" s="4" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="324" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="3" t="n">
         <v>45943</v>
       </c>
-      <c r="B324" s="4"/>
-      <c r="C324" s="4"/>
-      <c r="D324" s="4"/>
+      <c r="B324" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C324" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D324" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="325" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="3" t="n">
         <v>45944</v>
       </c>
-      <c r="B325" s="4"/>
-      <c r="C325" s="4"/>
-      <c r="D325" s="4"/>
+      <c r="B325" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C325" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D325" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="326" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="3" t="n">
         <v>45945</v>
       </c>
-      <c r="B326" s="4"/>
-      <c r="C326" s="4"/>
-      <c r="D326" s="4"/>
+      <c r="B326" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C326" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D326" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="327" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="3" t="n">
         <v>45946</v>
       </c>
-      <c r="B327" s="4"/>
-      <c r="C327" s="4"/>
-      <c r="D327" s="4"/>
+      <c r="B327" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C327" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D327" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="328" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="3" t="n">
         <v>45947</v>
       </c>
-      <c r="B328" s="4"/>
-      <c r="C328" s="4"/>
-      <c r="D328" s="4"/>
+      <c r="B328" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C328" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D328" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="329" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="3" t="n">
         <v>45948</v>
       </c>
-      <c r="B329" s="4"/>
-      <c r="C329" s="4"/>
-      <c r="D329" s="4"/>
+      <c r="B329" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C329" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D329" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="330" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="3" t="n">
         <v>45949</v>
       </c>
-      <c r="B330" s="4"/>
-      <c r="C330" s="4"/>
-      <c r="D330" s="4"/>
+      <c r="B330" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C330" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D330" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="331" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="3" t="n">
         <v>45950</v>
       </c>
-      <c r="B331" s="4"/>
-      <c r="C331" s="4"/>
-      <c r="D331" s="4"/>
+      <c r="B331" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C331" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D331" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="332" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="3" t="n">
         <v>45951</v>
       </c>
-      <c r="B332" s="4"/>
-      <c r="C332" s="4"/>
-      <c r="D332" s="4"/>
+      <c r="B332" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C332" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D332" s="4" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="333" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="3" t="n">
         <v>45952</v>
       </c>
-      <c r="B333" s="4"/>
-      <c r="C333" s="4"/>
-      <c r="D333" s="4"/>
+      <c r="B333" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C333" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D333" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="334" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="3" t="n">
         <v>45953</v>
       </c>
-      <c r="B334" s="4"/>
-      <c r="C334" s="4"/>
-      <c r="D334" s="4"/>
+      <c r="B334" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C334" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D334" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="335" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="3" t="n">
         <v>45954</v>
       </c>
-      <c r="B335" s="4"/>
-      <c r="C335" s="4"/>
-      <c r="D335" s="4"/>
+      <c r="B335" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C335" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D335" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="336" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="3" t="n">
         <v>45955</v>
       </c>
-      <c r="B336" s="4"/>
-      <c r="C336" s="4"/>
-      <c r="D336" s="4"/>
+      <c r="B336" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C336" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D336" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="337" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="3" t="n">
         <v>45956</v>
       </c>
-      <c r="B337" s="4"/>
-      <c r="C337" s="4"/>
-      <c r="D337" s="4"/>
+      <c r="B337" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C337" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D337" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="338" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="3" t="n">

--- a/Jumple/Jumple.xlsx
+++ b/Jumple/Jumple.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main Maps" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="242">
   <si>
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
@@ -746,6 +746,24 @@
   </si>
   <si>
     <t xml:space="preserve">Our Memories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woods of Sorrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floating Mansions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remember</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Frontier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Cosmos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insanity Chamber</t>
   </si>
 </sst>
 </file>
@@ -894,7 +912,7 @@
   </sheetPr>
   <dimension ref="A1:D367"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A333" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A333" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B361" activeCellId="0" sqref="B361"/>
     </sheetView>
   </sheetViews>
@@ -6049,8 +6067,8 @@
   </sheetPr>
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A311" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C338" activeCellId="0" sqref="C338"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A332" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B367" activeCellId="0" sqref="B367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10783,233 +10801,407 @@
       <c r="A338" s="3" t="n">
         <v>45957</v>
       </c>
-      <c r="B338" s="4"/>
-      <c r="C338" s="4"/>
-      <c r="D338" s="4"/>
+      <c r="B338" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C338" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D338" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="339" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="3" t="n">
         <v>45958</v>
       </c>
-      <c r="B339" s="4"/>
-      <c r="C339" s="4"/>
-      <c r="D339" s="4"/>
+      <c r="B339" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C339" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D339" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="340" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="3" t="n">
         <v>45959</v>
       </c>
-      <c r="B340" s="4"/>
-      <c r="C340" s="4"/>
-      <c r="D340" s="4"/>
+      <c r="B340" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C340" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D340" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="341" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="3" t="n">
         <v>45960</v>
       </c>
-      <c r="B341" s="4"/>
-      <c r="C341" s="4"/>
-      <c r="D341" s="4"/>
+      <c r="B341" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C341" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D341" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="342" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="3" t="n">
         <v>45961</v>
       </c>
-      <c r="B342" s="4"/>
-      <c r="C342" s="4"/>
-      <c r="D342" s="4"/>
+      <c r="B342" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C342" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D342" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="343" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="3" t="n">
         <v>45962</v>
       </c>
-      <c r="B343" s="4"/>
-      <c r="C343" s="4"/>
-      <c r="D343" s="4"/>
+      <c r="B343" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C343" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D343" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="344" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="3" t="n">
         <v>45963</v>
       </c>
-      <c r="B344" s="4"/>
-      <c r="C344" s="4"/>
-      <c r="D344" s="4"/>
+      <c r="B344" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C344" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D344" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="345" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="3" t="n">
         <v>45964</v>
       </c>
-      <c r="B345" s="4"/>
-      <c r="C345" s="4"/>
-      <c r="D345" s="4"/>
+      <c r="B345" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C345" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D345" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="346" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="3" t="n">
         <v>45965</v>
       </c>
-      <c r="B346" s="4"/>
-      <c r="C346" s="4"/>
-      <c r="D346" s="4"/>
+      <c r="B346" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C346" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D346" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="347" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="3" t="n">
         <v>45966</v>
       </c>
-      <c r="B347" s="4"/>
-      <c r="C347" s="4"/>
-      <c r="D347" s="4"/>
+      <c r="B347" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C347" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D347" s="4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="348" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="3" t="n">
         <v>45967</v>
       </c>
-      <c r="B348" s="4"/>
-      <c r="C348" s="4"/>
-      <c r="D348" s="4"/>
+      <c r="B348" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C348" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D348" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="349" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="3" t="n">
         <v>45968</v>
       </c>
-      <c r="B349" s="4"/>
-      <c r="C349" s="4"/>
-      <c r="D349" s="4"/>
+      <c r="B349" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C349" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D349" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="350" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="3" t="n">
         <v>45969</v>
       </c>
-      <c r="B350" s="4"/>
-      <c r="C350" s="4"/>
-      <c r="D350" s="4"/>
+      <c r="B350" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C350" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D350" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="351" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="3" t="n">
         <v>45970</v>
       </c>
-      <c r="B351" s="4"/>
-      <c r="C351" s="4"/>
-      <c r="D351" s="4"/>
+      <c r="B351" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C351" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D351" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="352" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="3" t="n">
         <v>45971</v>
       </c>
-      <c r="B352" s="4"/>
-      <c r="C352" s="4"/>
-      <c r="D352" s="4"/>
+      <c r="B352" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C352" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D352" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="353" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="3" t="n">
         <v>45972</v>
       </c>
-      <c r="B353" s="4"/>
-      <c r="C353" s="4"/>
-      <c r="D353" s="4"/>
+      <c r="B353" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C353" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D353" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="354" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="3" t="n">
         <v>45973</v>
       </c>
-      <c r="B354" s="4"/>
-      <c r="C354" s="4"/>
-      <c r="D354" s="4"/>
+      <c r="B354" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C354" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D354" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="355" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="3" t="n">
         <v>45974</v>
       </c>
-      <c r="B355" s="4"/>
-      <c r="C355" s="4"/>
-      <c r="D355" s="4"/>
+      <c r="B355" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C355" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D355" s="4" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="356" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="3" t="n">
         <v>45975</v>
       </c>
-      <c r="B356" s="4"/>
-      <c r="C356" s="4"/>
-      <c r="D356" s="4"/>
+      <c r="B356" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C356" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D356" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="357" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="3" t="n">
         <v>45976</v>
       </c>
-      <c r="B357" s="4"/>
-      <c r="C357" s="4"/>
-      <c r="D357" s="4"/>
+      <c r="B357" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C357" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D357" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="358" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="3" t="n">
         <v>45977</v>
       </c>
-      <c r="B358" s="4"/>
-      <c r="C358" s="4"/>
-      <c r="D358" s="4"/>
+      <c r="B358" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C358" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D358" s="4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="359" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="3" t="n">
         <v>45978</v>
       </c>
-      <c r="B359" s="4"/>
-      <c r="C359" s="4"/>
-      <c r="D359" s="4"/>
+      <c r="B359" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C359" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D359" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="360" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="3" t="n">
         <v>45979</v>
       </c>
-      <c r="B360" s="4"/>
-      <c r="C360" s="4"/>
-      <c r="D360" s="4"/>
+      <c r="B360" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C360" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D360" s="4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="361" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="3" t="n">
         <v>45980</v>
       </c>
-      <c r="B361" s="4"/>
-      <c r="C361" s="4"/>
-      <c r="D361" s="4"/>
+      <c r="B361" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C361" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D361" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="362" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="3" t="n">
         <v>45981</v>
       </c>
-      <c r="B362" s="4"/>
-      <c r="C362" s="4"/>
-      <c r="D362" s="4"/>
+      <c r="B362" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C362" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D362" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="363" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="3" t="n">
         <v>45982</v>
       </c>
-      <c r="B363" s="4"/>
-      <c r="C363" s="4"/>
-      <c r="D363" s="4"/>
+      <c r="B363" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C363" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D363" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="364" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="3" t="n">
         <v>45983</v>
       </c>
-      <c r="B364" s="4"/>
-      <c r="C364" s="4"/>
-      <c r="D364" s="4"/>
+      <c r="B364" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C364" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D364" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="365" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="3" t="n">
         <v>45984</v>
       </c>
-      <c r="B365" s="4"/>
-      <c r="C365" s="4"/>
-      <c r="D365" s="4"/>
+      <c r="B365" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C365" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D365" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="366" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="3" t="n">
         <v>45985</v>
       </c>
-      <c r="B366" s="4"/>
-      <c r="C366" s="4"/>
-      <c r="D366" s="4"/>
+      <c r="B366" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C366" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D366" s="4" t="n">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
